--- a/France Ligue 2/France Ligue 2.xlsx
+++ b/France Ligue 2/France Ligue 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6001" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6005" uniqueCount="63">
   <si>
     <t>id</t>
   </si>
@@ -564,7 +564,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC1197"/>
+  <dimension ref="A1:AC1198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -56197,7 +56197,7 @@
         <v>624</v>
       </c>
       <c r="B626">
-        <v>5214305</v>
+        <v>5214304</v>
       </c>
       <c r="C626" t="s">
         <v>28</v>
@@ -56209,73 +56209,73 @@
         <v>44793.58333333334</v>
       </c>
       <c r="F626" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G626" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H626">
         <v>3</v>
       </c>
       <c r="I626">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J626" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K626">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="L626">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M626">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N626">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="O626">
         <v>3.2</v>
       </c>
       <c r="P626">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="Q626">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R626">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S626">
-        <v>1.875</v>
+        <v>2.125</v>
       </c>
       <c r="T626">
         <v>2.25</v>
       </c>
       <c r="U626">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V626">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W626">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X626">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y626">
         <v>-1</v>
       </c>
       <c r="Z626">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA626">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB626">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AC626">
         <v>-1</v>
@@ -56286,7 +56286,7 @@
         <v>625</v>
       </c>
       <c r="B627">
-        <v>5214304</v>
+        <v>5214379</v>
       </c>
       <c r="C627" t="s">
         <v>28</v>
@@ -56298,73 +56298,73 @@
         <v>44793.58333333334</v>
       </c>
       <c r="F627" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="G627" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H627">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I627">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J627" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K627">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="L627">
+        <v>3.2</v>
+      </c>
+      <c r="M627">
+        <v>2.1</v>
+      </c>
+      <c r="N627">
+        <v>2.9</v>
+      </c>
+      <c r="O627">
         <v>3.1</v>
       </c>
-      <c r="M627">
-        <v>2.75</v>
-      </c>
-      <c r="N627">
+      <c r="P627">
         <v>2.45</v>
       </c>
-      <c r="O627">
-        <v>3.2</v>
-      </c>
-      <c r="P627">
-        <v>2.875</v>
-      </c>
       <c r="Q627">
         <v>0</v>
       </c>
       <c r="R627">
+        <v>2.125</v>
+      </c>
+      <c r="S627">
         <v>1.75</v>
-      </c>
-      <c r="S627">
-        <v>2.125</v>
       </c>
       <c r="T627">
         <v>2.25</v>
       </c>
       <c r="U627">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V627">
+        <v>1.825</v>
+      </c>
+      <c r="W627">
         <v>1.9</v>
       </c>
-      <c r="W627">
-        <v>-1</v>
-      </c>
       <c r="X627">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y627">
         <v>-1</v>
       </c>
       <c r="Z627">
-        <v>0</v>
+        <v>1.125</v>
       </c>
       <c r="AA627">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB627">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC627">
         <v>-1</v>
@@ -56375,7 +56375,7 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>5214379</v>
+        <v>5214305</v>
       </c>
       <c r="C628" t="s">
         <v>28</v>
@@ -56387,13 +56387,13 @@
         <v>44793.58333333334</v>
       </c>
       <c r="F628" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G628" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I628">
         <v>1</v>
@@ -56402,43 +56402,43 @@
         <v>61</v>
       </c>
       <c r="K628">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="L628">
+        <v>3</v>
+      </c>
+      <c r="M628">
+        <v>3</v>
+      </c>
+      <c r="N628">
+        <v>2.25</v>
+      </c>
+      <c r="O628">
         <v>3.2</v>
       </c>
-      <c r="M628">
-        <v>2.1</v>
-      </c>
-      <c r="N628">
-        <v>2.9</v>
-      </c>
-      <c r="O628">
-        <v>3.1</v>
-      </c>
       <c r="P628">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="Q628">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R628">
-        <v>2.125</v>
+        <v>1.975</v>
       </c>
       <c r="S628">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T628">
         <v>2.25</v>
       </c>
       <c r="U628">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V628">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W628">
-        <v>1.9</v>
+        <v>1.25</v>
       </c>
       <c r="X628">
         <v>-1</v>
@@ -56447,13 +56447,13 @@
         <v>-1</v>
       </c>
       <c r="Z628">
-        <v>1.125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA628">
         <v>-1</v>
       </c>
       <c r="AB628">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AC628">
         <v>-1</v>
@@ -56820,7 +56820,7 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>5376545</v>
+        <v>5214307</v>
       </c>
       <c r="C633" t="s">
         <v>28</v>
@@ -56832,55 +56832,55 @@
         <v>44800.41666666666</v>
       </c>
       <c r="F633" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G633" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I633">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J633" t="s">
         <v>62</v>
       </c>
       <c r="K633">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="L633">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M633">
+        <v>4.5</v>
+      </c>
+      <c r="N633">
+        <v>2.05</v>
+      </c>
+      <c r="O633">
+        <v>3.4</v>
+      </c>
+      <c r="P633">
         <v>3.3</v>
       </c>
-      <c r="N633">
-        <v>2.625</v>
-      </c>
-      <c r="O633">
-        <v>3.25</v>
-      </c>
-      <c r="P633">
-        <v>2.5</v>
-      </c>
       <c r="Q633">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R633">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S633">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T633">
         <v>2.5</v>
       </c>
       <c r="U633">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V633">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W633">
         <v>-1</v>
@@ -56889,19 +56889,19 @@
         <v>-1</v>
       </c>
       <c r="Y633">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="Z633">
         <v>-1</v>
       </c>
       <c r="AA633">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB633">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC633">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="634" spans="1:29">
@@ -56909,7 +56909,7 @@
         <v>632</v>
       </c>
       <c r="B634">
-        <v>5214307</v>
+        <v>5376545</v>
       </c>
       <c r="C634" t="s">
         <v>28</v>
@@ -56921,55 +56921,55 @@
         <v>44800.41666666666</v>
       </c>
       <c r="F634" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G634" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="H634">
+        <v>0</v>
+      </c>
+      <c r="I634">
         <v>1</v>
-      </c>
-      <c r="I634">
-        <v>2</v>
       </c>
       <c r="J634" t="s">
         <v>62</v>
       </c>
       <c r="K634">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="L634">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M634">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="N634">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="O634">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P634">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q634">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R634">
+        <v>2</v>
+      </c>
+      <c r="S634">
         <v>1.85</v>
-      </c>
-      <c r="S634">
-        <v>2</v>
       </c>
       <c r="T634">
         <v>2.5</v>
       </c>
       <c r="U634">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V634">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W634">
         <v>-1</v>
@@ -56978,19 +56978,19 @@
         <v>-1</v>
       </c>
       <c r="Y634">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="Z634">
         <v>-1</v>
       </c>
       <c r="AA634">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB634">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC634">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="635" spans="1:29">
@@ -57799,7 +57799,7 @@
         <v>642</v>
       </c>
       <c r="B644">
-        <v>5216350</v>
+        <v>5376544</v>
       </c>
       <c r="C644" t="s">
         <v>28</v>
@@ -57811,13 +57811,13 @@
         <v>44803.65625</v>
       </c>
       <c r="F644" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G644" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H644">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I644">
         <v>0</v>
@@ -57826,43 +57826,43 @@
         <v>61</v>
       </c>
       <c r="K644">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="L644">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M644">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="N644">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="O644">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P644">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q644">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R644">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S644">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T644">
         <v>2.25</v>
       </c>
       <c r="U644">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V644">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W644">
-        <v>1.375</v>
+        <v>0.95</v>
       </c>
       <c r="X644">
         <v>-1</v>
@@ -57871,13 +57871,13 @@
         <v>-1</v>
       </c>
       <c r="Z644">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AA644">
         <v>-1</v>
       </c>
       <c r="AB644">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AC644">
         <v>-1</v>
@@ -57888,7 +57888,7 @@
         <v>643</v>
       </c>
       <c r="B645">
-        <v>5376544</v>
+        <v>5216350</v>
       </c>
       <c r="C645" t="s">
         <v>28</v>
@@ -57900,13 +57900,13 @@
         <v>44803.65625</v>
       </c>
       <c r="F645" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G645" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H645">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I645">
         <v>0</v>
@@ -57915,43 +57915,43 @@
         <v>61</v>
       </c>
       <c r="K645">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="L645">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M645">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="N645">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="O645">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P645">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q645">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R645">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S645">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T645">
         <v>2.25</v>
       </c>
       <c r="U645">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V645">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W645">
-        <v>0.95</v>
+        <v>1.375</v>
       </c>
       <c r="X645">
         <v>-1</v>
@@ -57960,13 +57960,13 @@
         <v>-1</v>
       </c>
       <c r="Z645">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AA645">
         <v>-1</v>
       </c>
       <c r="AB645">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="AC645">
         <v>-1</v>
@@ -57977,7 +57977,7 @@
         <v>644</v>
       </c>
       <c r="B646">
-        <v>5214391</v>
+        <v>5216349</v>
       </c>
       <c r="C646" t="s">
         <v>28</v>
@@ -57989,76 +57989,76 @@
         <v>44803.65625</v>
       </c>
       <c r="F646" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G646" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H646">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I646">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J646" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K646">
-        <v>1.615</v>
+        <v>1.55</v>
       </c>
       <c r="L646">
         <v>3.6</v>
       </c>
       <c r="M646">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="N646">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="O646">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P646">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="Q646">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R646">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S646">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T646">
         <v>2.25</v>
       </c>
       <c r="U646">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V646">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W646">
         <v>-1</v>
       </c>
       <c r="X646">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y646">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z646">
         <v>-1</v>
       </c>
       <c r="AA646">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB646">
         <v>-0.5</v>
       </c>
       <c r="AC646">
-        <v>0.4625</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="647" spans="1:29">
@@ -58066,7 +58066,7 @@
         <v>645</v>
       </c>
       <c r="B647">
-        <v>5214390</v>
+        <v>5214391</v>
       </c>
       <c r="C647" t="s">
         <v>28</v>
@@ -58078,76 +58078,76 @@
         <v>44803.65625</v>
       </c>
       <c r="F647" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G647" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I647">
         <v>1</v>
       </c>
       <c r="J647" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K647">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="L647">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M647">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N647">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O647">
+        <v>4</v>
+      </c>
+      <c r="P647">
+        <v>7</v>
+      </c>
+      <c r="Q647">
+        <v>-1</v>
+      </c>
+      <c r="R647">
+        <v>1.875</v>
+      </c>
+      <c r="S647">
+        <v>1.975</v>
+      </c>
+      <c r="T647">
+        <v>2.25</v>
+      </c>
+      <c r="U647">
+        <v>1.925</v>
+      </c>
+      <c r="V647">
+        <v>1.925</v>
+      </c>
+      <c r="W647">
+        <v>-1</v>
+      </c>
+      <c r="X647">
         <v>3</v>
       </c>
-      <c r="P647">
-        <v>3.5</v>
-      </c>
-      <c r="Q647">
-        <v>-0.25</v>
-      </c>
-      <c r="R647">
-        <v>1.95</v>
-      </c>
-      <c r="S647">
-        <v>1.9</v>
-      </c>
-      <c r="T647">
-        <v>2</v>
-      </c>
-      <c r="U647">
-        <v>1.875</v>
-      </c>
-      <c r="V647">
-        <v>1.975</v>
-      </c>
-      <c r="W647">
-        <v>-1</v>
-      </c>
-      <c r="X647">
-        <v>-1</v>
-      </c>
       <c r="Y647">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z647">
         <v>-1</v>
       </c>
       <c r="AA647">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB647">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC647">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="648" spans="1:29">
@@ -58155,7 +58155,7 @@
         <v>646</v>
       </c>
       <c r="B648">
-        <v>5214389</v>
+        <v>5214390</v>
       </c>
       <c r="C648" t="s">
         <v>28</v>
@@ -58167,76 +58167,76 @@
         <v>44803.65625</v>
       </c>
       <c r="F648" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G648" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H648">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I648">
         <v>1</v>
       </c>
       <c r="J648" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K648">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="L648">
+        <v>3.2</v>
+      </c>
+      <c r="M648">
+        <v>3.25</v>
+      </c>
+      <c r="N648">
+        <v>2.2</v>
+      </c>
+      <c r="O648">
         <v>3</v>
       </c>
-      <c r="M648">
-        <v>2.8</v>
-      </c>
-      <c r="N648">
-        <v>3.3</v>
-      </c>
-      <c r="O648">
-        <v>3.1</v>
-      </c>
       <c r="P648">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q648">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R648">
+        <v>1.95</v>
+      </c>
+      <c r="S648">
         <v>1.9</v>
       </c>
-      <c r="S648">
-        <v>1.95</v>
-      </c>
       <c r="T648">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U648">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V648">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W648">
         <v>-1</v>
       </c>
       <c r="X648">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y648">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z648">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA648">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB648">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC648">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="649" spans="1:29">
@@ -58244,7 +58244,7 @@
         <v>647</v>
       </c>
       <c r="B649">
-        <v>5214388</v>
+        <v>5214389</v>
       </c>
       <c r="C649" t="s">
         <v>28</v>
@@ -58256,76 +58256,76 @@
         <v>44803.65625</v>
       </c>
       <c r="F649" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G649" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H649">
+        <v>1</v>
+      </c>
+      <c r="I649">
+        <v>1</v>
+      </c>
+      <c r="J649" t="s">
+        <v>60</v>
+      </c>
+      <c r="K649">
+        <v>2.6</v>
+      </c>
+      <c r="L649">
         <v>3</v>
       </c>
-      <c r="I649">
-        <v>2</v>
-      </c>
-      <c r="J649" t="s">
-        <v>61</v>
-      </c>
-      <c r="K649">
-        <v>2.625</v>
-      </c>
-      <c r="L649">
+      <c r="M649">
         <v>2.8</v>
       </c>
-      <c r="M649">
-        <v>3</v>
-      </c>
       <c r="N649">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="O649">
         <v>3.1</v>
       </c>
       <c r="P649">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q649">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R649">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S649">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T649">
         <v>2.25</v>
       </c>
       <c r="U649">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V649">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W649">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X649">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y649">
         <v>-1</v>
       </c>
       <c r="Z649">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AA649">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB649">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC649">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="650" spans="1:29">
@@ -58333,7 +58333,7 @@
         <v>648</v>
       </c>
       <c r="B650">
-        <v>5214387</v>
+        <v>5214388</v>
       </c>
       <c r="C650" t="s">
         <v>28</v>
@@ -58345,73 +58345,73 @@
         <v>44803.65625</v>
       </c>
       <c r="F650" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G650" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H650">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I650">
+        <v>2</v>
+      </c>
+      <c r="J650" t="s">
+        <v>61</v>
+      </c>
+      <c r="K650">
+        <v>2.625</v>
+      </c>
+      <c r="L650">
+        <v>2.8</v>
+      </c>
+      <c r="M650">
         <v>3</v>
       </c>
-      <c r="J650" t="s">
-        <v>62</v>
-      </c>
-      <c r="K650">
+      <c r="N650">
         <v>2.1</v>
-      </c>
-      <c r="L650">
-        <v>3.25</v>
-      </c>
-      <c r="M650">
-        <v>3.4</v>
-      </c>
-      <c r="N650">
-        <v>2.625</v>
       </c>
       <c r="O650">
         <v>3.1</v>
       </c>
       <c r="P650">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q650">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R650">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S650">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T650">
         <v>2.25</v>
       </c>
       <c r="U650">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V650">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W650">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X650">
         <v>-1</v>
       </c>
       <c r="Y650">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z650">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA650">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB650">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AC650">
         <v>-1</v>
@@ -58422,7 +58422,7 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>5214310</v>
+        <v>5214387</v>
       </c>
       <c r="C651" t="s">
         <v>28</v>
@@ -58434,56 +58434,56 @@
         <v>44803.65625</v>
       </c>
       <c r="F651" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="G651" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H651">
         <v>1</v>
       </c>
       <c r="I651">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J651" t="s">
         <v>62</v>
       </c>
       <c r="K651">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L651">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M651">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="N651">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="O651">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P651">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="Q651">
         <v>0</v>
       </c>
       <c r="R651">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S651">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T651">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U651">
+        <v>2.05</v>
+      </c>
+      <c r="V651">
         <v>1.8</v>
       </c>
-      <c r="V651">
-        <v>2.05</v>
-      </c>
       <c r="W651">
         <v>-1</v>
       </c>
@@ -58491,16 +58491,16 @@
         <v>-1</v>
       </c>
       <c r="Y651">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="Z651">
         <v>-1</v>
       </c>
       <c r="AA651">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AB651">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AC651">
         <v>-1</v>
@@ -58511,7 +58511,7 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>5216349</v>
+        <v>5214310</v>
       </c>
       <c r="C652" t="s">
         <v>28</v>
@@ -58523,13 +58523,13 @@
         <v>44803.65625</v>
       </c>
       <c r="F652" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="G652" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I652">
         <v>2</v>
@@ -58538,41 +58538,41 @@
         <v>62</v>
       </c>
       <c r="K652">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="L652">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M652">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="N652">
+        <v>2.5</v>
+      </c>
+      <c r="O652">
+        <v>3</v>
+      </c>
+      <c r="P652">
+        <v>2.9</v>
+      </c>
+      <c r="Q652">
+        <v>0</v>
+      </c>
+      <c r="R652">
+        <v>1.775</v>
+      </c>
+      <c r="S652">
         <v>2.1</v>
       </c>
-      <c r="O652">
-        <v>3.2</v>
-      </c>
-      <c r="P652">
-        <v>3.6</v>
-      </c>
-      <c r="Q652">
-        <v>-0.25</v>
-      </c>
-      <c r="R652">
+      <c r="T652">
+        <v>2</v>
+      </c>
+      <c r="U652">
         <v>1.8</v>
       </c>
-      <c r="S652">
+      <c r="V652">
         <v>2.05</v>
       </c>
-      <c r="T652">
-        <v>2.25</v>
-      </c>
-      <c r="U652">
-        <v>2</v>
-      </c>
-      <c r="V652">
-        <v>1.85</v>
-      </c>
       <c r="W652">
         <v>-1</v>
       </c>
@@ -58580,19 +58580,19 @@
         <v>-1</v>
       </c>
       <c r="Y652">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="Z652">
         <v>-1</v>
       </c>
       <c r="AA652">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="AB652">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC652">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="653" spans="1:29">
@@ -58600,7 +58600,7 @@
         <v>651</v>
       </c>
       <c r="B653">
-        <v>5216348</v>
+        <v>5214396</v>
       </c>
       <c r="C653" t="s">
         <v>28</v>
@@ -58612,76 +58612,76 @@
         <v>44806.65625</v>
       </c>
       <c r="F653" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="G653" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J653" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K653">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="L653">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M653">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="N653">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="O653">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P653">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q653">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R653">
-        <v>1.8</v>
+        <v>2.125</v>
       </c>
       <c r="S653">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="T653">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U653">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V653">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W653">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X653">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y653">
         <v>-1</v>
       </c>
       <c r="Z653">
-        <v>-1</v>
+        <v>1.125</v>
       </c>
       <c r="AA653">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB653">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC653">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="654" spans="1:29">
@@ -58689,7 +58689,7 @@
         <v>652</v>
       </c>
       <c r="B654">
-        <v>5214396</v>
+        <v>5216348</v>
       </c>
       <c r="C654" t="s">
         <v>28</v>
@@ -58701,76 +58701,76 @@
         <v>44806.65625</v>
       </c>
       <c r="F654" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G654" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J654" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K654">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="L654">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M654">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="N654">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="O654">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P654">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q654">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R654">
-        <v>2.125</v>
+        <v>1.8</v>
       </c>
       <c r="S654">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="T654">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U654">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V654">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W654">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X654">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y654">
         <v>-1</v>
       </c>
       <c r="Z654">
-        <v>1.125</v>
+        <v>-1</v>
       </c>
       <c r="AA654">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB654">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC654">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="655" spans="1:29">
@@ -60558,7 +60558,7 @@
         <v>673</v>
       </c>
       <c r="B675">
-        <v>5214401</v>
+        <v>5214315</v>
       </c>
       <c r="C675" t="s">
         <v>28</v>
@@ -60570,76 +60570,76 @@
         <v>44821.58333333334</v>
       </c>
       <c r="F675" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G675" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H675">
         <v>1</v>
       </c>
       <c r="I675">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J675" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K675">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="L675">
         <v>3.2</v>
       </c>
       <c r="M675">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="N675">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="O675">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P675">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Q675">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R675">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S675">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T675">
         <v>2.25</v>
       </c>
       <c r="U675">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V675">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W675">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X675">
         <v>-1</v>
       </c>
       <c r="Y675">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z675">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA675">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB675">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC675">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="676" spans="1:29">
@@ -60647,7 +60647,7 @@
         <v>674</v>
       </c>
       <c r="B676">
-        <v>5214402</v>
+        <v>5214401</v>
       </c>
       <c r="C676" t="s">
         <v>28</v>
@@ -60659,73 +60659,73 @@
         <v>44821.58333333334</v>
       </c>
       <c r="F676" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="G676" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H676">
+        <v>1</v>
+      </c>
+      <c r="I676">
         <v>3</v>
       </c>
-      <c r="I676">
-        <v>1</v>
-      </c>
       <c r="J676" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K676">
-        <v>1.6</v>
+        <v>2.375</v>
       </c>
       <c r="L676">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M676">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="N676">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="O676">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P676">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Q676">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R676">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S676">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T676">
         <v>2.25</v>
       </c>
       <c r="U676">
+        <v>2.025</v>
+      </c>
+      <c r="V676">
         <v>1.825</v>
       </c>
-      <c r="V676">
-        <v>2.025</v>
-      </c>
       <c r="W676">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X676">
         <v>-1</v>
       </c>
       <c r="Y676">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z676">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA676">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB676">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC676">
         <v>-1</v>
@@ -60736,7 +60736,7 @@
         <v>675</v>
       </c>
       <c r="B677">
-        <v>5214403</v>
+        <v>5214402</v>
       </c>
       <c r="C677" t="s">
         <v>28</v>
@@ -60748,58 +60748,58 @@
         <v>44821.58333333334</v>
       </c>
       <c r="F677" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G677" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H677">
+        <v>3</v>
+      </c>
+      <c r="I677">
         <v>1</v>
-      </c>
-      <c r="I677">
-        <v>0</v>
       </c>
       <c r="J677" t="s">
         <v>61</v>
       </c>
       <c r="K677">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="L677">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M677">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="N677">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="O677">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P677">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q677">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R677">
+        <v>1.85</v>
+      </c>
+      <c r="S677">
+        <v>2</v>
+      </c>
+      <c r="T677">
+        <v>2.25</v>
+      </c>
+      <c r="U677">
         <v>1.825</v>
       </c>
-      <c r="S677">
+      <c r="V677">
         <v>2.025</v>
       </c>
-      <c r="T677">
-        <v>2</v>
-      </c>
-      <c r="U677">
-        <v>2.05</v>
-      </c>
-      <c r="V677">
-        <v>1.8</v>
-      </c>
       <c r="W677">
-        <v>2</v>
+        <v>0.615</v>
       </c>
       <c r="X677">
         <v>-1</v>
@@ -60808,16 +60808,16 @@
         <v>-1</v>
       </c>
       <c r="Z677">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA677">
+        <v>-1</v>
+      </c>
+      <c r="AB677">
         <v>0.825</v>
       </c>
-      <c r="AA677">
-        <v>-1</v>
-      </c>
-      <c r="AB677">
-        <v>-1</v>
-      </c>
       <c r="AC677">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="678" spans="1:29">
@@ -60825,7 +60825,7 @@
         <v>676</v>
       </c>
       <c r="B678">
-        <v>5214315</v>
+        <v>5214403</v>
       </c>
       <c r="C678" t="s">
         <v>28</v>
@@ -60837,10 +60837,10 @@
         <v>44821.58333333334</v>
       </c>
       <c r="F678" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G678" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H678">
         <v>1</v>
@@ -60852,43 +60852,43 @@
         <v>61</v>
       </c>
       <c r="K678">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="L678">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M678">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N678">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="O678">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P678">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q678">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R678">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S678">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T678">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U678">
         <v>2.05</v>
       </c>
       <c r="V678">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W678">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="X678">
         <v>-1</v>
@@ -60897,7 +60897,7 @@
         <v>-1</v>
       </c>
       <c r="Z678">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA678">
         <v>-1</v>
@@ -60906,7 +60906,7 @@
         <v>-1</v>
       </c>
       <c r="AC678">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="679" spans="1:29">
@@ -60914,7 +60914,7 @@
         <v>677</v>
       </c>
       <c r="B679">
-        <v>5215411</v>
+        <v>5214495</v>
       </c>
       <c r="C679" t="s">
         <v>28</v>
@@ -60926,76 +60926,76 @@
         <v>44821.58333333334</v>
       </c>
       <c r="F679" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G679" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H679">
         <v>1</v>
       </c>
       <c r="I679">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J679" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K679">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="L679">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M679">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N679">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="O679">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P679">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Q679">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R679">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S679">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T679">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U679">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V679">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W679">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X679">
         <v>-1</v>
       </c>
       <c r="Y679">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z679">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA679">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB679">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC679">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="680" spans="1:29">
@@ -61092,7 +61092,7 @@
         <v>679</v>
       </c>
       <c r="B681">
-        <v>5214495</v>
+        <v>5215411</v>
       </c>
       <c r="C681" t="s">
         <v>28</v>
@@ -61104,76 +61104,76 @@
         <v>44821.58333333334</v>
       </c>
       <c r="F681" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G681" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H681">
         <v>1</v>
       </c>
       <c r="I681">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J681" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K681">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="L681">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M681">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N681">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="O681">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P681">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Q681">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R681">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S681">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T681">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U681">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V681">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W681">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X681">
         <v>-1</v>
       </c>
       <c r="Y681">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z681">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA681">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB681">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC681">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="682" spans="1:29">
@@ -61270,7 +61270,7 @@
         <v>681</v>
       </c>
       <c r="B683">
-        <v>5214406</v>
+        <v>5215165</v>
       </c>
       <c r="C683" t="s">
         <v>28</v>
@@ -61282,40 +61282,40 @@
         <v>44835.58333333334</v>
       </c>
       <c r="F683" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G683" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J683" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K683">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="L683">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M683">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="N683">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="O683">
         <v>3.2</v>
       </c>
       <c r="P683">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="Q683">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R683">
         <v>2.025</v>
@@ -61327,31 +61327,31 @@
         <v>2.25</v>
       </c>
       <c r="U683">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V683">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W683">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X683">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y683">
         <v>-1</v>
       </c>
       <c r="Z683">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA683">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB683">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC683">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="684" spans="1:29">
@@ -61359,7 +61359,7 @@
         <v>682</v>
       </c>
       <c r="B684">
-        <v>5215165</v>
+        <v>5216343</v>
       </c>
       <c r="C684" t="s">
         <v>28</v>
@@ -61371,49 +61371,49 @@
         <v>44835.58333333334</v>
       </c>
       <c r="F684" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="G684" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J684" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K684">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="L684">
+        <v>3.2</v>
+      </c>
+      <c r="M684">
+        <v>3.2</v>
+      </c>
+      <c r="N684">
         <v>3</v>
       </c>
-      <c r="M684">
-        <v>2.3</v>
-      </c>
-      <c r="N684">
-        <v>3.5</v>
-      </c>
       <c r="O684">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P684">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="Q684">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R684">
-        <v>2.025</v>
+        <v>2.075</v>
       </c>
       <c r="S684">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="T684">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U684">
         <v>1.95</v>
@@ -61422,25 +61422,25 @@
         <v>1.9</v>
       </c>
       <c r="W684">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X684">
         <v>-1</v>
       </c>
       <c r="Y684">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z684">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA684">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB684">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC684">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="685" spans="1:29">
@@ -61448,7 +61448,7 @@
         <v>683</v>
       </c>
       <c r="B685">
-        <v>5216343</v>
+        <v>5214406</v>
       </c>
       <c r="C685" t="s">
         <v>28</v>
@@ -61460,76 +61460,76 @@
         <v>44835.58333333334</v>
       </c>
       <c r="F685" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G685" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H685">
         <v>0</v>
       </c>
       <c r="I685">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J685" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K685">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="L685">
         <v>3.2</v>
       </c>
       <c r="M685">
+        <v>2.9</v>
+      </c>
+      <c r="N685">
+        <v>2.8</v>
+      </c>
+      <c r="O685">
         <v>3.2</v>
       </c>
-      <c r="N685">
-        <v>3</v>
-      </c>
-      <c r="O685">
-        <v>3</v>
-      </c>
       <c r="P685">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="Q685">
         <v>0</v>
       </c>
       <c r="R685">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="S685">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="T685">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U685">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V685">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W685">
         <v>-1</v>
       </c>
       <c r="X685">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y685">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z685">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA685">
-        <v>0.7250000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB685">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC685">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="686" spans="1:29">
@@ -61537,7 +61537,7 @@
         <v>684</v>
       </c>
       <c r="B686">
-        <v>5214317</v>
+        <v>5214316</v>
       </c>
       <c r="C686" t="s">
         <v>28</v>
@@ -61549,67 +61549,67 @@
         <v>44835.58333333334</v>
       </c>
       <c r="F686" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G686" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I686">
         <v>0</v>
       </c>
       <c r="J686" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K686">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="L686">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M686">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="N686">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="O686">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P686">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="Q686">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R686">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S686">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T686">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U686">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V686">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W686">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X686">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y686">
         <v>-1</v>
       </c>
       <c r="Z686">
-        <v>0.425</v>
+        <v>0.4375</v>
       </c>
       <c r="AA686">
         <v>-0.5</v>
@@ -61618,7 +61618,7 @@
         <v>-1</v>
       </c>
       <c r="AC686">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="687" spans="1:29">
@@ -61626,7 +61626,7 @@
         <v>685</v>
       </c>
       <c r="B687">
-        <v>5214316</v>
+        <v>5214407</v>
       </c>
       <c r="C687" t="s">
         <v>28</v>
@@ -61638,76 +61638,76 @@
         <v>44835.58333333334</v>
       </c>
       <c r="F687" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G687" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H687">
+        <v>0</v>
+      </c>
+      <c r="I687">
         <v>1</v>
       </c>
-      <c r="I687">
-        <v>0</v>
-      </c>
       <c r="J687" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K687">
-        <v>1.533</v>
+        <v>2.8</v>
       </c>
       <c r="L687">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M687">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="N687">
-        <v>1.615</v>
+        <v>2.8</v>
       </c>
       <c r="O687">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P687">
-        <v>5.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q687">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R687">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S687">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T687">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U687">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V687">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W687">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X687">
         <v>-1</v>
       </c>
       <c r="Y687">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z687">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA687">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AB687">
         <v>-1</v>
       </c>
       <c r="AC687">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="688" spans="1:29">
@@ -61715,7 +61715,7 @@
         <v>686</v>
       </c>
       <c r="B688">
-        <v>5214408</v>
+        <v>5214405</v>
       </c>
       <c r="C688" t="s">
         <v>28</v>
@@ -61727,10 +61727,10 @@
         <v>44835.58333333334</v>
       </c>
       <c r="F688" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G688" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H688">
         <v>0</v>
@@ -61742,40 +61742,40 @@
         <v>62</v>
       </c>
       <c r="K688">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="L688">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M688">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="N688">
+        <v>2.6</v>
+      </c>
+      <c r="O688">
+        <v>3.1</v>
+      </c>
+      <c r="P688">
+        <v>2.8</v>
+      </c>
+      <c r="Q688">
+        <v>0</v>
+      </c>
+      <c r="R688">
+        <v>1.875</v>
+      </c>
+      <c r="S688">
+        <v>1.975</v>
+      </c>
+      <c r="T688">
+        <v>2</v>
+      </c>
+      <c r="U688">
         <v>1.8</v>
       </c>
-      <c r="O688">
-        <v>3.4</v>
-      </c>
-      <c r="P688">
-        <v>4.75</v>
-      </c>
-      <c r="Q688">
-        <v>-0.5</v>
-      </c>
-      <c r="R688">
-        <v>1.825</v>
-      </c>
-      <c r="S688">
-        <v>2.025</v>
-      </c>
-      <c r="T688">
-        <v>2.25</v>
-      </c>
-      <c r="U688">
-        <v>1.975</v>
-      </c>
       <c r="V688">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W688">
         <v>-1</v>
@@ -61784,19 +61784,19 @@
         <v>-1</v>
       </c>
       <c r="Y688">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z688">
         <v>-1</v>
       </c>
       <c r="AA688">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB688">
         <v>-1</v>
       </c>
       <c r="AC688">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="689" spans="1:29">
@@ -61804,7 +61804,7 @@
         <v>687</v>
       </c>
       <c r="B689">
-        <v>5214407</v>
+        <v>5214317</v>
       </c>
       <c r="C689" t="s">
         <v>28</v>
@@ -61816,46 +61816,46 @@
         <v>44835.58333333334</v>
       </c>
       <c r="F689" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G689" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H689">
         <v>0</v>
       </c>
       <c r="I689">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J689" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K689">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L689">
         <v>3.2</v>
       </c>
       <c r="M689">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N689">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="O689">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P689">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="Q689">
         <v>0.25</v>
       </c>
       <c r="R689">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S689">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T689">
         <v>2.25</v>
@@ -61870,16 +61870,16 @@
         <v>-1</v>
       </c>
       <c r="X689">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y689">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z689">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA689">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB689">
         <v>-1</v>
@@ -61893,7 +61893,7 @@
         <v>688</v>
       </c>
       <c r="B690">
-        <v>5214405</v>
+        <v>5214408</v>
       </c>
       <c r="C690" t="s">
         <v>28</v>
@@ -61905,10 +61905,10 @@
         <v>44835.58333333334</v>
       </c>
       <c r="F690" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G690" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H690">
         <v>0</v>
@@ -61920,41 +61920,41 @@
         <v>62</v>
       </c>
       <c r="K690">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="L690">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M690">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="N690">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="O690">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P690">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q690">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R690">
+        <v>1.825</v>
+      </c>
+      <c r="S690">
+        <v>2.025</v>
+      </c>
+      <c r="T690">
+        <v>2.25</v>
+      </c>
+      <c r="U690">
+        <v>1.975</v>
+      </c>
+      <c r="V690">
         <v>1.875</v>
       </c>
-      <c r="S690">
-        <v>1.975</v>
-      </c>
-      <c r="T690">
-        <v>2</v>
-      </c>
-      <c r="U690">
-        <v>1.8</v>
-      </c>
-      <c r="V690">
-        <v>2.05</v>
-      </c>
       <c r="W690">
         <v>-1</v>
       </c>
@@ -61962,19 +61962,19 @@
         <v>-1</v>
       </c>
       <c r="Y690">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="Z690">
         <v>-1</v>
       </c>
       <c r="AA690">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB690">
         <v>-1</v>
       </c>
       <c r="AC690">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="691" spans="1:29">
@@ -62338,7 +62338,7 @@
         <v>693</v>
       </c>
       <c r="B695">
-        <v>5214409</v>
+        <v>5214318</v>
       </c>
       <c r="C695" t="s">
         <v>28</v>
@@ -62350,58 +62350,58 @@
         <v>44842.58333333334</v>
       </c>
       <c r="F695" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G695" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H695">
         <v>3</v>
       </c>
       <c r="I695">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J695" t="s">
         <v>61</v>
       </c>
       <c r="K695">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L695">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M695">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N695">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O695">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P695">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q695">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R695">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S695">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T695">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U695">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V695">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W695">
-        <v>1.2</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X695">
         <v>-1</v>
@@ -62410,13 +62410,13 @@
         <v>-1</v>
       </c>
       <c r="Z695">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA695">
         <v>-1</v>
       </c>
       <c r="AB695">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AC695">
         <v>-1</v>
@@ -62427,7 +62427,7 @@
         <v>694</v>
       </c>
       <c r="B696">
-        <v>5214318</v>
+        <v>5214496</v>
       </c>
       <c r="C696" t="s">
         <v>28</v>
@@ -62439,46 +62439,46 @@
         <v>44842.58333333334</v>
       </c>
       <c r="F696" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G696" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H696">
+        <v>2</v>
+      </c>
+      <c r="I696">
+        <v>2</v>
+      </c>
+      <c r="J696" t="s">
+        <v>60</v>
+      </c>
+      <c r="K696">
+        <v>2.4</v>
+      </c>
+      <c r="L696">
+        <v>3.2</v>
+      </c>
+      <c r="M696">
         <v>3</v>
       </c>
-      <c r="I696">
-        <v>0</v>
-      </c>
-      <c r="J696" t="s">
-        <v>61</v>
-      </c>
-      <c r="K696">
-        <v>1.8</v>
-      </c>
-      <c r="L696">
-        <v>3.5</v>
-      </c>
-      <c r="M696">
-        <v>4.333</v>
-      </c>
       <c r="N696">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O696">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P696">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="Q696">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R696">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S696">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T696">
         <v>2</v>
@@ -62490,19 +62490,19 @@
         <v>1.925</v>
       </c>
       <c r="W696">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X696">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y696">
         <v>-1</v>
       </c>
       <c r="Z696">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA696">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB696">
         <v>0.925</v>
@@ -62516,7 +62516,7 @@
         <v>695</v>
       </c>
       <c r="B697">
-        <v>5214496</v>
+        <v>5214411</v>
       </c>
       <c r="C697" t="s">
         <v>28</v>
@@ -62528,73 +62528,73 @@
         <v>44842.58333333334</v>
       </c>
       <c r="F697" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G697" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H697">
         <v>2</v>
       </c>
       <c r="I697">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J697" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K697">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L697">
+        <v>3.25</v>
+      </c>
+      <c r="M697">
         <v>3.2</v>
       </c>
-      <c r="M697">
-        <v>3</v>
-      </c>
       <c r="N697">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O697">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P697">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q697">
         <v>-0.25</v>
       </c>
       <c r="R697">
+        <v>1.9</v>
+      </c>
+      <c r="S697">
+        <v>1.95</v>
+      </c>
+      <c r="T697">
+        <v>2.25</v>
+      </c>
+      <c r="U697">
+        <v>2.025</v>
+      </c>
+      <c r="V697">
         <v>1.825</v>
       </c>
-      <c r="S697">
-        <v>2.025</v>
-      </c>
-      <c r="T697">
-        <v>2</v>
-      </c>
-      <c r="U697">
-        <v>1.925</v>
-      </c>
-      <c r="V697">
-        <v>1.925</v>
-      </c>
       <c r="W697">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X697">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y697">
         <v>-1</v>
       </c>
       <c r="Z697">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA697">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB697">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC697">
         <v>-1</v>
@@ -62605,7 +62605,7 @@
         <v>696</v>
       </c>
       <c r="B698">
-        <v>5214411</v>
+        <v>5214410</v>
       </c>
       <c r="C698" t="s">
         <v>28</v>
@@ -62617,16 +62617,16 @@
         <v>44842.58333333334</v>
       </c>
       <c r="F698" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G698" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H698">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I698">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J698" t="s">
         <v>61</v>
@@ -62638,37 +62638,37 @@
         <v>3.25</v>
       </c>
       <c r="M698">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N698">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="O698">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P698">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="Q698">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R698">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S698">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T698">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U698">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V698">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W698">
-        <v>1.15</v>
+        <v>1.55</v>
       </c>
       <c r="X698">
         <v>-1</v>
@@ -62677,13 +62677,13 @@
         <v>-1</v>
       </c>
       <c r="Z698">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA698">
         <v>-1</v>
       </c>
       <c r="AB698">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC698">
         <v>-1</v>
@@ -62694,7 +62694,7 @@
         <v>697</v>
       </c>
       <c r="B699">
-        <v>5214410</v>
+        <v>5214409</v>
       </c>
       <c r="C699" t="s">
         <v>28</v>
@@ -62706,58 +62706,58 @@
         <v>44842.58333333334</v>
       </c>
       <c r="F699" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G699" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H699">
         <v>3</v>
       </c>
       <c r="I699">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J699" t="s">
         <v>61</v>
       </c>
       <c r="K699">
+        <v>2.25</v>
+      </c>
+      <c r="L699">
+        <v>3.2</v>
+      </c>
+      <c r="M699">
+        <v>3.2</v>
+      </c>
+      <c r="N699">
         <v>2.2</v>
       </c>
-      <c r="L699">
+      <c r="O699">
         <v>3.25</v>
       </c>
-      <c r="M699">
-        <v>3.25</v>
-      </c>
-      <c r="N699">
-        <v>2.55</v>
-      </c>
-      <c r="O699">
-        <v>3.1</v>
-      </c>
       <c r="P699">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q699">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R699">
+        <v>1.975</v>
+      </c>
+      <c r="S699">
         <v>1.875</v>
       </c>
-      <c r="S699">
-        <v>1.975</v>
-      </c>
       <c r="T699">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U699">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V699">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W699">
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="X699">
         <v>-1</v>
@@ -62766,13 +62766,13 @@
         <v>-1</v>
       </c>
       <c r="Z699">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA699">
         <v>-1</v>
       </c>
       <c r="AB699">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AC699">
         <v>-1</v>
@@ -64029,7 +64029,7 @@
         <v>712</v>
       </c>
       <c r="B714">
-        <v>5214419</v>
+        <v>5214322</v>
       </c>
       <c r="C714" t="s">
         <v>28</v>
@@ -64041,76 +64041,76 @@
         <v>44856.58333333334</v>
       </c>
       <c r="F714" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G714" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H714">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I714">
         <v>1</v>
       </c>
       <c r="J714" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K714">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="L714">
+        <v>3.1</v>
+      </c>
+      <c r="M714">
         <v>3.25</v>
       </c>
-      <c r="M714">
-        <v>2.625</v>
-      </c>
       <c r="N714">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="O714">
         <v>3.3</v>
       </c>
       <c r="P714">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q714">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R714">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S714">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T714">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U714">
+        <v>2.025</v>
+      </c>
+      <c r="V714">
         <v>1.825</v>
       </c>
-      <c r="V714">
-        <v>2.025</v>
-      </c>
       <c r="W714">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X714">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y714">
         <v>-1</v>
       </c>
       <c r="Z714">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA714">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB714">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC714">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="715" spans="1:29">
@@ -64118,7 +64118,7 @@
         <v>713</v>
       </c>
       <c r="B715">
-        <v>5214420</v>
+        <v>5214417</v>
       </c>
       <c r="C715" t="s">
         <v>28</v>
@@ -64130,76 +64130,76 @@
         <v>44856.58333333334</v>
       </c>
       <c r="F715" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G715" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H715">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I715">
         <v>0</v>
       </c>
       <c r="J715" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K715">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="L715">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M715">
+        <v>4.333</v>
+      </c>
+      <c r="N715">
+        <v>2</v>
+      </c>
+      <c r="O715">
         <v>3.4</v>
       </c>
-      <c r="N715">
-        <v>2.2</v>
-      </c>
-      <c r="O715">
-        <v>3.25</v>
-      </c>
       <c r="P715">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q715">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R715">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S715">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T715">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U715">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V715">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W715">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X715">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y715">
         <v>-1</v>
       </c>
       <c r="Z715">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA715">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB715">
         <v>-1</v>
       </c>
       <c r="AC715">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="716" spans="1:29">
@@ -64207,7 +64207,7 @@
         <v>714</v>
       </c>
       <c r="B716">
-        <v>5214417</v>
+        <v>5214418</v>
       </c>
       <c r="C716" t="s">
         <v>28</v>
@@ -64219,76 +64219,76 @@
         <v>44856.58333333334</v>
       </c>
       <c r="F716" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G716" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I716">
         <v>0</v>
       </c>
       <c r="J716" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K716">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="L716">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M716">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="N716">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O716">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P716">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q716">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R716">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S716">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T716">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U716">
+        <v>1.825</v>
+      </c>
+      <c r="V716">
         <v>2.025</v>
       </c>
-      <c r="V716">
-        <v>1.825</v>
-      </c>
       <c r="W716">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X716">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y716">
         <v>-1</v>
       </c>
       <c r="Z716">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA716">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB716">
         <v>-1</v>
       </c>
       <c r="AC716">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="717" spans="1:29">
@@ -64296,7 +64296,7 @@
         <v>715</v>
       </c>
       <c r="B717">
-        <v>5214322</v>
+        <v>5214419</v>
       </c>
       <c r="C717" t="s">
         <v>28</v>
@@ -64308,76 +64308,76 @@
         <v>44856.58333333334</v>
       </c>
       <c r="F717" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G717" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H717">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I717">
         <v>1</v>
       </c>
       <c r="J717" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K717">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="L717">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M717">
-        <v>3.25</v>
+        <v>2.625</v>
       </c>
       <c r="N717">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="O717">
         <v>3.3</v>
       </c>
       <c r="P717">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q717">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R717">
+        <v>1.85</v>
+      </c>
+      <c r="S717">
+        <v>2</v>
+      </c>
+      <c r="T717">
+        <v>2</v>
+      </c>
+      <c r="U717">
         <v>1.825</v>
       </c>
-      <c r="S717">
+      <c r="V717">
         <v>2.025</v>
       </c>
-      <c r="T717">
-        <v>2.25</v>
-      </c>
-      <c r="U717">
-        <v>2.025</v>
-      </c>
-      <c r="V717">
-        <v>1.825</v>
-      </c>
       <c r="W717">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X717">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y717">
         <v>-1</v>
       </c>
       <c r="Z717">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA717">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB717">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC717">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="718" spans="1:29">
@@ -64385,7 +64385,7 @@
         <v>716</v>
       </c>
       <c r="B718">
-        <v>5214418</v>
+        <v>5214420</v>
       </c>
       <c r="C718" t="s">
         <v>28</v>
@@ -64397,10 +64397,10 @@
         <v>44856.58333333334</v>
       </c>
       <c r="F718" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G718" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="H718">
         <v>1</v>
@@ -64412,43 +64412,43 @@
         <v>61</v>
       </c>
       <c r="K718">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L718">
         <v>3.2</v>
       </c>
       <c r="M718">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N718">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O718">
         <v>3.25</v>
       </c>
       <c r="P718">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q718">
         <v>-0.25</v>
       </c>
       <c r="R718">
+        <v>1.9</v>
+      </c>
+      <c r="S718">
         <v>1.95</v>
       </c>
-      <c r="S718">
-        <v>1.9</v>
-      </c>
       <c r="T718">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U718">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V718">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W718">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="X718">
         <v>-1</v>
@@ -64457,7 +64457,7 @@
         <v>-1</v>
       </c>
       <c r="Z718">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA718">
         <v>-1</v>
@@ -64466,7 +64466,7 @@
         <v>-1</v>
       </c>
       <c r="AC718">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719" spans="1:29">
@@ -64919,7 +64919,7 @@
         <v>722</v>
       </c>
       <c r="B724">
-        <v>5214424</v>
+        <v>5215412</v>
       </c>
       <c r="C724" t="s">
         <v>28</v>
@@ -64931,76 +64931,76 @@
         <v>44870.625</v>
       </c>
       <c r="F724" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="G724" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724">
         <v>1</v>
       </c>
       <c r="J724" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K724">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="L724">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M724">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="N724">
+        <v>3.1</v>
+      </c>
+      <c r="O724">
         <v>3.5</v>
       </c>
-      <c r="O724">
-        <v>2.9</v>
-      </c>
       <c r="P724">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Q724">
         <v>0.25</v>
       </c>
       <c r="R724">
+        <v>1.975</v>
+      </c>
+      <c r="S724">
+        <v>1.875</v>
+      </c>
+      <c r="T724">
+        <v>2.5</v>
+      </c>
+      <c r="U724">
+        <v>2</v>
+      </c>
+      <c r="V724">
         <v>1.85</v>
       </c>
-      <c r="S724">
-        <v>2</v>
-      </c>
-      <c r="T724">
-        <v>1.75</v>
-      </c>
-      <c r="U724">
-        <v>1.825</v>
-      </c>
-      <c r="V724">
-        <v>2.025</v>
-      </c>
       <c r="W724">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X724">
         <v>-1</v>
       </c>
       <c r="Y724">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z724">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA724">
+        <v>-1</v>
+      </c>
+      <c r="AB724">
         <v>1</v>
       </c>
-      <c r="AB724">
-        <v>-1</v>
-      </c>
       <c r="AC724">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="725" spans="1:29">
@@ -65008,7 +65008,7 @@
         <v>723</v>
       </c>
       <c r="B725">
-        <v>5214425</v>
+        <v>5214426</v>
       </c>
       <c r="C725" t="s">
         <v>28</v>
@@ -65020,76 +65020,76 @@
         <v>44870.625</v>
       </c>
       <c r="F725" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G725" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H725">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I725">
         <v>1</v>
       </c>
       <c r="J725" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K725">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="L725">
         <v>3.25</v>
       </c>
       <c r="M725">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="N725">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="O725">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P725">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q725">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R725">
-        <v>1.875</v>
+        <v>2.125</v>
       </c>
       <c r="S725">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T725">
         <v>2.25</v>
       </c>
       <c r="U725">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V725">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W725">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X725">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y725">
         <v>-1</v>
       </c>
       <c r="Z725">
-        <v>0.4375</v>
+        <v>1.125</v>
       </c>
       <c r="AA725">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB725">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC725">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="726" spans="1:29">
@@ -65097,7 +65097,7 @@
         <v>724</v>
       </c>
       <c r="B726">
-        <v>5214426</v>
+        <v>5214425</v>
       </c>
       <c r="C726" t="s">
         <v>28</v>
@@ -65109,76 +65109,76 @@
         <v>44870.625</v>
       </c>
       <c r="F726" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G726" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H726">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I726">
         <v>1</v>
       </c>
       <c r="J726" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K726">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="L726">
         <v>3.25</v>
       </c>
       <c r="M726">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="N726">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="O726">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P726">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="Q726">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R726">
-        <v>2.125</v>
+        <v>1.875</v>
       </c>
       <c r="S726">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T726">
         <v>2.25</v>
       </c>
       <c r="U726">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V726">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W726">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X726">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y726">
         <v>-1</v>
       </c>
       <c r="Z726">
-        <v>1.125</v>
+        <v>0.4375</v>
       </c>
       <c r="AA726">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB726">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AC726">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="727" spans="1:29">
@@ -65186,7 +65186,7 @@
         <v>725</v>
       </c>
       <c r="B727">
-        <v>5215412</v>
+        <v>5214424</v>
       </c>
       <c r="C727" t="s">
         <v>28</v>
@@ -65198,76 +65198,76 @@
         <v>44870.625</v>
       </c>
       <c r="F727" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="G727" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H727">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I727">
         <v>1</v>
       </c>
       <c r="J727" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K727">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="L727">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M727">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="N727">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O727">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P727">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q727">
         <v>0.25</v>
       </c>
       <c r="R727">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S727">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T727">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U727">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V727">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W727">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X727">
         <v>-1</v>
       </c>
       <c r="Y727">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z727">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA727">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB727">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC727">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="728" spans="1:29">
@@ -65898,7 +65898,7 @@
         <v>733</v>
       </c>
       <c r="B735">
-        <v>5214325</v>
+        <v>5376535</v>
       </c>
       <c r="C735" t="s">
         <v>28</v>
@@ -65910,76 +65910,76 @@
         <v>44877.625</v>
       </c>
       <c r="F735" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="G735" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H735">
         <v>1</v>
       </c>
       <c r="I735">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J735" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K735">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="L735">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M735">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="N735">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="O735">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P735">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q735">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R735">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S735">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T735">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U735">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V735">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W735">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X735">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y735">
         <v>-1</v>
       </c>
       <c r="Z735">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA735">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB735">
         <v>-1</v>
       </c>
       <c r="AC735">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="736" spans="1:29">
@@ -65987,7 +65987,7 @@
         <v>734</v>
       </c>
       <c r="B736">
-        <v>5214326</v>
+        <v>5216335</v>
       </c>
       <c r="C736" t="s">
         <v>28</v>
@@ -65999,40 +65999,40 @@
         <v>44877.625</v>
       </c>
       <c r="F736" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G736" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H736">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I736">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J736" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K736">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="L736">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M736">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N736">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O736">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P736">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q736">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R736">
         <v>2.05</v>
@@ -66041,22 +66041,22 @@
         <v>1.8</v>
       </c>
       <c r="T736">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U736">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V736">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W736">
         <v>-1</v>
       </c>
       <c r="X736">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y736">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z736">
         <v>-1</v>
@@ -66065,10 +66065,10 @@
         <v>0.8</v>
       </c>
       <c r="AB736">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC736">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="737" spans="1:29">
@@ -66076,7 +66076,7 @@
         <v>735</v>
       </c>
       <c r="B737">
-        <v>5214327</v>
+        <v>5214325</v>
       </c>
       <c r="C737" t="s">
         <v>28</v>
@@ -66088,76 +66088,76 @@
         <v>44877.625</v>
       </c>
       <c r="F737" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G737" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I737">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J737" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K737">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="L737">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M737">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="N737">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="O737">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P737">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="Q737">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R737">
-        <v>2.125</v>
+        <v>1.875</v>
       </c>
       <c r="S737">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T737">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U737">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V737">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="W737">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X737">
         <v>-1</v>
       </c>
       <c r="Y737">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z737">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA737">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB737">
         <v>-1</v>
       </c>
       <c r="AC737">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="738" spans="1:29">
@@ -66165,7 +66165,7 @@
         <v>736</v>
       </c>
       <c r="B738">
-        <v>5214427</v>
+        <v>5214429</v>
       </c>
       <c r="C738" t="s">
         <v>28</v>
@@ -66177,76 +66177,76 @@
         <v>44877.625</v>
       </c>
       <c r="F738" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G738" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H738">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I738">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J738" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K738">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="L738">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M738">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N738">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O738">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P738">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q738">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R738">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S738">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T738">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U738">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V738">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W738">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X738">
         <v>-1</v>
       </c>
       <c r="Y738">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z738">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA738">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB738">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC738">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="739" spans="1:29">
@@ -66254,7 +66254,7 @@
         <v>737</v>
       </c>
       <c r="B739">
-        <v>5214428</v>
+        <v>5214326</v>
       </c>
       <c r="C739" t="s">
         <v>28</v>
@@ -66266,76 +66266,76 @@
         <v>44877.625</v>
       </c>
       <c r="F739" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G739" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I739">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J739" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K739">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="L739">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M739">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="N739">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="O739">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P739">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q739">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R739">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S739">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T739">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U739">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V739">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W739">
         <v>-1</v>
       </c>
       <c r="X739">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y739">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z739">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA739">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AB739">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC739">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="740" spans="1:29">
@@ -66343,7 +66343,7 @@
         <v>738</v>
       </c>
       <c r="B740">
-        <v>5214429</v>
+        <v>5214427</v>
       </c>
       <c r="C740" t="s">
         <v>28</v>
@@ -66355,76 +66355,76 @@
         <v>44877.625</v>
       </c>
       <c r="F740" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G740" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I740">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J740" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K740">
+        <v>2.1</v>
+      </c>
+      <c r="L740">
+        <v>3.2</v>
+      </c>
+      <c r="M740">
+        <v>3.4</v>
+      </c>
+      <c r="N740">
+        <v>2.1</v>
+      </c>
+      <c r="O740">
+        <v>3.2</v>
+      </c>
+      <c r="P740">
+        <v>3.4</v>
+      </c>
+      <c r="Q740">
+        <v>-0.25</v>
+      </c>
+      <c r="R740">
         <v>1.85</v>
       </c>
-      <c r="L740">
-        <v>3.25</v>
-      </c>
-      <c r="M740">
-        <v>4.2</v>
-      </c>
-      <c r="N740">
-        <v>1.95</v>
-      </c>
-      <c r="O740">
-        <v>3.1</v>
-      </c>
-      <c r="P740">
-        <v>4</v>
-      </c>
-      <c r="Q740">
-        <v>-0.5</v>
-      </c>
-      <c r="R740">
-        <v>2.05</v>
-      </c>
       <c r="S740">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T740">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U740">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V740">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W740">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X740">
         <v>-1</v>
       </c>
       <c r="Y740">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z740">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA740">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB740">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC740">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="741" spans="1:29">
@@ -66432,7 +66432,7 @@
         <v>739</v>
       </c>
       <c r="B741">
-        <v>5216335</v>
+        <v>5214327</v>
       </c>
       <c r="C741" t="s">
         <v>28</v>
@@ -66444,76 +66444,76 @@
         <v>44877.625</v>
       </c>
       <c r="F741" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G741" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H741">
         <v>0</v>
       </c>
       <c r="I741">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J741" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K741">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="L741">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M741">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="N741">
+        <v>2.9</v>
+      </c>
+      <c r="O741">
+        <v>3.1</v>
+      </c>
+      <c r="P741">
+        <v>2.45</v>
+      </c>
+      <c r="Q741">
+        <v>0</v>
+      </c>
+      <c r="R741">
+        <v>2.125</v>
+      </c>
+      <c r="S741">
         <v>1.75</v>
       </c>
-      <c r="O741">
-        <v>3.3</v>
-      </c>
-      <c r="P741">
-        <v>4.75</v>
-      </c>
-      <c r="Q741">
-        <v>-0.75</v>
-      </c>
-      <c r="R741">
-        <v>2.05</v>
-      </c>
-      <c r="S741">
-        <v>1.8</v>
-      </c>
       <c r="T741">
         <v>2</v>
       </c>
       <c r="U741">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V741">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="W741">
         <v>-1</v>
       </c>
       <c r="X741">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y741">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z741">
         <v>-1</v>
       </c>
       <c r="AA741">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AB741">
         <v>-1</v>
       </c>
       <c r="AC741">
-        <v>1.025</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="742" spans="1:29">
@@ -66521,7 +66521,7 @@
         <v>740</v>
       </c>
       <c r="B742">
-        <v>5376535</v>
+        <v>5214428</v>
       </c>
       <c r="C742" t="s">
         <v>28</v>
@@ -66533,76 +66533,76 @@
         <v>44877.625</v>
       </c>
       <c r="F742" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G742" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H742">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I742">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J742" t="s">
         <v>60</v>
       </c>
       <c r="K742">
-        <v>1.615</v>
+        <v>2.55</v>
       </c>
       <c r="L742">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M742">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="N742">
-        <v>1.7</v>
+        <v>2.375</v>
       </c>
       <c r="O742">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P742">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q742">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R742">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S742">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T742">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U742">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V742">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W742">
         <v>-1</v>
       </c>
       <c r="X742">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="Y742">
         <v>-1</v>
       </c>
       <c r="Z742">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA742">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
       <c r="AB742">
         <v>-1</v>
       </c>
       <c r="AC742">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="743" spans="1:29">
@@ -67678,7 +67678,7 @@
         <v>753</v>
       </c>
       <c r="B755">
-        <v>5214331</v>
+        <v>5214435</v>
       </c>
       <c r="C755" t="s">
         <v>28</v>
@@ -67690,76 +67690,76 @@
         <v>44925.70833333334</v>
       </c>
       <c r="F755" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G755" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H755">
         <v>0</v>
       </c>
       <c r="I755">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J755" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K755">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="L755">
         <v>3</v>
       </c>
       <c r="M755">
+        <v>2.625</v>
+      </c>
+      <c r="N755">
         <v>2.9</v>
       </c>
-      <c r="N755">
-        <v>2.875</v>
-      </c>
       <c r="O755">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P755">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="Q755">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R755">
+        <v>1.775</v>
+      </c>
+      <c r="S755">
         <v>2.1</v>
       </c>
-      <c r="S755">
-        <v>1.775</v>
-      </c>
       <c r="T755">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U755">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V755">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W755">
         <v>-1</v>
       </c>
       <c r="X755">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y755">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z755">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA755">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB755">
         <v>-1</v>
       </c>
       <c r="AC755">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="756" spans="1:29">
@@ -67767,7 +67767,7 @@
         <v>754</v>
       </c>
       <c r="B756">
-        <v>5214332</v>
+        <v>5214331</v>
       </c>
       <c r="C756" t="s">
         <v>28</v>
@@ -67779,76 +67779,76 @@
         <v>44925.70833333334</v>
       </c>
       <c r="F756" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G756" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="H756">
+        <v>0</v>
+      </c>
+      <c r="I756">
         <v>1</v>
       </c>
-      <c r="I756">
-        <v>0</v>
-      </c>
       <c r="J756" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K756">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="L756">
         <v>3</v>
       </c>
       <c r="M756">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="N756">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="O756">
         <v>3</v>
       </c>
       <c r="P756">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q756">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R756">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S756">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="T756">
         <v>2</v>
       </c>
       <c r="U756">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V756">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W756">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X756">
         <v>-1</v>
       </c>
       <c r="Y756">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z756">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA756">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB756">
         <v>-1</v>
       </c>
       <c r="AC756">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="757" spans="1:29">
@@ -67945,7 +67945,7 @@
         <v>756</v>
       </c>
       <c r="B758">
-        <v>5214435</v>
+        <v>5214434</v>
       </c>
       <c r="C758" t="s">
         <v>28</v>
@@ -67957,76 +67957,76 @@
         <v>44925.70833333334</v>
       </c>
       <c r="F758" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="G758" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H758">
         <v>0</v>
       </c>
       <c r="I758">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J758" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K758">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="L758">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M758">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="N758">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="O758">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P758">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="Q758">
         <v>0.25</v>
       </c>
       <c r="R758">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S758">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T758">
         <v>2.25</v>
       </c>
       <c r="U758">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V758">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W758">
         <v>-1</v>
       </c>
       <c r="X758">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y758">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z758">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA758">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB758">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC758">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="759" spans="1:29">
@@ -68034,7 +68034,7 @@
         <v>757</v>
       </c>
       <c r="B759">
-        <v>5214434</v>
+        <v>5214332</v>
       </c>
       <c r="C759" t="s">
         <v>28</v>
@@ -68046,76 +68046,76 @@
         <v>44925.70833333334</v>
       </c>
       <c r="F759" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G759" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I759">
+        <v>0</v>
+      </c>
+      <c r="J759" t="s">
+        <v>61</v>
+      </c>
+      <c r="K759">
+        <v>2.2</v>
+      </c>
+      <c r="L759">
         <v>3</v>
       </c>
-      <c r="J759" t="s">
-        <v>62</v>
-      </c>
-      <c r="K759">
-        <v>2.45</v>
-      </c>
-      <c r="L759">
-        <v>3.1</v>
-      </c>
       <c r="M759">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="N759">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="O759">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P759">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q759">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R759">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S759">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="T759">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U759">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V759">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W759">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X759">
         <v>-1</v>
       </c>
       <c r="Y759">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z759">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA759">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB759">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC759">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="760" spans="1:29">
@@ -70259,7 +70259,7 @@
         <v>782</v>
       </c>
       <c r="B784">
-        <v>5214341</v>
+        <v>5214342</v>
       </c>
       <c r="C784" t="s">
         <v>28</v>
@@ -70271,76 +70271,76 @@
         <v>44954.625</v>
       </c>
       <c r="F784" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G784" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H784">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I784">
         <v>1</v>
       </c>
       <c r="J784" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K784">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="L784">
         <v>3.1</v>
       </c>
       <c r="M784">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="N784">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="O784">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="P784">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="Q784">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R784">
-        <v>1.95</v>
+        <v>2.125</v>
       </c>
       <c r="S784">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T784">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U784">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V784">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W784">
         <v>-1</v>
       </c>
       <c r="X784">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y784">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z784">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA784">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB784">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC784">
-        <v>0.475</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="785" spans="1:29">
@@ -70348,7 +70348,7 @@
         <v>783</v>
       </c>
       <c r="B785">
-        <v>5214342</v>
+        <v>5214340</v>
       </c>
       <c r="C785" t="s">
         <v>28</v>
@@ -70360,10 +70360,10 @@
         <v>44954.625</v>
       </c>
       <c r="F785" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G785" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H785">
         <v>0</v>
@@ -70375,61 +70375,61 @@
         <v>62</v>
       </c>
       <c r="K785">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="L785">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M785">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="N785">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="O785">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P785">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q785">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R785">
-        <v>2.125</v>
+        <v>1.925</v>
       </c>
       <c r="S785">
+        <v>1.925</v>
+      </c>
+      <c r="T785">
+        <v>2</v>
+      </c>
+      <c r="U785">
+        <v>1.8</v>
+      </c>
+      <c r="V785">
+        <v>2.05</v>
+      </c>
+      <c r="W785">
+        <v>-1</v>
+      </c>
+      <c r="X785">
+        <v>-1</v>
+      </c>
+      <c r="Y785">
         <v>1.75</v>
       </c>
-      <c r="T785">
-        <v>1.75</v>
-      </c>
-      <c r="U785">
-        <v>1.825</v>
-      </c>
-      <c r="V785">
-        <v>2.025</v>
-      </c>
-      <c r="W785">
-        <v>-1</v>
-      </c>
-      <c r="X785">
-        <v>-1</v>
-      </c>
-      <c r="Y785">
-        <v>2.2</v>
-      </c>
       <c r="Z785">
         <v>-1</v>
       </c>
       <c r="AA785">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AB785">
         <v>-1</v>
       </c>
       <c r="AC785">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="786" spans="1:29">
@@ -70437,7 +70437,7 @@
         <v>784</v>
       </c>
       <c r="B786">
-        <v>5214340</v>
+        <v>5214341</v>
       </c>
       <c r="C786" t="s">
         <v>28</v>
@@ -70449,76 +70449,76 @@
         <v>44954.625</v>
       </c>
       <c r="F786" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G786" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I786">
         <v>1</v>
       </c>
       <c r="J786" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K786">
         <v>3.1</v>
       </c>
       <c r="L786">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M786">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="N786">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="O786">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P786">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q786">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R786">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S786">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T786">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U786">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V786">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W786">
         <v>-1</v>
       </c>
       <c r="X786">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y786">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z786">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA786">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB786">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC786">
-        <v>1.05</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="787" spans="1:29">
@@ -70704,7 +70704,7 @@
         <v>787</v>
       </c>
       <c r="B789">
-        <v>5214444</v>
+        <v>5216328</v>
       </c>
       <c r="C789" t="s">
         <v>28</v>
@@ -70716,73 +70716,73 @@
         <v>44954.625</v>
       </c>
       <c r="F789" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G789" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="H789">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I789">
         <v>2</v>
       </c>
       <c r="J789" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K789">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L789">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M789">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="N789">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="O789">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P789">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="Q789">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R789">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S789">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T789">
         <v>2.25</v>
       </c>
       <c r="U789">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V789">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W789">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X789">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y789">
         <v>-1</v>
       </c>
       <c r="Z789">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA789">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB789">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC789">
         <v>-1</v>
@@ -70793,7 +70793,7 @@
         <v>788</v>
       </c>
       <c r="B790">
-        <v>5216328</v>
+        <v>5215414</v>
       </c>
       <c r="C790" t="s">
         <v>28</v>
@@ -70805,73 +70805,73 @@
         <v>44954.625</v>
       </c>
       <c r="F790" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G790" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="H790">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I790">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J790" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K790">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="L790">
         <v>3.1</v>
       </c>
       <c r="M790">
+        <v>2.75</v>
+      </c>
+      <c r="N790">
+        <v>2.6</v>
+      </c>
+      <c r="O790">
+        <v>3.1</v>
+      </c>
+      <c r="P790">
         <v>2.8</v>
       </c>
-      <c r="N790">
-        <v>2.55</v>
-      </c>
-      <c r="O790">
-        <v>3.2</v>
-      </c>
-      <c r="P790">
-        <v>2.875</v>
-      </c>
       <c r="Q790">
         <v>0</v>
       </c>
       <c r="R790">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S790">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T790">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U790">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V790">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W790">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X790">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y790">
         <v>-1</v>
       </c>
       <c r="Z790">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA790">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB790">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AC790">
         <v>-1</v>
@@ -70882,7 +70882,7 @@
         <v>789</v>
       </c>
       <c r="B791">
-        <v>5215414</v>
+        <v>5214445</v>
       </c>
       <c r="C791" t="s">
         <v>28</v>
@@ -70894,76 +70894,76 @@
         <v>44954.625</v>
       </c>
       <c r="F791" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G791" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H791">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I791">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J791" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K791">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="L791">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M791">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="N791">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="O791">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P791">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q791">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R791">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S791">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T791">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U791">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V791">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W791">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X791">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y791">
         <v>-1</v>
       </c>
       <c r="Z791">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA791">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB791">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC791">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="792" spans="1:29">
@@ -70971,7 +70971,7 @@
         <v>790</v>
       </c>
       <c r="B792">
-        <v>5214445</v>
+        <v>5214444</v>
       </c>
       <c r="C792" t="s">
         <v>28</v>
@@ -70983,76 +70983,76 @@
         <v>44954.625</v>
       </c>
       <c r="F792" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G792" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I792">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J792" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K792">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="L792">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M792">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="N792">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="O792">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P792">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q792">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R792">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S792">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T792">
         <v>2.25</v>
       </c>
       <c r="U792">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V792">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W792">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X792">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y792">
         <v>-1</v>
       </c>
       <c r="Z792">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA792">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB792">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC792">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="793" spans="1:29">
@@ -71594,7 +71594,7 @@
         <v>797</v>
       </c>
       <c r="B799">
-        <v>5215168</v>
+        <v>5214503</v>
       </c>
       <c r="C799" t="s">
         <v>28</v>
@@ -71606,76 +71606,76 @@
         <v>44957.69791666666</v>
       </c>
       <c r="F799" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G799" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H799">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I799">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J799" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K799">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L799">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M799">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N799">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O799">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P799">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q799">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R799">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S799">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T799">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U799">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V799">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W799">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X799">
         <v>-1</v>
       </c>
       <c r="Y799">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z799">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA799">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB799">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC799">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="800" spans="1:29">
@@ -71683,7 +71683,7 @@
         <v>798</v>
       </c>
       <c r="B800">
-        <v>5214503</v>
+        <v>5215168</v>
       </c>
       <c r="C800" t="s">
         <v>28</v>
@@ -71695,76 +71695,76 @@
         <v>44957.69791666666</v>
       </c>
       <c r="F800" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G800" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I800">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J800" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K800">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L800">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M800">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N800">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="O800">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P800">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q800">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R800">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S800">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T800">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U800">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V800">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W800">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X800">
         <v>-1</v>
       </c>
       <c r="Y800">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z800">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA800">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB800">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC800">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="801" spans="1:29">
@@ -71772,7 +71772,7 @@
         <v>799</v>
       </c>
       <c r="B801">
-        <v>5214448</v>
+        <v>5214447</v>
       </c>
       <c r="C801" t="s">
         <v>28</v>
@@ -71784,76 +71784,76 @@
         <v>44957.69791666666</v>
       </c>
       <c r="F801" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G801" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H801">
         <v>1</v>
       </c>
       <c r="I801">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J801" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K801">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="L801">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M801">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="N801">
+        <v>2.8</v>
+      </c>
+      <c r="O801">
+        <v>2.8</v>
+      </c>
+      <c r="P801">
         <v>2.875</v>
       </c>
-      <c r="O801">
-        <v>3.1</v>
-      </c>
-      <c r="P801">
-        <v>2.55</v>
-      </c>
       <c r="Q801">
         <v>0</v>
       </c>
       <c r="R801">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S801">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T801">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U801">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V801">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W801">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X801">
         <v>-1</v>
       </c>
       <c r="Y801">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z801">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA801">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB801">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC801">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="802" spans="1:29">
@@ -71861,7 +71861,7 @@
         <v>800</v>
       </c>
       <c r="B802">
-        <v>5214447</v>
+        <v>5214448</v>
       </c>
       <c r="C802" t="s">
         <v>28</v>
@@ -71873,76 +71873,76 @@
         <v>44957.69791666666</v>
       </c>
       <c r="F802" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G802" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H802">
         <v>1</v>
       </c>
       <c r="I802">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J802" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K802">
+        <v>3.1</v>
+      </c>
+      <c r="L802">
+        <v>3.1</v>
+      </c>
+      <c r="M802">
+        <v>2.375</v>
+      </c>
+      <c r="N802">
+        <v>2.875</v>
+      </c>
+      <c r="O802">
+        <v>3.1</v>
+      </c>
+      <c r="P802">
+        <v>2.55</v>
+      </c>
+      <c r="Q802">
+        <v>0</v>
+      </c>
+      <c r="R802">
+        <v>2.1</v>
+      </c>
+      <c r="S802">
+        <v>1.775</v>
+      </c>
+      <c r="T802">
         <v>2.25</v>
       </c>
-      <c r="L802">
-        <v>2.9</v>
-      </c>
-      <c r="M802">
-        <v>3.6</v>
-      </c>
-      <c r="N802">
-        <v>2.8</v>
-      </c>
-      <c r="O802">
-        <v>2.8</v>
-      </c>
-      <c r="P802">
-        <v>2.875</v>
-      </c>
-      <c r="Q802">
-        <v>0</v>
-      </c>
-      <c r="R802">
-        <v>1.85</v>
-      </c>
-      <c r="S802">
-        <v>2</v>
-      </c>
-      <c r="T802">
-        <v>1.75</v>
-      </c>
       <c r="U802">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V802">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W802">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X802">
         <v>-1</v>
       </c>
       <c r="Y802">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z802">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA802">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB802">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC802">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="803" spans="1:29">
@@ -71950,7 +71950,7 @@
         <v>801</v>
       </c>
       <c r="B803">
-        <v>5215435</v>
+        <v>5214347</v>
       </c>
       <c r="C803" t="s">
         <v>28</v>
@@ -71962,73 +71962,73 @@
         <v>44960.69791666666</v>
       </c>
       <c r="F803" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G803" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H803">
+        <v>3</v>
+      </c>
+      <c r="I803">
         <v>1</v>
       </c>
-      <c r="I803">
-        <v>2</v>
-      </c>
       <c r="J803" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K803">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="L803">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M803">
+        <v>4</v>
+      </c>
+      <c r="N803">
         <v>2.1</v>
       </c>
-      <c r="N803">
-        <v>3.3</v>
-      </c>
       <c r="O803">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P803">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="Q803">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R803">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S803">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T803">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U803">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V803">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W803">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X803">
         <v>-1</v>
       </c>
       <c r="Y803">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z803">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA803">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB803">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC803">
         <v>-1</v>
@@ -72039,7 +72039,7 @@
         <v>802</v>
       </c>
       <c r="B804">
-        <v>5214345</v>
+        <v>5215435</v>
       </c>
       <c r="C804" t="s">
         <v>28</v>
@@ -72051,76 +72051,76 @@
         <v>44960.69791666666</v>
       </c>
       <c r="F804" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="G804" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H804">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I804">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J804" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K804">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="L804">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M804">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="N804">
+        <v>3.3</v>
+      </c>
+      <c r="O804">
+        <v>3.4</v>
+      </c>
+      <c r="P804">
+        <v>2.15</v>
+      </c>
+      <c r="Q804">
+        <v>0.25</v>
+      </c>
+      <c r="R804">
+        <v>1.925</v>
+      </c>
+      <c r="S804">
+        <v>1.925</v>
+      </c>
+      <c r="T804">
         <v>2.25</v>
       </c>
-      <c r="O804">
-        <v>3</v>
-      </c>
-      <c r="P804">
-        <v>3.5</v>
-      </c>
-      <c r="Q804">
-        <v>-0.25</v>
-      </c>
-      <c r="R804">
-        <v>1.95</v>
-      </c>
-      <c r="S804">
-        <v>1.9</v>
-      </c>
-      <c r="T804">
-        <v>2</v>
-      </c>
       <c r="U804">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V804">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W804">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X804">
         <v>-1</v>
       </c>
       <c r="Y804">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z804">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA804">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB804">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC804">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="805" spans="1:29">
@@ -72128,7 +72128,7 @@
         <v>803</v>
       </c>
       <c r="B805">
-        <v>5214347</v>
+        <v>5214345</v>
       </c>
       <c r="C805" t="s">
         <v>28</v>
@@ -72140,58 +72140,58 @@
         <v>44960.69791666666</v>
       </c>
       <c r="F805" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G805" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H805">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I805">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J805" t="s">
         <v>61</v>
       </c>
       <c r="K805">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L805">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M805">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="N805">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O805">
         <v>3</v>
       </c>
       <c r="P805">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q805">
         <v>-0.25</v>
       </c>
       <c r="R805">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S805">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T805">
         <v>2</v>
       </c>
       <c r="U805">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V805">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W805">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="X805">
         <v>-1</v>
@@ -72200,16 +72200,16 @@
         <v>-1</v>
       </c>
       <c r="Z805">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA805">
         <v>-1</v>
       </c>
       <c r="AB805">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC805">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="806" spans="1:29">
@@ -72929,7 +72929,7 @@
         <v>812</v>
       </c>
       <c r="B814">
-        <v>5214349</v>
+        <v>5376527</v>
       </c>
       <c r="C814" t="s">
         <v>28</v>
@@ -72941,76 +72941,76 @@
         <v>44968.625</v>
       </c>
       <c r="F814" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G814" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I814">
         <v>1</v>
       </c>
       <c r="J814" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K814">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="L814">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M814">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="N814">
+        <v>4.75</v>
+      </c>
+      <c r="O814">
+        <v>3.4</v>
+      </c>
+      <c r="P814">
+        <v>1.75</v>
+      </c>
+      <c r="Q814">
+        <v>0.75</v>
+      </c>
+      <c r="R814">
+        <v>1.875</v>
+      </c>
+      <c r="S814">
+        <v>1.975</v>
+      </c>
+      <c r="T814">
         <v>2.25</v>
       </c>
-      <c r="O814">
-        <v>2.875</v>
-      </c>
-      <c r="P814">
-        <v>3.4</v>
-      </c>
-      <c r="Q814">
-        <v>-0.25</v>
-      </c>
-      <c r="R814">
-        <v>2.025</v>
-      </c>
-      <c r="S814">
-        <v>1.825</v>
-      </c>
-      <c r="T814">
-        <v>1.75</v>
-      </c>
       <c r="U814">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V814">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W814">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X814">
         <v>-1</v>
       </c>
       <c r="Y814">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z814">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA814">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB814">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC814">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="815" spans="1:29">
@@ -73018,7 +73018,7 @@
         <v>813</v>
       </c>
       <c r="B815">
-        <v>5376527</v>
+        <v>5214349</v>
       </c>
       <c r="C815" t="s">
         <v>28</v>
@@ -73030,76 +73030,76 @@
         <v>44968.625</v>
       </c>
       <c r="F815" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G815" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H815">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I815">
         <v>1</v>
       </c>
       <c r="J815" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K815">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="L815">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M815">
-        <v>1.85</v>
+        <v>3.8</v>
       </c>
       <c r="N815">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="O815">
+        <v>2.875</v>
+      </c>
+      <c r="P815">
         <v>3.4</v>
       </c>
-      <c r="P815">
+      <c r="Q815">
+        <v>-0.25</v>
+      </c>
+      <c r="R815">
+        <v>2.025</v>
+      </c>
+      <c r="S815">
+        <v>1.825</v>
+      </c>
+      <c r="T815">
         <v>1.75</v>
       </c>
-      <c r="Q815">
-        <v>0.75</v>
-      </c>
-      <c r="R815">
-        <v>1.875</v>
-      </c>
-      <c r="S815">
-        <v>1.975</v>
-      </c>
-      <c r="T815">
-        <v>2.25</v>
-      </c>
       <c r="U815">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V815">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W815">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X815">
         <v>-1</v>
       </c>
       <c r="Y815">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z815">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA815">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB815">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC815">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="816" spans="1:29">
@@ -73285,7 +73285,7 @@
         <v>816</v>
       </c>
       <c r="B818">
-        <v>5214455</v>
+        <v>5214453</v>
       </c>
       <c r="C818" t="s">
         <v>28</v>
@@ -73297,10 +73297,10 @@
         <v>44968.625</v>
       </c>
       <c r="F818" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G818" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H818">
         <v>1</v>
@@ -73312,16 +73312,16 @@
         <v>60</v>
       </c>
       <c r="K818">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L818">
         <v>3</v>
       </c>
       <c r="M818">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="N818">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="O818">
         <v>3</v>
@@ -73333,19 +73333,19 @@
         <v>-0.25</v>
       </c>
       <c r="R818">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S818">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T818">
         <v>2</v>
       </c>
       <c r="U818">
+        <v>1.95</v>
+      </c>
+      <c r="V818">
         <v>1.9</v>
-      </c>
-      <c r="V818">
-        <v>1.95</v>
       </c>
       <c r="W818">
         <v>-1</v>
@@ -73360,7 +73360,7 @@
         <v>-0.5</v>
       </c>
       <c r="AA818">
-        <v>0.3875</v>
+        <v>0.4125</v>
       </c>
       <c r="AB818">
         <v>0</v>
@@ -73374,7 +73374,7 @@
         <v>817</v>
       </c>
       <c r="B819">
-        <v>5214453</v>
+        <v>5214350</v>
       </c>
       <c r="C819" t="s">
         <v>28</v>
@@ -73386,76 +73386,76 @@
         <v>44968.625</v>
       </c>
       <c r="F819" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G819" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H819">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I819">
         <v>1</v>
       </c>
       <c r="J819" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K819">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="L819">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M819">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="N819">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="O819">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P819">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q819">
         <v>-0.25</v>
       </c>
       <c r="R819">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S819">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T819">
         <v>2</v>
       </c>
       <c r="U819">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V819">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W819">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X819">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y819">
         <v>-1</v>
       </c>
       <c r="Z819">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA819">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB819">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC819">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="820" spans="1:29">
@@ -73463,7 +73463,7 @@
         <v>818</v>
       </c>
       <c r="B820">
-        <v>5214350</v>
+        <v>5214455</v>
       </c>
       <c r="C820" t="s">
         <v>28</v>
@@ -73475,76 +73475,76 @@
         <v>44968.625</v>
       </c>
       <c r="F820" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G820" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="H820">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I820">
         <v>1</v>
       </c>
       <c r="J820" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K820">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L820">
+        <v>3</v>
+      </c>
+      <c r="M820">
+        <v>3.2</v>
+      </c>
+      <c r="N820">
+        <v>2.4</v>
+      </c>
+      <c r="O820">
+        <v>3</v>
+      </c>
+      <c r="P820">
         <v>3.1</v>
-      </c>
-      <c r="M820">
-        <v>3.8</v>
-      </c>
-      <c r="N820">
-        <v>2.1</v>
-      </c>
-      <c r="O820">
-        <v>3.1</v>
-      </c>
-      <c r="P820">
-        <v>3.5</v>
       </c>
       <c r="Q820">
         <v>-0.25</v>
       </c>
       <c r="R820">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="S820">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T820">
         <v>2</v>
       </c>
       <c r="U820">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V820">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W820">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X820">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y820">
         <v>-1</v>
       </c>
       <c r="Z820">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA820">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB820">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC820">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="821" spans="1:29">
@@ -98116,7 +98116,7 @@
         <v>1095</v>
       </c>
       <c r="B1097">
-        <v>6843314</v>
+        <v>7022309</v>
       </c>
       <c r="C1097" t="s">
         <v>28</v>
@@ -98128,13 +98128,13 @@
         <v>45234.625</v>
       </c>
       <c r="F1097" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G1097" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="H1097">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1097">
         <v>3</v>
@@ -98143,40 +98143,40 @@
         <v>62</v>
       </c>
       <c r="K1097">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="L1097">
+        <v>3.2</v>
+      </c>
+      <c r="M1097">
+        <v>2.5</v>
+      </c>
+      <c r="N1097">
+        <v>2.9</v>
+      </c>
+      <c r="O1097">
         <v>3.1</v>
       </c>
-      <c r="M1097">
-        <v>3.5</v>
-      </c>
-      <c r="N1097">
-        <v>2.375</v>
-      </c>
-      <c r="O1097">
-        <v>3</v>
-      </c>
       <c r="P1097">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q1097">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R1097">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S1097">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T1097">
         <v>2</v>
       </c>
       <c r="U1097">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="V1097">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W1097">
         <v>-1</v>
@@ -98185,16 +98185,16 @@
         <v>-1</v>
       </c>
       <c r="Y1097">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="Z1097">
         <v>-1</v>
       </c>
       <c r="AA1097">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB1097">
-        <v>1.1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC1097">
         <v>-1</v>
@@ -98205,7 +98205,7 @@
         <v>1096</v>
       </c>
       <c r="B1098">
-        <v>6843315</v>
+        <v>6843314</v>
       </c>
       <c r="C1098" t="s">
         <v>28</v>
@@ -98217,73 +98217,73 @@
         <v>45234.625</v>
       </c>
       <c r="F1098" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G1098" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H1098">
+        <v>0</v>
+      </c>
+      <c r="I1098">
         <v>3</v>
       </c>
-      <c r="I1098">
-        <v>1</v>
-      </c>
       <c r="J1098" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K1098">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L1098">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M1098">
+        <v>3.5</v>
+      </c>
+      <c r="N1098">
+        <v>2.375</v>
+      </c>
+      <c r="O1098">
         <v>3</v>
       </c>
-      <c r="N1098">
-        <v>2.1</v>
-      </c>
-      <c r="O1098">
-        <v>3.3</v>
-      </c>
       <c r="P1098">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q1098">
         <v>-0.25</v>
       </c>
       <c r="R1098">
+        <v>2</v>
+      </c>
+      <c r="S1098">
         <v>1.85</v>
       </c>
-      <c r="S1098">
-        <v>2</v>
-      </c>
       <c r="T1098">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U1098">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="V1098">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W1098">
+        <v>-1</v>
+      </c>
+      <c r="X1098">
+        <v>-1</v>
+      </c>
+      <c r="Y1098">
+        <v>2.25</v>
+      </c>
+      <c r="Z1098">
+        <v>-1</v>
+      </c>
+      <c r="AA1098">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB1098">
         <v>1.1</v>
-      </c>
-      <c r="X1098">
-        <v>-1</v>
-      </c>
-      <c r="Y1098">
-        <v>-1</v>
-      </c>
-      <c r="Z1098">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA1098">
-        <v>-1</v>
-      </c>
-      <c r="AB1098">
-        <v>1.025</v>
       </c>
       <c r="AC1098">
         <v>-1</v>
@@ -98294,7 +98294,7 @@
         <v>1097</v>
       </c>
       <c r="B1099">
-        <v>6843313</v>
+        <v>6843315</v>
       </c>
       <c r="C1099" t="s">
         <v>28</v>
@@ -98306,76 +98306,76 @@
         <v>45234.625</v>
       </c>
       <c r="F1099" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G1099" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H1099">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I1099">
         <v>1</v>
       </c>
       <c r="J1099" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K1099">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L1099">
         <v>3.2</v>
       </c>
       <c r="M1099">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="N1099">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="O1099">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P1099">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q1099">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R1099">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S1099">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T1099">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1099">
+        <v>2.025</v>
+      </c>
+      <c r="V1099">
         <v>1.825</v>
       </c>
-      <c r="V1099">
-        <v>2.025</v>
-      </c>
       <c r="W1099">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X1099">
         <v>-1</v>
       </c>
       <c r="Y1099">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z1099">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA1099">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB1099">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC1099">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1100" spans="1:29">
@@ -98383,7 +98383,7 @@
         <v>1098</v>
       </c>
       <c r="B1100">
-        <v>7022309</v>
+        <v>6843313</v>
       </c>
       <c r="C1100" t="s">
         <v>28</v>
@@ -98395,55 +98395,55 @@
         <v>45234.625</v>
       </c>
       <c r="F1100" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G1100" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H1100">
+        <v>0</v>
+      </c>
+      <c r="I1100">
         <v>1</v>
-      </c>
-      <c r="I1100">
-        <v>3</v>
       </c>
       <c r="J1100" t="s">
         <v>62</v>
       </c>
       <c r="K1100">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="L1100">
         <v>3.2</v>
       </c>
       <c r="M1100">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="N1100">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O1100">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P1100">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q1100">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R1100">
+        <v>1.775</v>
+      </c>
+      <c r="S1100">
         <v>2.1</v>
       </c>
-      <c r="S1100">
-        <v>1.775</v>
-      </c>
       <c r="T1100">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U1100">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V1100">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W1100">
         <v>-1</v>
@@ -98452,19 +98452,19 @@
         <v>-1</v>
       </c>
       <c r="Y1100">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Z1100">
         <v>-1</v>
       </c>
       <c r="AA1100">
-        <v>0.7749999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="AB1100">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC1100">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="1101" spans="1:29">
@@ -99540,7 +99540,7 @@
         <v>1111</v>
       </c>
       <c r="B1113">
-        <v>6843328</v>
+        <v>6843325</v>
       </c>
       <c r="C1113" t="s">
         <v>28</v>
@@ -99552,10 +99552,10 @@
         <v>45255.625</v>
       </c>
       <c r="F1113" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G1113" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1113">
         <v>0</v>
@@ -99567,61 +99567,61 @@
         <v>60</v>
       </c>
       <c r="K1113">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="L1113">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M1113">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="N1113">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="O1113">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P1113">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q1113">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R1113">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S1113">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T1113">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U1113">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V1113">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W1113">
         <v>-1</v>
       </c>
       <c r="X1113">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="Y1113">
         <v>-1</v>
       </c>
       <c r="Z1113">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA1113">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB1113">
         <v>-1</v>
       </c>
       <c r="AC1113">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="1114" spans="1:29">
@@ -99629,7 +99629,7 @@
         <v>1112</v>
       </c>
       <c r="B1114">
-        <v>6842555</v>
+        <v>6843324</v>
       </c>
       <c r="C1114" t="s">
         <v>28</v>
@@ -99641,73 +99641,73 @@
         <v>45255.625</v>
       </c>
       <c r="F1114" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G1114" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="H1114">
+        <v>2</v>
+      </c>
+      <c r="I1114">
         <v>1</v>
       </c>
-      <c r="I1114">
-        <v>2</v>
-      </c>
       <c r="J1114" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K1114">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="L1114">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M1114">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="N1114">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="O1114">
         <v>3.3</v>
       </c>
       <c r="P1114">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q1114">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R1114">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S1114">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T1114">
         <v>2.5</v>
       </c>
       <c r="U1114">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V1114">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W1114">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X1114">
         <v>-1</v>
       </c>
       <c r="Y1114">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z1114">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA1114">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB1114">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC1114">
         <v>-1</v>
@@ -99718,7 +99718,7 @@
         <v>1113</v>
       </c>
       <c r="B1115">
-        <v>6843324</v>
+        <v>6842555</v>
       </c>
       <c r="C1115" t="s">
         <v>28</v>
@@ -99730,73 +99730,73 @@
         <v>45255.625</v>
       </c>
       <c r="F1115" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G1115" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="H1115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1115" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K1115">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="L1115">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M1115">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="N1115">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="O1115">
         <v>3.3</v>
       </c>
       <c r="P1115">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q1115">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R1115">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S1115">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T1115">
         <v>2.5</v>
       </c>
       <c r="U1115">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V1115">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W1115">
+        <v>-1</v>
+      </c>
+      <c r="X1115">
+        <v>-1</v>
+      </c>
+      <c r="Y1115">
+        <v>1.6</v>
+      </c>
+      <c r="Z1115">
+        <v>-1</v>
+      </c>
+      <c r="AA1115">
+        <v>0.925</v>
+      </c>
+      <c r="AB1115">
         <v>1</v>
-      </c>
-      <c r="X1115">
-        <v>-1</v>
-      </c>
-      <c r="Y1115">
-        <v>-1</v>
-      </c>
-      <c r="Z1115">
-        <v>1.025</v>
-      </c>
-      <c r="AA1115">
-        <v>-1</v>
-      </c>
-      <c r="AB1115">
-        <v>1.025</v>
       </c>
       <c r="AC1115">
         <v>-1</v>
@@ -99807,7 +99807,7 @@
         <v>1114</v>
       </c>
       <c r="B1116">
-        <v>6843325</v>
+        <v>6843328</v>
       </c>
       <c r="C1116" t="s">
         <v>28</v>
@@ -99819,10 +99819,10 @@
         <v>45255.625</v>
       </c>
       <c r="F1116" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G1116" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H1116">
         <v>0</v>
@@ -99834,61 +99834,61 @@
         <v>60</v>
       </c>
       <c r="K1116">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L1116">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M1116">
+        <v>1.9</v>
+      </c>
+      <c r="N1116">
+        <v>4.2</v>
+      </c>
+      <c r="O1116">
         <v>3.6</v>
       </c>
-      <c r="N1116">
-        <v>1.7</v>
-      </c>
-      <c r="O1116">
-        <v>3.3</v>
-      </c>
       <c r="P1116">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="Q1116">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R1116">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S1116">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T1116">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1116">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V1116">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W1116">
         <v>-1</v>
       </c>
       <c r="X1116">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="Y1116">
         <v>-1</v>
       </c>
       <c r="Z1116">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA1116">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB1116">
         <v>-1</v>
       </c>
       <c r="AC1116">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1117" spans="1:29">
@@ -103011,7 +103011,7 @@
         <v>1150</v>
       </c>
       <c r="B1152">
-        <v>6843362</v>
+        <v>6843361</v>
       </c>
       <c r="C1152" t="s">
         <v>28</v>
@@ -103023,73 +103023,73 @@
         <v>45279.69791666666</v>
       </c>
       <c r="F1152" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G1152" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="H1152">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I1152">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J1152" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K1152">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="L1152">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M1152">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="N1152">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="O1152">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P1152">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="Q1152">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R1152">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S1152">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T1152">
         <v>2.25</v>
       </c>
       <c r="U1152">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V1152">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W1152">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X1152">
         <v>-1</v>
       </c>
       <c r="Y1152">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z1152">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA1152">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB1152">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC1152">
         <v>-1</v>
@@ -103100,7 +103100,7 @@
         <v>1151</v>
       </c>
       <c r="B1153">
-        <v>6842559</v>
+        <v>6843362</v>
       </c>
       <c r="C1153" t="s">
         <v>28</v>
@@ -103112,55 +103112,55 @@
         <v>45279.69791666666</v>
       </c>
       <c r="F1153" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="G1153" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="H1153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1153">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J1153" t="s">
         <v>62</v>
       </c>
       <c r="K1153">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L1153">
+        <v>3.3</v>
+      </c>
+      <c r="M1153">
+        <v>2.2</v>
+      </c>
+      <c r="N1153">
+        <v>3.6</v>
+      </c>
+      <c r="O1153">
         <v>3.4</v>
       </c>
-      <c r="M1153">
-        <v>2</v>
-      </c>
-      <c r="N1153">
-        <v>3.8</v>
-      </c>
-      <c r="O1153">
-        <v>3.5</v>
-      </c>
       <c r="P1153">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="Q1153">
         <v>0.5</v>
       </c>
       <c r="R1153">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S1153">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T1153">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U1153">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V1153">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W1153">
         <v>-1</v>
@@ -103169,19 +103169,19 @@
         <v>-1</v>
       </c>
       <c r="Y1153">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="Z1153">
         <v>-1</v>
       </c>
       <c r="AA1153">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AB1153">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC1153">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1154" spans="1:29">
@@ -103189,7 +103189,7 @@
         <v>1152</v>
       </c>
       <c r="B1154">
-        <v>7022315</v>
+        <v>6842559</v>
       </c>
       <c r="C1154" t="s">
         <v>28</v>
@@ -103201,13 +103201,13 @@
         <v>45279.69791666666</v>
       </c>
       <c r="F1154" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G1154" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="H1154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1154">
         <v>2</v>
@@ -103216,40 +103216,40 @@
         <v>62</v>
       </c>
       <c r="K1154">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="L1154">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M1154">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="N1154">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="O1154">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P1154">
+        <v>1.95</v>
+      </c>
+      <c r="Q1154">
+        <v>0.5</v>
+      </c>
+      <c r="R1154">
+        <v>1.9</v>
+      </c>
+      <c r="S1154">
+        <v>1.95</v>
+      </c>
+      <c r="T1154">
         <v>2.5</v>
       </c>
-      <c r="Q1154">
-        <v>0</v>
-      </c>
-      <c r="R1154">
-        <v>2.025</v>
-      </c>
-      <c r="S1154">
-        <v>1.825</v>
-      </c>
-      <c r="T1154">
-        <v>2.25</v>
-      </c>
       <c r="U1154">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V1154">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W1154">
         <v>-1</v>
@@ -103258,19 +103258,19 @@
         <v>-1</v>
       </c>
       <c r="Y1154">
-        <v>1.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z1154">
         <v>-1</v>
       </c>
       <c r="AA1154">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB1154">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC1154">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="1155" spans="1:29">
@@ -103278,7 +103278,7 @@
         <v>1153</v>
       </c>
       <c r="B1155">
-        <v>6843360</v>
+        <v>7022315</v>
       </c>
       <c r="C1155" t="s">
         <v>28</v>
@@ -103290,49 +103290,49 @@
         <v>45279.69791666666</v>
       </c>
       <c r="F1155" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G1155" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H1155">
         <v>1</v>
       </c>
       <c r="I1155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J1155" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K1155">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="L1155">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M1155">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="N1155">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="O1155">
         <v>3.2</v>
       </c>
       <c r="P1155">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q1155">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R1155">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S1155">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T1155">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U1155">
         <v>1.925</v>
@@ -103341,25 +103341,25 @@
         <v>1.925</v>
       </c>
       <c r="W1155">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X1155">
         <v>-1</v>
       </c>
       <c r="Y1155">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z1155">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA1155">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB1155">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC1155">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1156" spans="1:29">
@@ -103367,7 +103367,7 @@
         <v>1154</v>
       </c>
       <c r="B1156">
-        <v>6843359</v>
+        <v>6843360</v>
       </c>
       <c r="C1156" t="s">
         <v>28</v>
@@ -103379,49 +103379,49 @@
         <v>45279.69791666666</v>
       </c>
       <c r="F1156" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="G1156" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H1156">
         <v>1</v>
       </c>
       <c r="I1156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1156" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K1156">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L1156">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M1156">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N1156">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="O1156">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P1156">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q1156">
         <v>-0.25</v>
       </c>
       <c r="R1156">
+        <v>2</v>
+      </c>
+      <c r="S1156">
         <v>1.85</v>
       </c>
-      <c r="S1156">
-        <v>2</v>
-      </c>
       <c r="T1156">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U1156">
         <v>1.925</v>
@@ -103430,19 +103430,19 @@
         <v>1.925</v>
       </c>
       <c r="W1156">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X1156">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y1156">
         <v>-1</v>
       </c>
       <c r="Z1156">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA1156">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB1156">
         <v>-1</v>
@@ -103456,7 +103456,7 @@
         <v>1155</v>
       </c>
       <c r="B1157">
-        <v>6842739</v>
+        <v>6843359</v>
       </c>
       <c r="C1157" t="s">
         <v>28</v>
@@ -103468,76 +103468,76 @@
         <v>45279.69791666666</v>
       </c>
       <c r="F1157" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G1157" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H1157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1157">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J1157" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K1157">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="L1157">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M1157">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="N1157">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="O1157">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P1157">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q1157">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R1157">
+        <v>1.85</v>
+      </c>
+      <c r="S1157">
+        <v>2</v>
+      </c>
+      <c r="T1157">
+        <v>2.75</v>
+      </c>
+      <c r="U1157">
         <v>1.925</v>
       </c>
-      <c r="S1157">
+      <c r="V1157">
         <v>1.925</v>
       </c>
-      <c r="T1157">
-        <v>2.25</v>
-      </c>
-      <c r="U1157">
-        <v>1.85</v>
-      </c>
-      <c r="V1157">
-        <v>2</v>
-      </c>
       <c r="W1157">
         <v>-1</v>
       </c>
       <c r="X1157">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y1157">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z1157">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1157">
+        <v>0.5</v>
+      </c>
+      <c r="AB1157">
+        <v>-1</v>
+      </c>
+      <c r="AC1157">
         <v>0.925</v>
-      </c>
-      <c r="AB1157">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC1157">
-        <v>-1</v>
       </c>
     </row>
     <row r="1158" spans="1:29">
@@ -103545,7 +103545,7 @@
         <v>1156</v>
       </c>
       <c r="B1158">
-        <v>6843361</v>
+        <v>6842739</v>
       </c>
       <c r="C1158" t="s">
         <v>28</v>
@@ -103557,73 +103557,73 @@
         <v>45279.69791666666</v>
       </c>
       <c r="F1158" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G1158" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H1158">
+        <v>0</v>
+      </c>
+      <c r="I1158">
         <v>3</v>
       </c>
-      <c r="I1158">
-        <v>2</v>
-      </c>
       <c r="J1158" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K1158">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="L1158">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M1158">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="N1158">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="O1158">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P1158">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q1158">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R1158">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S1158">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T1158">
         <v>2.25</v>
       </c>
       <c r="U1158">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V1158">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W1158">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X1158">
         <v>-1</v>
       </c>
       <c r="Y1158">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z1158">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA1158">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB1158">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC1158">
         <v>-1</v>
@@ -106900,10 +106900,10 @@
         <v>2.25</v>
       </c>
       <c r="U1196">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V1196">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W1196">
         <v>0</v>
@@ -106992,6 +106992,80 @@
         <v>0</v>
       </c>
       <c r="AA1197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:29">
+      <c r="A1198" s="1">
+        <v>1196</v>
+      </c>
+      <c r="B1198">
+        <v>7758674</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1198" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1198" s="2">
+        <v>45327.69791666666</v>
+      </c>
+      <c r="F1198" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1198" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1198">
+        <v>2.625</v>
+      </c>
+      <c r="L1198">
+        <v>3.1</v>
+      </c>
+      <c r="M1198">
+        <v>2.7</v>
+      </c>
+      <c r="N1198">
+        <v>2.3</v>
+      </c>
+      <c r="O1198">
+        <v>3.2</v>
+      </c>
+      <c r="P1198">
+        <v>3.1</v>
+      </c>
+      <c r="Q1198">
+        <v>-0.25</v>
+      </c>
+      <c r="R1198">
+        <v>2.025</v>
+      </c>
+      <c r="S1198">
+        <v>1.825</v>
+      </c>
+      <c r="T1198">
+        <v>2</v>
+      </c>
+      <c r="U1198">
+        <v>2.1</v>
+      </c>
+      <c r="V1198">
+        <v>1.775</v>
+      </c>
+      <c r="W1198">
+        <v>0</v>
+      </c>
+      <c r="X1198">
+        <v>0</v>
+      </c>
+      <c r="Y1198">
+        <v>0</v>
+      </c>
+      <c r="Z1198">
+        <v>0</v>
+      </c>
+      <c r="AA1198">
         <v>0</v>
       </c>
     </row>

--- a/France Ligue 2/France Ligue 2.xlsx
+++ b/France Ligue 2/France Ligue 2.xlsx
@@ -33487,7 +33487,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>6842737</v>
+        <v>6843344</v>
       </c>
       <c r="C371" t="s">
         <v>28</v>
@@ -33499,55 +33499,55 @@
         <v>45265.69791666666</v>
       </c>
       <c r="F371" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="G371" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H371">
         <v>1</v>
       </c>
       <c r="I371">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J371" t="s">
         <v>57</v>
       </c>
       <c r="K371">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="L371">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M371">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="N371">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="O371">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P371">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="Q371">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R371">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S371">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T371">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U371">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V371">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W371">
         <v>-1</v>
@@ -33556,19 +33556,19 @@
         <v>-1</v>
       </c>
       <c r="Y371">
-        <v>0.6499999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="Z371">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA371">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="AB371">
-        <v>0.4875</v>
+        <v>1.05</v>
       </c>
       <c r="AC371">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="372" spans="1:29">
@@ -33576,7 +33576,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>6843344</v>
+        <v>6843345</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33588,76 +33588,76 @@
         <v>45265.69791666666</v>
       </c>
       <c r="F372" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G372" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I372">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J372" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K372">
         <v>2.05</v>
       </c>
       <c r="L372">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M372">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N372">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O372">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P372">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q372">
         <v>-0.25</v>
       </c>
       <c r="R372">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S372">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T372">
         <v>2.25</v>
       </c>
       <c r="U372">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V372">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W372">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X372">
         <v>-1</v>
       </c>
       <c r="Y372">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z372">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA372">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB372">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AC372">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="373" spans="1:29">
@@ -33665,7 +33665,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>6843345</v>
+        <v>6843346</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33677,10 +33677,10 @@
         <v>45265.69791666666</v>
       </c>
       <c r="F373" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="G373" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H373">
         <v>2</v>
@@ -33692,43 +33692,43 @@
         <v>55</v>
       </c>
       <c r="K373">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="L373">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M373">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="N373">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="O373">
         <v>3.2</v>
       </c>
       <c r="P373">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q373">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R373">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S373">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T373">
         <v>2.25</v>
       </c>
       <c r="U373">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V373">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W373">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="X373">
         <v>-1</v>
@@ -33737,7 +33737,7 @@
         <v>-1</v>
       </c>
       <c r="Z373">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AA373">
         <v>-1</v>
@@ -33746,7 +33746,7 @@
         <v>-0.5</v>
       </c>
       <c r="AC373">
-        <v>0.45</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="374" spans="1:29">
@@ -33754,7 +33754,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>6843346</v>
+        <v>6843347</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33766,49 +33766,49 @@
         <v>45265.69791666666</v>
       </c>
       <c r="F374" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G374" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J374" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K374">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="L374">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M374">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="N374">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O374">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P374">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="Q374">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R374">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S374">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T374">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U374">
         <v>1.975</v>
@@ -33817,25 +33817,25 @@
         <v>1.875</v>
       </c>
       <c r="W374">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X374">
         <v>-1</v>
       </c>
       <c r="Y374">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z374">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA374">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB374">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC374">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="375" spans="1:29">
@@ -33843,7 +33843,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>6843347</v>
+        <v>6842737</v>
       </c>
       <c r="C375" t="s">
         <v>28</v>
@@ -33855,49 +33855,49 @@
         <v>45265.69791666666</v>
       </c>
       <c r="F375" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G375" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I375">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J375" t="s">
         <v>57</v>
       </c>
       <c r="K375">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="L375">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M375">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="N375">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="O375">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P375">
-        <v>3.75</v>
+        <v>1.65</v>
       </c>
       <c r="Q375">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R375">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S375">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T375">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U375">
         <v>1.975</v>
@@ -33912,19 +33912,19 @@
         <v>-1</v>
       </c>
       <c r="Y375">
-        <v>2.75</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z375">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA375">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AB375">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AC375">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="376" spans="1:29">
@@ -37047,7 +37047,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>7022317</v>
+        <v>6843374</v>
       </c>
       <c r="C411" t="s">
         <v>28</v>
@@ -37059,58 +37059,58 @@
         <v>45314.69791666666</v>
       </c>
       <c r="F411" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="G411" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H411">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I411">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J411" t="s">
         <v>55</v>
       </c>
       <c r="K411">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L411">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M411">
+        <v>4.333</v>
+      </c>
+      <c r="N411">
+        <v>2.05</v>
+      </c>
+      <c r="O411">
         <v>3.3</v>
       </c>
-      <c r="N411">
-        <v>2</v>
-      </c>
-      <c r="O411">
-        <v>3.4</v>
-      </c>
       <c r="P411">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q411">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R411">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S411">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T411">
         <v>2.25</v>
       </c>
       <c r="U411">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V411">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W411">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="X411">
         <v>-1</v>
@@ -37119,16 +37119,16 @@
         <v>-1</v>
       </c>
       <c r="Z411">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AA411">
         <v>-1</v>
       </c>
       <c r="AB411">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC411">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="412" spans="1:29">
@@ -37136,7 +37136,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>6843378</v>
+        <v>7022317</v>
       </c>
       <c r="C412" t="s">
         <v>28</v>
@@ -37148,13 +37148,13 @@
         <v>45314.69791666666</v>
       </c>
       <c r="F412" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G412" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I412">
         <v>0</v>
@@ -37163,43 +37163,43 @@
         <v>55</v>
       </c>
       <c r="K412">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="L412">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M412">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="N412">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O412">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="P412">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="Q412">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R412">
+        <v>2.05</v>
+      </c>
+      <c r="S412">
         <v>1.8</v>
       </c>
-      <c r="S412">
-        <v>2.05</v>
-      </c>
       <c r="T412">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U412">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V412">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W412">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="X412">
         <v>-1</v>
@@ -37208,16 +37208,16 @@
         <v>-1</v>
       </c>
       <c r="Z412">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AA412">
         <v>-1</v>
       </c>
       <c r="AB412">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC412">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="413" spans="1:29">
@@ -37225,7 +37225,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>6843374</v>
+        <v>6843378</v>
       </c>
       <c r="C413" t="s">
         <v>28</v>
@@ -37237,58 +37237,58 @@
         <v>45314.69791666666</v>
       </c>
       <c r="F413" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G413" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H413">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I413">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J413" t="s">
         <v>55</v>
       </c>
       <c r="K413">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L413">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M413">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="N413">
+        <v>2.5</v>
+      </c>
+      <c r="O413">
+        <v>2.75</v>
+      </c>
+      <c r="P413">
+        <v>2.875</v>
+      </c>
+      <c r="Q413">
+        <v>0</v>
+      </c>
+      <c r="R413">
+        <v>1.8</v>
+      </c>
+      <c r="S413">
         <v>2.05</v>
       </c>
-      <c r="O413">
-        <v>3.3</v>
-      </c>
-      <c r="P413">
-        <v>3.3</v>
-      </c>
-      <c r="Q413">
-        <v>-0.25</v>
-      </c>
-      <c r="R413">
-        <v>1.825</v>
-      </c>
-      <c r="S413">
-        <v>2.025</v>
-      </c>
       <c r="T413">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U413">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V413">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W413">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="X413">
         <v>-1</v>
@@ -37297,16 +37297,16 @@
         <v>-1</v>
       </c>
       <c r="Z413">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA413">
         <v>-1</v>
       </c>
       <c r="AB413">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
       <c r="AC413">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="414" spans="1:29">
@@ -37314,7 +37314,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>6843377</v>
+        <v>6843373</v>
       </c>
       <c r="C414" t="s">
         <v>28</v>
@@ -37326,40 +37326,40 @@
         <v>45314.69791666666</v>
       </c>
       <c r="F414" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G414" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H414">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J414" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K414">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L414">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M414">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="N414">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="O414">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P414">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="Q414">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R414">
         <v>1.8</v>
@@ -37368,22 +37368,22 @@
         <v>2.05</v>
       </c>
       <c r="T414">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U414">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V414">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W414">
         <v>-1</v>
       </c>
       <c r="X414">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y414">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z414">
         <v>-1</v>
@@ -37392,10 +37392,10 @@
         <v>1.05</v>
       </c>
       <c r="AB414">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC414">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="415" spans="1:29">
@@ -37403,7 +37403,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>6843373</v>
+        <v>6843379</v>
       </c>
       <c r="C415" t="s">
         <v>28</v>
@@ -37415,76 +37415,76 @@
         <v>45314.69791666666</v>
       </c>
       <c r="F415" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G415" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I415">
         <v>1</v>
       </c>
       <c r="J415" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K415">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="L415">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M415">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="N415">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="O415">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P415">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q415">
         <v>0.25</v>
       </c>
       <c r="R415">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S415">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T415">
         <v>2.5</v>
       </c>
       <c r="U415">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V415">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W415">
         <v>-1</v>
       </c>
       <c r="X415">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y415">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z415">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA415">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB415">
         <v>-1</v>
       </c>
       <c r="AC415">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="416" spans="1:29">
@@ -37492,7 +37492,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>6843379</v>
+        <v>6842561</v>
       </c>
       <c r="C416" t="s">
         <v>28</v>
@@ -37504,76 +37504,76 @@
         <v>45314.69791666666</v>
       </c>
       <c r="F416" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G416" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="H416">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I416">
         <v>1</v>
       </c>
       <c r="J416" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K416">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="L416">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M416">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="N416">
-        <v>2.875</v>
+        <v>1.571</v>
       </c>
       <c r="O416">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P416">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q416">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R416">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S416">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T416">
         <v>2.5</v>
       </c>
       <c r="U416">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V416">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W416">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X416">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y416">
         <v>-1</v>
       </c>
       <c r="Z416">
-        <v>0.4375</v>
+        <v>1.025</v>
       </c>
       <c r="AA416">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB416">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC416">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="417" spans="1:29">
@@ -37581,7 +37581,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>6842561</v>
+        <v>6843377</v>
       </c>
       <c r="C417" t="s">
         <v>28</v>
@@ -37593,73 +37593,73 @@
         <v>45314.69791666666</v>
       </c>
       <c r="F417" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G417" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H417">
         <v>3</v>
       </c>
       <c r="I417">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J417" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K417">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L417">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M417">
+        <v>3.6</v>
+      </c>
+      <c r="N417">
+        <v>1.75</v>
+      </c>
+      <c r="O417">
+        <v>3.2</v>
+      </c>
+      <c r="P417">
         <v>4.333</v>
       </c>
-      <c r="N417">
-        <v>1.571</v>
-      </c>
-      <c r="O417">
-        <v>3.8</v>
-      </c>
-      <c r="P417">
-        <v>5.5</v>
-      </c>
       <c r="Q417">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R417">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S417">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T417">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U417">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V417">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W417">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X417">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y417">
         <v>-1</v>
       </c>
       <c r="Z417">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA417">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB417">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC417">
         <v>-1</v>
@@ -38916,7 +38916,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>6842563</v>
+        <v>6843390</v>
       </c>
       <c r="C432" t="s">
         <v>28</v>
@@ -38928,10 +38928,10 @@
         <v>45325.625</v>
       </c>
       <c r="F432" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G432" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H432">
         <v>2</v>
@@ -38943,43 +38943,43 @@
         <v>55</v>
       </c>
       <c r="K432">
+        <v>1.7</v>
+      </c>
+      <c r="L432">
+        <v>3.6</v>
+      </c>
+      <c r="M432">
+        <v>4.8</v>
+      </c>
+      <c r="N432">
+        <v>2.05</v>
+      </c>
+      <c r="O432">
+        <v>3.5</v>
+      </c>
+      <c r="P432">
         <v>3.4</v>
       </c>
-      <c r="L432">
-        <v>3.3</v>
-      </c>
-      <c r="M432">
-        <v>2.1</v>
-      </c>
-      <c r="N432">
-        <v>3.25</v>
-      </c>
-      <c r="O432">
-        <v>3.4</v>
-      </c>
-      <c r="P432">
-        <v>2.15</v>
-      </c>
       <c r="Q432">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R432">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S432">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T432">
         <v>2.5</v>
       </c>
       <c r="U432">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V432">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W432">
-        <v>2.25</v>
+        <v>1.05</v>
       </c>
       <c r="X432">
         <v>-1</v>
@@ -38988,13 +38988,13 @@
         <v>-1</v>
       </c>
       <c r="Z432">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA432">
         <v>-1</v>
       </c>
       <c r="AB432">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC432">
         <v>-1</v>
@@ -39005,7 +39005,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>6843395</v>
+        <v>6842563</v>
       </c>
       <c r="C433" t="s">
         <v>28</v>
@@ -39017,13 +39017,13 @@
         <v>45325.625</v>
       </c>
       <c r="F433" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G433" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H433">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I433">
         <v>1</v>
@@ -39032,25 +39032,25 @@
         <v>55</v>
       </c>
       <c r="K433">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="L433">
+        <v>3.3</v>
+      </c>
+      <c r="M433">
+        <v>2.1</v>
+      </c>
+      <c r="N433">
         <v>3.25</v>
       </c>
-      <c r="M433">
-        <v>3.6</v>
-      </c>
-      <c r="N433">
-        <v>2.25</v>
-      </c>
       <c r="O433">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P433">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q433">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R433">
         <v>1.925</v>
@@ -39059,16 +39059,16 @@
         <v>1.925</v>
       </c>
       <c r="T433">
+        <v>2.5</v>
+      </c>
+      <c r="U433">
+        <v>1.95</v>
+      </c>
+      <c r="V433">
+        <v>1.9</v>
+      </c>
+      <c r="W433">
         <v>2.25</v>
-      </c>
-      <c r="U433">
-        <v>1.925</v>
-      </c>
-      <c r="V433">
-        <v>1.925</v>
-      </c>
-      <c r="W433">
-        <v>1.25</v>
       </c>
       <c r="X433">
         <v>-1</v>
@@ -39083,7 +39083,7 @@
         <v>-1</v>
       </c>
       <c r="AB433">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC433">
         <v>-1</v>
@@ -39094,7 +39094,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>6842743</v>
+        <v>6843395</v>
       </c>
       <c r="C434" t="s">
         <v>28</v>
@@ -39106,58 +39106,58 @@
         <v>45325.625</v>
       </c>
       <c r="F434" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G434" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H434">
+        <v>5</v>
+      </c>
+      <c r="I434">
         <v>1</v>
-      </c>
-      <c r="I434">
-        <v>0</v>
       </c>
       <c r="J434" t="s">
         <v>55</v>
       </c>
       <c r="K434">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L434">
+        <v>3.25</v>
+      </c>
+      <c r="M434">
+        <v>3.6</v>
+      </c>
+      <c r="N434">
+        <v>2.25</v>
+      </c>
+      <c r="O434">
         <v>3.2</v>
       </c>
-      <c r="M434">
-        <v>3.4</v>
-      </c>
-      <c r="N434">
-        <v>2.15</v>
-      </c>
-      <c r="O434">
-        <v>3</v>
-      </c>
       <c r="P434">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q434">
         <v>-0.25</v>
       </c>
       <c r="R434">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S434">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T434">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U434">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V434">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W434">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="X434">
         <v>-1</v>
@@ -39166,16 +39166,16 @@
         <v>-1</v>
       </c>
       <c r="Z434">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA434">
         <v>-1</v>
       </c>
       <c r="AB434">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC434">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="435" spans="1:29">
@@ -39183,7 +39183,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>6843389</v>
+        <v>6842743</v>
       </c>
       <c r="C435" t="s">
         <v>28</v>
@@ -39195,49 +39195,49 @@
         <v>45325.625</v>
       </c>
       <c r="F435" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G435" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I435">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J435" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K435">
-        <v>4.4</v>
+        <v>2.15</v>
       </c>
       <c r="L435">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M435">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="N435">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="O435">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P435">
+        <v>3.6</v>
+      </c>
+      <c r="Q435">
+        <v>-0.25</v>
+      </c>
+      <c r="R435">
         <v>1.8</v>
       </c>
-      <c r="Q435">
-        <v>0.5</v>
-      </c>
-      <c r="R435">
-        <v>2.025</v>
-      </c>
       <c r="S435">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T435">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U435">
         <v>1.975</v>
@@ -39246,25 +39246,25 @@
         <v>1.875</v>
       </c>
       <c r="W435">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X435">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y435">
         <v>-1</v>
       </c>
       <c r="Z435">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AA435">
         <v>-1</v>
       </c>
       <c r="AB435">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC435">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="436" spans="1:29">
@@ -39272,7 +39272,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>6843390</v>
+        <v>6843389</v>
       </c>
       <c r="C436" t="s">
         <v>28</v>
@@ -39284,49 +39284,49 @@
         <v>45325.625</v>
       </c>
       <c r="F436" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="G436" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="H436">
         <v>2</v>
       </c>
       <c r="I436">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J436" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K436">
-        <v>1.7</v>
+        <v>4.4</v>
       </c>
       <c r="L436">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M436">
-        <v>4.8</v>
+        <v>1.727</v>
       </c>
       <c r="N436">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="O436">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P436">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q436">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R436">
+        <v>2.025</v>
+      </c>
+      <c r="S436">
         <v>1.825</v>
       </c>
-      <c r="S436">
-        <v>2.025</v>
-      </c>
       <c r="T436">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U436">
         <v>1.975</v>
@@ -39335,16 +39335,16 @@
         <v>1.875</v>
       </c>
       <c r="W436">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X436">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y436">
         <v>-1</v>
       </c>
       <c r="Z436">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA436">
         <v>-1</v>
@@ -39895,7 +39895,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>6843396</v>
+        <v>6843401</v>
       </c>
       <c r="C443" t="s">
         <v>28</v>
@@ -39907,76 +39907,76 @@
         <v>45332.625</v>
       </c>
       <c r="F443" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G443" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H443">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I443">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J443" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K443">
+        <v>1.833</v>
+      </c>
+      <c r="L443">
+        <v>3.4</v>
+      </c>
+      <c r="M443">
+        <v>4.2</v>
+      </c>
+      <c r="N443">
+        <v>1.666</v>
+      </c>
+      <c r="O443">
+        <v>3.6</v>
+      </c>
+      <c r="P443">
+        <v>5</v>
+      </c>
+      <c r="Q443">
+        <v>-0.75</v>
+      </c>
+      <c r="R443">
+        <v>1.925</v>
+      </c>
+      <c r="S443">
+        <v>1.925</v>
+      </c>
+      <c r="T443">
+        <v>2.5</v>
+      </c>
+      <c r="U443">
+        <v>2.025</v>
+      </c>
+      <c r="V443">
+        <v>1.825</v>
+      </c>
+      <c r="W443">
+        <v>-1</v>
+      </c>
+      <c r="X443">
         <v>2.6</v>
       </c>
-      <c r="L443">
-        <v>2.9</v>
-      </c>
-      <c r="M443">
-        <v>2.9</v>
-      </c>
-      <c r="N443">
-        <v>2.9</v>
-      </c>
-      <c r="O443">
-        <v>2.875</v>
-      </c>
-      <c r="P443">
-        <v>2.55</v>
-      </c>
-      <c r="Q443">
-        <v>0</v>
-      </c>
-      <c r="R443">
-        <v>2.025</v>
-      </c>
-      <c r="S443">
-        <v>1.825</v>
-      </c>
-      <c r="T443">
-        <v>1.5</v>
-      </c>
-      <c r="U443">
-        <v>1.8</v>
-      </c>
-      <c r="V443">
-        <v>2.05</v>
-      </c>
-      <c r="W443">
-        <v>1.9</v>
-      </c>
-      <c r="X443">
-        <v>-1</v>
-      </c>
       <c r="Y443">
         <v>-1</v>
       </c>
       <c r="Z443">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA443">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB443">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC443">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="444" spans="1:29">
@@ -39984,7 +39984,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>6843401</v>
+        <v>6843399</v>
       </c>
       <c r="C444" t="s">
         <v>28</v>
@@ -39996,76 +39996,76 @@
         <v>45332.625</v>
       </c>
       <c r="F444" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G444" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H444">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I444">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J444" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K444">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="L444">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M444">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="N444">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O444">
+        <v>3.2</v>
+      </c>
+      <c r="P444">
         <v>3.6</v>
       </c>
-      <c r="P444">
-        <v>5</v>
-      </c>
       <c r="Q444">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R444">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S444">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T444">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U444">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V444">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W444">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X444">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y444">
         <v>-1</v>
       </c>
       <c r="Z444">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA444">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB444">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC444">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="445" spans="1:29">
@@ -40073,7 +40073,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>6843399</v>
+        <v>6843396</v>
       </c>
       <c r="C445" t="s">
         <v>28</v>
@@ -40085,13 +40085,13 @@
         <v>45332.625</v>
       </c>
       <c r="F445" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G445" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I445">
         <v>0</v>
@@ -40100,43 +40100,43 @@
         <v>55</v>
       </c>
       <c r="K445">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="L445">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M445">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="N445">
+        <v>2.9</v>
+      </c>
+      <c r="O445">
+        <v>2.875</v>
+      </c>
+      <c r="P445">
+        <v>2.55</v>
+      </c>
+      <c r="Q445">
+        <v>0</v>
+      </c>
+      <c r="R445">
+        <v>2.025</v>
+      </c>
+      <c r="S445">
+        <v>1.825</v>
+      </c>
+      <c r="T445">
+        <v>1.5</v>
+      </c>
+      <c r="U445">
+        <v>1.8</v>
+      </c>
+      <c r="V445">
         <v>2.05</v>
       </c>
-      <c r="O445">
-        <v>3.2</v>
-      </c>
-      <c r="P445">
-        <v>3.6</v>
-      </c>
-      <c r="Q445">
-        <v>-0.25</v>
-      </c>
-      <c r="R445">
-        <v>1.75</v>
-      </c>
-      <c r="S445">
-        <v>2.05</v>
-      </c>
-      <c r="T445">
-        <v>2.25</v>
-      </c>
-      <c r="U445">
-        <v>2.05</v>
-      </c>
-      <c r="V445">
-        <v>1.8</v>
-      </c>
       <c r="W445">
-        <v>1.05</v>
+        <v>1.9</v>
       </c>
       <c r="X445">
         <v>-1</v>
@@ -40145,16 +40145,16 @@
         <v>-1</v>
       </c>
       <c r="Z445">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="AA445">
         <v>-1</v>
       </c>
       <c r="AB445">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC445">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="446" spans="1:29">
@@ -40162,7 +40162,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>6843402</v>
+        <v>6842564</v>
       </c>
       <c r="C446" t="s">
         <v>28</v>
@@ -40174,76 +40174,76 @@
         <v>45332.625</v>
       </c>
       <c r="F446" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G446" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I446">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J446" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K446">
         <v>2.15</v>
       </c>
       <c r="L446">
+        <v>3.4</v>
+      </c>
+      <c r="M446">
         <v>3.2</v>
       </c>
-      <c r="M446">
-        <v>3.4</v>
-      </c>
       <c r="N446">
+        <v>2.05</v>
+      </c>
+      <c r="O446">
+        <v>3.5</v>
+      </c>
+      <c r="P446">
+        <v>3.3</v>
+      </c>
+      <c r="Q446">
+        <v>-0.25</v>
+      </c>
+      <c r="R446">
+        <v>1.875</v>
+      </c>
+      <c r="S446">
+        <v>1.975</v>
+      </c>
+      <c r="T446">
+        <v>2.5</v>
+      </c>
+      <c r="U446">
         <v>1.95</v>
       </c>
-      <c r="O446">
-        <v>3.2</v>
-      </c>
-      <c r="P446">
-        <v>4.2</v>
-      </c>
-      <c r="Q446">
-        <v>-0.5</v>
-      </c>
-      <c r="R446">
-        <v>1.975</v>
-      </c>
-      <c r="S446">
-        <v>1.875</v>
-      </c>
-      <c r="T446">
-        <v>2.25</v>
-      </c>
-      <c r="U446">
-        <v>2.1</v>
-      </c>
       <c r="V446">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W446">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X446">
         <v>-1</v>
       </c>
       <c r="Y446">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z446">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA446">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB446">
         <v>-1</v>
       </c>
       <c r="AC446">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="447" spans="1:29">
@@ -40251,7 +40251,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>6843403</v>
+        <v>7022320</v>
       </c>
       <c r="C447" t="s">
         <v>28</v>
@@ -40263,76 +40263,76 @@
         <v>45332.625</v>
       </c>
       <c r="F447" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G447" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H447">
         <v>0</v>
       </c>
       <c r="I447">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J447" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K447">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L447">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M447">
-        <v>4.3</v>
+        <v>3.25</v>
       </c>
       <c r="N447">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O447">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P447">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q447">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R447">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S447">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T447">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U447">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V447">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W447">
         <v>-1</v>
       </c>
       <c r="X447">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y447">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z447">
         <v>-1</v>
       </c>
       <c r="AA447">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB447">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC447">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="448" spans="1:29">
@@ -40340,7 +40340,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>7022320</v>
+        <v>6843403</v>
       </c>
       <c r="C448" t="s">
         <v>28</v>
@@ -40352,76 +40352,76 @@
         <v>45332.625</v>
       </c>
       <c r="F448" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G448" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H448">
         <v>0</v>
       </c>
       <c r="I448">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J448" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K448">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L448">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M448">
-        <v>3.25</v>
+        <v>4.3</v>
       </c>
       <c r="N448">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O448">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P448">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q448">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R448">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S448">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T448">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U448">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V448">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W448">
         <v>-1</v>
       </c>
       <c r="X448">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y448">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z448">
         <v>-1</v>
       </c>
       <c r="AA448">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB448">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC448">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="449" spans="1:29">
@@ -40429,7 +40429,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>6842564</v>
+        <v>6843402</v>
       </c>
       <c r="C449" t="s">
         <v>28</v>
@@ -40441,76 +40441,76 @@
         <v>45332.625</v>
       </c>
       <c r="F449" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G449" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H449">
+        <v>0</v>
+      </c>
+      <c r="I449">
         <v>1</v>
       </c>
-      <c r="I449">
-        <v>0</v>
-      </c>
       <c r="J449" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K449">
         <v>2.15</v>
       </c>
       <c r="L449">
+        <v>3.2</v>
+      </c>
+      <c r="M449">
         <v>3.4</v>
       </c>
-      <c r="M449">
+      <c r="N449">
+        <v>1.95</v>
+      </c>
+      <c r="O449">
         <v>3.2</v>
       </c>
-      <c r="N449">
-        <v>2.05</v>
-      </c>
-      <c r="O449">
-        <v>3.5</v>
-      </c>
       <c r="P449">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q449">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R449">
+        <v>1.975</v>
+      </c>
+      <c r="S449">
         <v>1.875</v>
       </c>
-      <c r="S449">
-        <v>1.975</v>
-      </c>
       <c r="T449">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U449">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="V449">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W449">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X449">
         <v>-1</v>
       </c>
       <c r="Y449">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z449">
+        <v>-1</v>
+      </c>
+      <c r="AA449">
         <v>0.875</v>
       </c>
-      <c r="AA449">
-        <v>-1</v>
-      </c>
       <c r="AB449">
         <v>-1</v>
       </c>
       <c r="AC449">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="450" spans="1:29">

--- a/France Ligue 2/France Ligue 2.xlsx
+++ b/France Ligue 2/France Ligue 2.xlsx
@@ -13996,7 +13996,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7022311</v>
+        <v>6843328</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -14008,40 +14008,40 @@
         <v>45255.625</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G152" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152">
         <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K152">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="L152">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M152">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="N152">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="O152">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="P152">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="Q152">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R152">
         <v>1.8</v>
@@ -14050,19 +14050,19 @@
         <v>2.05</v>
       </c>
       <c r="T152">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U152">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V152">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W152">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X152">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y152">
         <v>-1</v>
@@ -14074,10 +14074,10 @@
         <v>-1</v>
       </c>
       <c r="AB152">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14085,7 +14085,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6843324</v>
+        <v>7022311</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14097,76 +14097,76 @@
         <v>45255.625</v>
       </c>
       <c r="F153" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G153" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H153">
         <v>2</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
         <v>55</v>
       </c>
       <c r="K153">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="L153">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="M153">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="N153">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="O153">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="P153">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q153">
+        <v>0.25</v>
+      </c>
+      <c r="R153">
+        <v>1.8</v>
+      </c>
+      <c r="S153">
+        <v>2.05</v>
+      </c>
+      <c r="T153">
+        <v>1.75</v>
+      </c>
+      <c r="U153">
+        <v>1.9</v>
+      </c>
+      <c r="V153">
+        <v>1.95</v>
+      </c>
+      <c r="W153">
+        <v>2.3</v>
+      </c>
+      <c r="X153">
+        <v>-1</v>
+      </c>
+      <c r="Y153">
+        <v>-1</v>
+      </c>
+      <c r="Z153">
+        <v>0.8</v>
+      </c>
+      <c r="AA153">
+        <v>-1</v>
+      </c>
+      <c r="AB153">
+        <v>0.45</v>
+      </c>
+      <c r="AC153">
         <v>-0.5</v>
-      </c>
-      <c r="R153">
-        <v>2.025</v>
-      </c>
-      <c r="S153">
-        <v>1.825</v>
-      </c>
-      <c r="T153">
-        <v>2.5</v>
-      </c>
-      <c r="U153">
-        <v>2.025</v>
-      </c>
-      <c r="V153">
-        <v>1.825</v>
-      </c>
-      <c r="W153">
-        <v>1</v>
-      </c>
-      <c r="X153">
-        <v>-1</v>
-      </c>
-      <c r="Y153">
-        <v>-1</v>
-      </c>
-      <c r="Z153">
-        <v>1.025</v>
-      </c>
-      <c r="AA153">
-        <v>-1</v>
-      </c>
-      <c r="AB153">
-        <v>1.025</v>
-      </c>
-      <c r="AC153">
-        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14174,7 +14174,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6843328</v>
+        <v>6843324</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14186,76 +14186,76 @@
         <v>45255.625</v>
       </c>
       <c r="F154" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="G154" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K154">
+        <v>2.15</v>
+      </c>
+      <c r="L154">
+        <v>3.25</v>
+      </c>
+      <c r="M154">
+        <v>3.25</v>
+      </c>
+      <c r="N154">
+        <v>2</v>
+      </c>
+      <c r="O154">
+        <v>3.3</v>
+      </c>
+      <c r="P154">
         <v>3.75</v>
       </c>
-      <c r="L154">
-        <v>3.4</v>
-      </c>
-      <c r="M154">
-        <v>1.9</v>
-      </c>
-      <c r="N154">
-        <v>4.2</v>
-      </c>
-      <c r="O154">
-        <v>3.6</v>
-      </c>
-      <c r="P154">
-        <v>1.75</v>
-      </c>
       <c r="Q154">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R154">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S154">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T154">
         <v>2.5</v>
       </c>
       <c r="U154">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V154">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W154">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X154">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AA154">
         <v>-1</v>
       </c>
       <c r="AB154">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC154">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14352,7 +14352,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6843330</v>
+        <v>6843331</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14364,37 +14364,37 @@
         <v>45255.625</v>
       </c>
       <c r="F156" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G156" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H156">
         <v>0</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J156" t="s">
         <v>56</v>
       </c>
       <c r="K156">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="L156">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M156">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="N156">
         <v>2.9</v>
       </c>
       <c r="O156">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P156">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="Q156">
         <v>0.25</v>
@@ -14406,13 +14406,13 @@
         <v>2.1</v>
       </c>
       <c r="T156">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U156">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V156">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W156">
         <v>-1</v>
@@ -14421,7 +14421,7 @@
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>1.3</v>
+        <v>1.375</v>
       </c>
       <c r="Z156">
         <v>-1</v>
@@ -14430,10 +14430,10 @@
         <v>1.1</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC156">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14441,7 +14441,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6843331</v>
+        <v>6843330</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14453,37 +14453,37 @@
         <v>45255.625</v>
       </c>
       <c r="F157" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G157" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H157">
         <v>0</v>
       </c>
       <c r="I157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J157" t="s">
         <v>56</v>
       </c>
       <c r="K157">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="L157">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M157">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="N157">
         <v>2.9</v>
       </c>
       <c r="O157">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P157">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="Q157">
         <v>0.25</v>
@@ -14495,13 +14495,13 @@
         <v>2.1</v>
       </c>
       <c r="T157">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U157">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V157">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W157">
         <v>-1</v>
@@ -14510,7 +14510,7 @@
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>1.375</v>
+        <v>1.3</v>
       </c>
       <c r="Z157">
         <v>-1</v>
@@ -14519,10 +14519,10 @@
         <v>1.1</v>
       </c>
       <c r="AB157">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -15331,7 +15331,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6843339</v>
+        <v>6843334</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15343,28 +15343,28 @@
         <v>45262.625</v>
       </c>
       <c r="F167" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G167" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I167">
         <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K167">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L167">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M167">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N167">
         <v>2.15</v>
@@ -15373,19 +15373,19 @@
         <v>3.2</v>
       </c>
       <c r="P167">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q167">
         <v>-0.25</v>
       </c>
       <c r="R167">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S167">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T167">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U167">
         <v>2</v>
@@ -15397,16 +15397,16 @@
         <v>-1</v>
       </c>
       <c r="X167">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y167">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA167">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="AB167">
         <v>-1</v>
@@ -15420,7 +15420,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6843336</v>
+        <v>6843332</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15432,10 +15432,10 @@
         <v>45262.625</v>
       </c>
       <c r="F168" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G168" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15447,43 +15447,43 @@
         <v>55</v>
       </c>
       <c r="K168">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L168">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M168">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="N168">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="O168">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P168">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="Q168">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R168">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S168">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T168">
         <v>2.25</v>
       </c>
       <c r="U168">
+        <v>1.9</v>
+      </c>
+      <c r="V168">
         <v>1.95</v>
       </c>
-      <c r="V168">
-        <v>1.9</v>
-      </c>
       <c r="W168">
-        <v>0.8500000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15492,7 +15492,7 @@
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA168">
         <v>-1</v>
@@ -15501,7 +15501,7 @@
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15509,7 +15509,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6843332</v>
+        <v>6843336</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15521,10 +15521,10 @@
         <v>45262.625</v>
       </c>
       <c r="F169" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G169" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -15536,43 +15536,43 @@
         <v>55</v>
       </c>
       <c r="K169">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L169">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M169">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="N169">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="O169">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P169">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q169">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R169">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S169">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T169">
         <v>2.25</v>
       </c>
       <c r="U169">
+        <v>1.95</v>
+      </c>
+      <c r="V169">
         <v>1.9</v>
       </c>
-      <c r="V169">
-        <v>1.95</v>
-      </c>
       <c r="W169">
-        <v>1.6</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X169">
         <v>-1</v>
@@ -15581,7 +15581,7 @@
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA169">
         <v>-1</v>
@@ -15590,7 +15590,7 @@
         <v>-1</v>
       </c>
       <c r="AC169">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15598,7 +15598,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6843334</v>
+        <v>6843339</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15610,28 +15610,28 @@
         <v>45262.625</v>
       </c>
       <c r="F170" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G170" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170">
         <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K170">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L170">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M170">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N170">
         <v>2.15</v>
@@ -15640,19 +15640,19 @@
         <v>3.2</v>
       </c>
       <c r="P170">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q170">
         <v>-0.25</v>
       </c>
       <c r="R170">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S170">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T170">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U170">
         <v>2</v>
@@ -15664,16 +15664,16 @@
         <v>-1</v>
       </c>
       <c r="X170">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z170">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AB170">
         <v>-1</v>
@@ -15687,7 +15687,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6842737</v>
+        <v>6842557</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15699,76 +15699,76 @@
         <v>45265.69791666666</v>
       </c>
       <c r="F171" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G171" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I171">
         <v>2</v>
       </c>
       <c r="J171" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K171">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="L171">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M171">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="N171">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="O171">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P171">
-        <v>1.65</v>
+        <v>2.8</v>
       </c>
       <c r="Q171">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R171">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S171">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T171">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U171">
+        <v>1.875</v>
+      </c>
+      <c r="V171">
         <v>1.975</v>
       </c>
-      <c r="V171">
-        <v>1.875</v>
-      </c>
       <c r="W171">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA171">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AC171">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15776,7 +15776,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6843340</v>
+        <v>6842737</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15788,73 +15788,73 @@
         <v>45265.69791666666</v>
       </c>
       <c r="F172" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G172" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J172" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K172">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="L172">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="M172">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="N172">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="O172">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="P172">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="Q172">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R172">
+        <v>2</v>
+      </c>
+      <c r="S172">
         <v>1.85</v>
       </c>
-      <c r="S172">
-        <v>2</v>
-      </c>
       <c r="T172">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="U172">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V172">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W172">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X172">
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z172">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB172">
-        <v>0.5249999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AC172">
         <v>-0.5</v>
@@ -15865,7 +15865,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6843342</v>
+        <v>6843340</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15877,40 +15877,40 @@
         <v>45265.69791666666</v>
       </c>
       <c r="F173" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G173" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H173">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="s">
         <v>55</v>
       </c>
       <c r="K173">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="L173">
+        <v>2.9</v>
+      </c>
+      <c r="M173">
         <v>3.3</v>
       </c>
-      <c r="M173">
-        <v>3.4</v>
-      </c>
       <c r="N173">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="O173">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="P173">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q173">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R173">
         <v>1.85</v>
@@ -15919,16 +15919,16 @@
         <v>2</v>
       </c>
       <c r="T173">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U173">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V173">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W173">
-        <v>1.15</v>
+        <v>1.8</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15943,10 +15943,10 @@
         <v>-1</v>
       </c>
       <c r="AB173">
-        <v>1.025</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AC173">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15954,7 +15954,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6843347</v>
+        <v>6843342</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15966,73 +15966,73 @@
         <v>45265.69791666666</v>
       </c>
       <c r="F174" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G174" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I174">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K174">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="L174">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M174">
+        <v>3.4</v>
+      </c>
+      <c r="N174">
+        <v>2.15</v>
+      </c>
+      <c r="O174">
         <v>3.2</v>
       </c>
-      <c r="N174">
-        <v>2.2</v>
-      </c>
-      <c r="O174">
-        <v>3</v>
-      </c>
       <c r="P174">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q174">
         <v>-0.25</v>
       </c>
       <c r="R174">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S174">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T174">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U174">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V174">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W174">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA174">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC174">
         <v>-1</v>
@@ -16043,7 +16043,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6842557</v>
+        <v>6843347</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16055,73 +16055,73 @@
         <v>45265.69791666666</v>
       </c>
       <c r="F175" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G175" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>5</v>
+      </c>
+      <c r="J175" t="s">
+        <v>56</v>
+      </c>
+      <c r="K175">
+        <v>2.4</v>
+      </c>
+      <c r="L175">
+        <v>3.1</v>
+      </c>
+      <c r="M175">
+        <v>3.2</v>
+      </c>
+      <c r="N175">
+        <v>2.2</v>
+      </c>
+      <c r="O175">
         <v>3</v>
       </c>
-      <c r="I175">
-        <v>2</v>
-      </c>
-      <c r="J175" t="s">
-        <v>55</v>
-      </c>
-      <c r="K175">
-        <v>2.8</v>
-      </c>
-      <c r="L175">
-        <v>3.3</v>
-      </c>
-      <c r="M175">
-        <v>2.45</v>
-      </c>
-      <c r="N175">
-        <v>2.45</v>
-      </c>
-      <c r="O175">
-        <v>3.3</v>
-      </c>
       <c r="P175">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q175">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R175">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S175">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T175">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U175">
+        <v>1.975</v>
+      </c>
+      <c r="V175">
         <v>1.875</v>
       </c>
-      <c r="V175">
-        <v>1.975</v>
-      </c>
       <c r="W175">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z175">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB175">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC175">
         <v>-1</v>
@@ -16132,7 +16132,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6843344</v>
+        <v>6843343</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16144,76 +16144,76 @@
         <v>45265.69791666666</v>
       </c>
       <c r="F176" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="G176" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H176">
         <v>1</v>
       </c>
       <c r="I176">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K176">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L176">
         <v>3.3</v>
       </c>
       <c r="M176">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N176">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="O176">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P176">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q176">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R176">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S176">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T176">
         <v>2.25</v>
       </c>
       <c r="U176">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V176">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA176">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16221,7 +16221,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6843343</v>
+        <v>6843346</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16233,13 +16233,13 @@
         <v>45265.69791666666</v>
       </c>
       <c r="F177" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G177" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177">
         <v>0</v>
@@ -16248,43 +16248,43 @@
         <v>55</v>
       </c>
       <c r="K177">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="L177">
         <v>3.3</v>
       </c>
       <c r="M177">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="N177">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="O177">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P177">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q177">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R177">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S177">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T177">
         <v>2.25</v>
       </c>
       <c r="U177">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V177">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W177">
-        <v>0.95</v>
+        <v>1.8</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16293,16 +16293,16 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA177">
         <v>-1</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC177">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16310,7 +16310,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6843346</v>
+        <v>6843345</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16322,10 +16322,10 @@
         <v>45265.69791666666</v>
       </c>
       <c r="F178" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G178" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16337,43 +16337,43 @@
         <v>55</v>
       </c>
       <c r="K178">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="L178">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M178">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N178">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="O178">
         <v>3.2</v>
       </c>
       <c r="P178">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="Q178">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R178">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S178">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T178">
         <v>2.25</v>
       </c>
       <c r="U178">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V178">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W178">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16382,7 +16382,7 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AA178">
         <v>-1</v>
@@ -16391,7 +16391,7 @@
         <v>-0.5</v>
       </c>
       <c r="AC178">
-        <v>0.4375</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16399,7 +16399,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6843345</v>
+        <v>6843344</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16411,76 +16411,76 @@
         <v>45265.69791666666</v>
       </c>
       <c r="F179" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G179" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J179" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K179">
         <v>2.05</v>
       </c>
       <c r="L179">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M179">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N179">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O179">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P179">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q179">
         <v>-0.25</v>
       </c>
       <c r="R179">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S179">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T179">
         <v>2.25</v>
       </c>
       <c r="U179">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V179">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W179">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z179">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB179">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC179">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16577,7 +16577,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6842558</v>
+        <v>6843349</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16589,76 +16589,76 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F181" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G181" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181">
         <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K181">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="L181">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M181">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="N181">
-        <v>1.909</v>
+        <v>1.533</v>
       </c>
       <c r="O181">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P181">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q181">
+        <v>-1</v>
+      </c>
+      <c r="R181">
+        <v>2</v>
+      </c>
+      <c r="S181">
+        <v>1.85</v>
+      </c>
+      <c r="T181">
+        <v>2.25</v>
+      </c>
+      <c r="U181">
+        <v>1.875</v>
+      </c>
+      <c r="V181">
+        <v>1.975</v>
+      </c>
+      <c r="W181">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="X181">
+        <v>-1</v>
+      </c>
+      <c r="Y181">
+        <v>-1</v>
+      </c>
+      <c r="Z181">
+        <v>1</v>
+      </c>
+      <c r="AA181">
+        <v>-1</v>
+      </c>
+      <c r="AB181">
         <v>-0.5</v>
       </c>
-      <c r="R181">
-        <v>1.95</v>
-      </c>
-      <c r="S181">
-        <v>1.9</v>
-      </c>
-      <c r="T181">
-        <v>2.75</v>
-      </c>
-      <c r="U181">
-        <v>2.025</v>
-      </c>
-      <c r="V181">
-        <v>1.825</v>
-      </c>
-      <c r="W181">
-        <v>-1</v>
-      </c>
-      <c r="X181">
-        <v>2.6</v>
-      </c>
-      <c r="Y181">
-        <v>-1</v>
-      </c>
-      <c r="Z181">
-        <v>-1</v>
-      </c>
-      <c r="AA181">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB181">
-        <v>-1</v>
-      </c>
       <c r="AC181">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16666,7 +16666,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6843349</v>
+        <v>6842558</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16678,76 +16678,76 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F182" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G182" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182">
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K182">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="L182">
+        <v>3.3</v>
+      </c>
+      <c r="M182">
+        <v>3.3</v>
+      </c>
+      <c r="N182">
+        <v>1.909</v>
+      </c>
+      <c r="O182">
+        <v>3.6</v>
+      </c>
+      <c r="P182">
         <v>3.5</v>
       </c>
-      <c r="M182">
-        <v>4.75</v>
-      </c>
-      <c r="N182">
-        <v>1.533</v>
-      </c>
-      <c r="O182">
-        <v>3.75</v>
-      </c>
-      <c r="P182">
-        <v>5.75</v>
-      </c>
       <c r="Q182">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R182">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S182">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T182">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U182">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V182">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W182">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X182">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y182">
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA182">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB182">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC182">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16755,7 +16755,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7022314</v>
+        <v>6843355</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16767,76 +16767,76 @@
         <v>45276.625</v>
       </c>
       <c r="F183" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G183" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J183" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K183">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="L183">
+        <v>3</v>
+      </c>
+      <c r="M183">
         <v>3.25</v>
       </c>
-      <c r="M183">
-        <v>4.2</v>
-      </c>
       <c r="N183">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O183">
+        <v>3</v>
+      </c>
+      <c r="P183">
         <v>3.2</v>
       </c>
-      <c r="P183">
-        <v>3.75</v>
-      </c>
       <c r="Q183">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R183">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S183">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T183">
         <v>2.25</v>
       </c>
       <c r="U183">
+        <v>1.95</v>
+      </c>
+      <c r="V183">
         <v>1.9</v>
       </c>
-      <c r="V183">
-        <v>1.95</v>
-      </c>
       <c r="W183">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X183">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA183">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB183">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC183">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16844,7 +16844,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6843352</v>
+        <v>7022314</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16856,76 +16856,76 @@
         <v>45276.625</v>
       </c>
       <c r="F184" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G184" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H184">
         <v>1</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K184">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="L184">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M184">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N184">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="O184">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P184">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q184">
         <v>-0.5</v>
       </c>
       <c r="R184">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S184">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T184">
         <v>2.25</v>
       </c>
       <c r="U184">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V184">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W184">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X184">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA184">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -17200,7 +17200,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6843355</v>
+        <v>6843352</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17212,76 +17212,76 @@
         <v>45276.625</v>
       </c>
       <c r="F188" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G188" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
         <v>57</v>
       </c>
       <c r="K188">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L188">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M188">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="N188">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="O188">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P188">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q188">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R188">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S188">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T188">
         <v>2.25</v>
       </c>
       <c r="U188">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V188">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W188">
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
+        <v>-1</v>
+      </c>
+      <c r="AA188">
+        <v>0.925</v>
+      </c>
+      <c r="AB188">
         <v>-0.5</v>
       </c>
-      <c r="AA188">
-        <v>0.45</v>
-      </c>
-      <c r="AB188">
-        <v>0.95</v>
-      </c>
       <c r="AC188">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17289,7 +17289,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6843353</v>
+        <v>6842738</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17301,55 +17301,55 @@
         <v>45276.625</v>
       </c>
       <c r="F189" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G189" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
         <v>1</v>
-      </c>
-      <c r="I189">
-        <v>4</v>
       </c>
       <c r="J189" t="s">
         <v>56</v>
       </c>
       <c r="K189">
-        <v>4.333</v>
+        <v>1.615</v>
       </c>
       <c r="L189">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M189">
-        <v>1.727</v>
+        <v>5.25</v>
       </c>
       <c r="N189">
-        <v>4</v>
+        <v>1.571</v>
       </c>
       <c r="O189">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P189">
+        <v>5.5</v>
+      </c>
+      <c r="Q189">
+        <v>-1</v>
+      </c>
+      <c r="R189">
+        <v>2.05</v>
+      </c>
+      <c r="S189">
         <v>1.8</v>
       </c>
-      <c r="Q189">
-        <v>0.5</v>
-      </c>
-      <c r="R189">
-        <v>1.975</v>
-      </c>
-      <c r="S189">
-        <v>1.875</v>
-      </c>
       <c r="T189">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U189">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V189">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W189">
         <v>-1</v>
@@ -17358,19 +17358,19 @@
         <v>-1</v>
       </c>
       <c r="Y189">
+        <v>4.5</v>
+      </c>
+      <c r="Z189">
+        <v>-1</v>
+      </c>
+      <c r="AA189">
         <v>0.8</v>
       </c>
-      <c r="Z189">
-        <v>-1</v>
-      </c>
-      <c r="AA189">
-        <v>0.875</v>
-      </c>
       <c r="AB189">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC189">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17378,7 +17378,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6842738</v>
+        <v>6843353</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17390,55 +17390,55 @@
         <v>45276.625</v>
       </c>
       <c r="F190" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G190" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J190" t="s">
         <v>56</v>
       </c>
       <c r="K190">
-        <v>1.615</v>
+        <v>4.333</v>
       </c>
       <c r="L190">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M190">
-        <v>5.25</v>
+        <v>1.727</v>
       </c>
       <c r="N190">
-        <v>1.571</v>
+        <v>4</v>
       </c>
       <c r="O190">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P190">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q190">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R190">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S190">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T190">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U190">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V190">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W190">
         <v>-1</v>
@@ -17447,19 +17447,19 @@
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>4.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z190">
         <v>-1</v>
       </c>
       <c r="AA190">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB190">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC190">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -18001,7 +18001,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7603137</v>
+        <v>6842739</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18013,73 +18013,73 @@
         <v>45279.69791666666</v>
       </c>
       <c r="F197" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G197" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J197" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K197">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="L197">
         <v>3.2</v>
       </c>
       <c r="M197">
+        <v>2.25</v>
+      </c>
+      <c r="N197">
         <v>3.2</v>
       </c>
-      <c r="N197">
-        <v>2.25</v>
-      </c>
       <c r="O197">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P197">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="Q197">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R197">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S197">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T197">
         <v>2.25</v>
       </c>
       <c r="U197">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V197">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W197">
         <v>-1</v>
       </c>
       <c r="X197">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y197">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z197">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA197">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AB197">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC197">
         <v>-1</v>
@@ -18179,7 +18179,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6842739</v>
+        <v>6843356</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18191,76 +18191,76 @@
         <v>45279.69791666666</v>
       </c>
       <c r="F199" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G199" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H199">
         <v>0</v>
       </c>
       <c r="I199">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K199">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="L199">
         <v>3.2</v>
       </c>
       <c r="M199">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N199">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="O199">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P199">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q199">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R199">
-        <v>1.925</v>
+        <v>2.125</v>
       </c>
       <c r="S199">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T199">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U199">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V199">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W199">
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y199">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z199">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA199">
-        <v>0.925</v>
+        <v>0.375</v>
       </c>
       <c r="AB199">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC199">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18268,7 +18268,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6843356</v>
+        <v>7603137</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18280,61 +18280,61 @@
         <v>45279.69791666666</v>
       </c>
       <c r="F200" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G200" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J200" t="s">
         <v>57</v>
       </c>
       <c r="K200">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L200">
         <v>3.2</v>
       </c>
       <c r="M200">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N200">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="O200">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P200">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="Q200">
         <v>-0.25</v>
       </c>
       <c r="R200">
-        <v>2.125</v>
+        <v>1.975</v>
       </c>
       <c r="S200">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T200">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U200">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V200">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W200">
         <v>-1</v>
       </c>
       <c r="X200">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y200">
         <v>-1</v>
@@ -18343,13 +18343,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA200">
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="AB200">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC200">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -19425,7 +19425,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6843377</v>
+        <v>6843379</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19437,76 +19437,76 @@
         <v>45314.69791666666</v>
       </c>
       <c r="F213" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G213" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H213">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I213">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J213" t="s">
         <v>57</v>
       </c>
       <c r="K213">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="L213">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M213">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="N213">
-        <v>1.75</v>
+        <v>2.875</v>
       </c>
       <c r="O213">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P213">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="Q213">
+        <v>0.25</v>
+      </c>
+      <c r="R213">
+        <v>1.875</v>
+      </c>
+      <c r="S213">
+        <v>1.975</v>
+      </c>
+      <c r="T213">
+        <v>2.5</v>
+      </c>
+      <c r="U213">
+        <v>1.975</v>
+      </c>
+      <c r="V213">
+        <v>1.875</v>
+      </c>
+      <c r="W213">
+        <v>-1</v>
+      </c>
+      <c r="X213">
+        <v>2.3</v>
+      </c>
+      <c r="Y213">
+        <v>-1</v>
+      </c>
+      <c r="Z213">
+        <v>0.4375</v>
+      </c>
+      <c r="AA213">
         <v>-0.5</v>
       </c>
-      <c r="R213">
-        <v>1.8</v>
-      </c>
-      <c r="S213">
-        <v>2.05</v>
-      </c>
-      <c r="T213">
-        <v>2.25</v>
-      </c>
-      <c r="U213">
-        <v>1.875</v>
-      </c>
-      <c r="V213">
-        <v>1.975</v>
-      </c>
-      <c r="W213">
-        <v>-1</v>
-      </c>
-      <c r="X213">
-        <v>2.2</v>
-      </c>
-      <c r="Y213">
-        <v>-1</v>
-      </c>
-      <c r="Z213">
-        <v>-1</v>
-      </c>
-      <c r="AA213">
-        <v>1.05</v>
-      </c>
       <c r="AB213">
+        <v>-1</v>
+      </c>
+      <c r="AC213">
         <v>0.875</v>
-      </c>
-      <c r="AC213">
-        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19514,7 +19514,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6843379</v>
+        <v>6843375</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19526,40 +19526,40 @@
         <v>45314.69791666666</v>
       </c>
       <c r="F214" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="G214" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H214">
         <v>1</v>
       </c>
       <c r="I214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K214">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="L214">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M214">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="N214">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="O214">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P214">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q214">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R214">
         <v>1.875</v>
@@ -19568,34 +19568,34 @@
         <v>1.975</v>
       </c>
       <c r="T214">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U214">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V214">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W214">
         <v>-1</v>
       </c>
       <c r="X214">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z214">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB214">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC214">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19603,7 +19603,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6843375</v>
+        <v>6843373</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19615,55 +19615,55 @@
         <v>45314.69791666666</v>
       </c>
       <c r="F215" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G215" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H215">
+        <v>0</v>
+      </c>
+      <c r="I215">
         <v>1</v>
-      </c>
-      <c r="I215">
-        <v>2</v>
       </c>
       <c r="J215" t="s">
         <v>56</v>
       </c>
       <c r="K215">
+        <v>2.6</v>
+      </c>
+      <c r="L215">
+        <v>3.25</v>
+      </c>
+      <c r="M215">
         <v>2.5</v>
       </c>
-      <c r="L215">
-        <v>3</v>
-      </c>
-      <c r="M215">
-        <v>2.75</v>
-      </c>
       <c r="N215">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="O215">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P215">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q215">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R215">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S215">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T215">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U215">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V215">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W215">
         <v>-1</v>
@@ -19672,19 +19672,19 @@
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="Z215">
         <v>-1</v>
       </c>
       <c r="AA215">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB215">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC215">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19692,7 +19692,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6843373</v>
+        <v>6843378</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19704,40 +19704,40 @@
         <v>45314.69791666666</v>
       </c>
       <c r="F216" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G216" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K216">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="L216">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M216">
+        <v>2.4</v>
+      </c>
+      <c r="N216">
         <v>2.5</v>
       </c>
-      <c r="N216">
-        <v>2.8</v>
-      </c>
       <c r="O216">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="P216">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="Q216">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R216">
         <v>1.8</v>
@@ -19746,34 +19746,34 @@
         <v>2.05</v>
       </c>
       <c r="T216">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U216">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V216">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W216">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X216">
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA216">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC216">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19781,7 +19781,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6843378</v>
+        <v>6843376</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19793,76 +19793,76 @@
         <v>45314.69791666666</v>
       </c>
       <c r="F217" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G217" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K217">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L217">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M217">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="N217">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="O217">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="P217">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="Q217">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R217">
+        <v>1.925</v>
+      </c>
+      <c r="S217">
+        <v>1.925</v>
+      </c>
+      <c r="T217">
+        <v>2</v>
+      </c>
+      <c r="U217">
+        <v>2.05</v>
+      </c>
+      <c r="V217">
         <v>1.8</v>
       </c>
-      <c r="S217">
-        <v>2.05</v>
-      </c>
-      <c r="T217">
-        <v>1.75</v>
-      </c>
-      <c r="U217">
-        <v>2</v>
-      </c>
-      <c r="V217">
-        <v>1.85</v>
-      </c>
       <c r="W217">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X217">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y217">
         <v>-1</v>
       </c>
       <c r="Z217">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA217">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB217">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AC217">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -19959,7 +19959,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6843376</v>
+        <v>6842741</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19971,76 +19971,76 @@
         <v>45314.69791666666</v>
       </c>
       <c r="F219" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G219" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="H219">
         <v>1</v>
       </c>
       <c r="I219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K219">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L219">
+        <v>3.2</v>
+      </c>
+      <c r="M219">
+        <v>3</v>
+      </c>
+      <c r="N219">
+        <v>2.25</v>
+      </c>
+      <c r="O219">
         <v>3.1</v>
       </c>
-      <c r="M219">
-        <v>3.4</v>
-      </c>
-      <c r="N219">
-        <v>2.15</v>
-      </c>
-      <c r="O219">
-        <v>2.9</v>
-      </c>
       <c r="P219">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q219">
         <v>-0.25</v>
       </c>
       <c r="R219">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S219">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T219">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U219">
+        <v>1.8</v>
+      </c>
+      <c r="V219">
         <v>2.05</v>
       </c>
-      <c r="V219">
-        <v>1.8</v>
-      </c>
       <c r="W219">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X219">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y219">
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA219">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB219">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC219">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20048,7 +20048,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6842741</v>
+        <v>6843377</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20060,76 +20060,76 @@
         <v>45314.69791666666</v>
       </c>
       <c r="F220" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G220" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I220">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J220" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K220">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L220">
+        <v>3</v>
+      </c>
+      <c r="M220">
+        <v>3.6</v>
+      </c>
+      <c r="N220">
+        <v>1.75</v>
+      </c>
+      <c r="O220">
         <v>3.2</v>
       </c>
-      <c r="M220">
-        <v>3</v>
-      </c>
-      <c r="N220">
-        <v>2.25</v>
-      </c>
-      <c r="O220">
-        <v>3.1</v>
-      </c>
       <c r="P220">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="Q220">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R220">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S220">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T220">
         <v>2.25</v>
       </c>
       <c r="U220">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V220">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W220">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X220">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y220">
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB220">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC220">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -21116,7 +21116,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6842563</v>
+        <v>6842743</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21128,58 +21128,58 @@
         <v>45325.625</v>
       </c>
       <c r="F232" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G232" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J232" t="s">
         <v>55</v>
       </c>
       <c r="K232">
+        <v>2.15</v>
+      </c>
+      <c r="L232">
+        <v>3.2</v>
+      </c>
+      <c r="M232">
         <v>3.4</v>
       </c>
-      <c r="L232">
-        <v>3.3</v>
-      </c>
-      <c r="M232">
-        <v>2.1</v>
-      </c>
       <c r="N232">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="O232">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P232">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="Q232">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R232">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S232">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T232">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U232">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V232">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W232">
-        <v>2.25</v>
+        <v>1.15</v>
       </c>
       <c r="X232">
         <v>-1</v>
@@ -21188,16 +21188,16 @@
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA232">
         <v>-1</v>
       </c>
       <c r="AB232">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC232">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21205,7 +21205,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6842743</v>
+        <v>6843395</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21217,58 +21217,58 @@
         <v>45325.625</v>
       </c>
       <c r="F233" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G233" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H233">
+        <v>5</v>
+      </c>
+      <c r="I233">
         <v>1</v>
-      </c>
-      <c r="I233">
-        <v>0</v>
       </c>
       <c r="J233" t="s">
         <v>55</v>
       </c>
       <c r="K233">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L233">
+        <v>3.25</v>
+      </c>
+      <c r="M233">
+        <v>3.6</v>
+      </c>
+      <c r="N233">
+        <v>2.25</v>
+      </c>
+      <c r="O233">
         <v>3.2</v>
       </c>
-      <c r="M233">
-        <v>3.4</v>
-      </c>
-      <c r="N233">
-        <v>2.15</v>
-      </c>
-      <c r="O233">
-        <v>3</v>
-      </c>
       <c r="P233">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q233">
         <v>-0.25</v>
       </c>
       <c r="R233">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S233">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T233">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U233">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V233">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W233">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="X233">
         <v>-1</v>
@@ -21277,16 +21277,16 @@
         <v>-1</v>
       </c>
       <c r="Z233">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA233">
         <v>-1</v>
       </c>
       <c r="AB233">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC233">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21294,7 +21294,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6843395</v>
+        <v>6843389</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21306,73 +21306,73 @@
         <v>45325.625</v>
       </c>
       <c r="F234" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G234" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H234">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I234">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J234" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K234">
-        <v>2.05</v>
+        <v>4.4</v>
       </c>
       <c r="L234">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M234">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="N234">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="O234">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P234">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="Q234">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R234">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S234">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T234">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U234">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V234">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W234">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X234">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y234">
         <v>-1</v>
       </c>
       <c r="Z234">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AA234">
         <v>-1</v>
       </c>
       <c r="AB234">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC234">
         <v>-1</v>
@@ -21383,7 +21383,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6843389</v>
+        <v>6842563</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21395,73 +21395,73 @@
         <v>45325.625</v>
       </c>
       <c r="F235" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G235" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H235">
         <v>2</v>
       </c>
       <c r="I235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J235" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K235">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="L235">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M235">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="N235">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="O235">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P235">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q235">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R235">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S235">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T235">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U235">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V235">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W235">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X235">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA235">
         <v>-1</v>
       </c>
       <c r="AB235">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC235">
         <v>-1</v>
@@ -23430,7 +23430,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6843407</v>
+        <v>6843405</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23442,10 +23442,10 @@
         <v>45339.625</v>
       </c>
       <c r="F258" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G258" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H258">
         <v>0</v>
@@ -23457,40 +23457,40 @@
         <v>56</v>
       </c>
       <c r="K258">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="L258">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M258">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="N258">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="O258">
         <v>3.1</v>
       </c>
       <c r="P258">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q258">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R258">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S258">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T258">
         <v>2.25</v>
       </c>
       <c r="U258">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V258">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W258">
         <v>-1</v>
@@ -23499,19 +23499,19 @@
         <v>-1</v>
       </c>
       <c r="Y258">
-        <v>2.25</v>
+        <v>1.55</v>
       </c>
       <c r="Z258">
         <v>-1</v>
       </c>
       <c r="AA258">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB258">
         <v>-0.5</v>
       </c>
       <c r="AC258">
-        <v>0.4625</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="259" spans="1:29">
@@ -23519,7 +23519,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6843405</v>
+        <v>6843407</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23531,10 +23531,10 @@
         <v>45339.625</v>
       </c>
       <c r="F259" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="G259" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H259">
         <v>0</v>
@@ -23546,40 +23546,40 @@
         <v>56</v>
       </c>
       <c r="K259">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="L259">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M259">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="N259">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="O259">
         <v>3.1</v>
       </c>
       <c r="P259">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="Q259">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R259">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S259">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T259">
         <v>2.25</v>
       </c>
       <c r="U259">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V259">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W259">
         <v>-1</v>
@@ -23588,19 +23588,19 @@
         <v>-1</v>
       </c>
       <c r="Y259">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="Z259">
         <v>-1</v>
       </c>
       <c r="AA259">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB259">
         <v>-0.5</v>
       </c>
       <c r="AC259">
-        <v>0.475</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="260" spans="1:29">
@@ -23964,7 +23964,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6843412</v>
+        <v>6843415</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23976,40 +23976,40 @@
         <v>45346.625</v>
       </c>
       <c r="F264" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G264" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J264" t="s">
         <v>57</v>
       </c>
       <c r="K264">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="L264">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="M264">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="N264">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="O264">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="P264">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="Q264">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R264">
         <v>1.925</v>
@@ -24018,34 +24018,34 @@
         <v>1.925</v>
       </c>
       <c r="T264">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="U264">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V264">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W264">
         <v>-1</v>
       </c>
       <c r="X264">
-        <v>1.875</v>
+        <v>3</v>
       </c>
       <c r="Y264">
         <v>-1</v>
       </c>
       <c r="Z264">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA264">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AB264">
         <v>-1</v>
       </c>
       <c r="AC264">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24053,7 +24053,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>6843417</v>
+        <v>6843412</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24065,76 +24065,76 @@
         <v>45346.625</v>
       </c>
       <c r="F265" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G265" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H265">
         <v>0</v>
       </c>
       <c r="I265">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J265" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K265">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="L265">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M265">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="N265">
+        <v>2.15</v>
+      </c>
+      <c r="O265">
         <v>2.875</v>
       </c>
-      <c r="O265">
-        <v>3.2</v>
-      </c>
       <c r="P265">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q265">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R265">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S265">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T265">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="U265">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V265">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W265">
         <v>-1</v>
       </c>
       <c r="X265">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y265">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z265">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA265">
-        <v>0.7749999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AB265">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC265">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -24142,7 +24142,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6843418</v>
+        <v>6843417</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24154,76 +24154,76 @@
         <v>45346.625</v>
       </c>
       <c r="F266" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G266" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H266">
         <v>0</v>
       </c>
       <c r="I266">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J266" t="s">
         <v>56</v>
       </c>
       <c r="K266">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="L266">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M266">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="N266">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="O266">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P266">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="Q266">
+        <v>0</v>
+      </c>
+      <c r="R266">
+        <v>2.1</v>
+      </c>
+      <c r="S266">
+        <v>1.775</v>
+      </c>
+      <c r="T266">
+        <v>2.25</v>
+      </c>
+      <c r="U266">
+        <v>1.925</v>
+      </c>
+      <c r="V266">
+        <v>1.925</v>
+      </c>
+      <c r="W266">
+        <v>-1</v>
+      </c>
+      <c r="X266">
+        <v>-1</v>
+      </c>
+      <c r="Y266">
+        <v>1.4</v>
+      </c>
+      <c r="Z266">
+        <v>-1</v>
+      </c>
+      <c r="AA266">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB266">
         <v>-0.5</v>
       </c>
-      <c r="R266">
-        <v>1.875</v>
-      </c>
-      <c r="S266">
-        <v>1.975</v>
-      </c>
-      <c r="T266">
-        <v>2.5</v>
-      </c>
-      <c r="U266">
-        <v>1.95</v>
-      </c>
-      <c r="V266">
-        <v>1.9</v>
-      </c>
-      <c r="W266">
-        <v>-1</v>
-      </c>
-      <c r="X266">
-        <v>-1</v>
-      </c>
-      <c r="Y266">
-        <v>3.333</v>
-      </c>
-      <c r="Z266">
-        <v>-1</v>
-      </c>
-      <c r="AA266">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB266">
-        <v>-1</v>
-      </c>
       <c r="AC266">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -24231,7 +24231,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6843419</v>
+        <v>6843418</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24243,76 +24243,76 @@
         <v>45346.625</v>
       </c>
       <c r="F267" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G267" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H267">
         <v>0</v>
       </c>
       <c r="I267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J267" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K267">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="L267">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M267">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N267">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="O267">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P267">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="Q267">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R267">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="S267">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="T267">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U267">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V267">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W267">
         <v>-1</v>
       </c>
       <c r="X267">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y267">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z267">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA267">
-        <v>0.3625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB267">
         <v>-1</v>
       </c>
       <c r="AC267">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24320,7 +24320,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6884026</v>
+        <v>6843419</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24332,76 +24332,76 @@
         <v>45346.625</v>
       </c>
       <c r="F268" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G268" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J268" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K268">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="L268">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M268">
+        <v>3</v>
+      </c>
+      <c r="N268">
+        <v>2.4</v>
+      </c>
+      <c r="O268">
         <v>3.1</v>
       </c>
-      <c r="N268">
-        <v>2.1</v>
-      </c>
-      <c r="O268">
-        <v>3.2</v>
-      </c>
       <c r="P268">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q268">
         <v>-0.25</v>
       </c>
       <c r="R268">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="S268">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="T268">
         <v>2.25</v>
       </c>
       <c r="U268">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V268">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W268">
         <v>-1</v>
       </c>
       <c r="X268">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y268">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z268">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA268">
-        <v>1.025</v>
+        <v>0.3625</v>
       </c>
       <c r="AB268">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC268">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24409,7 +24409,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6843415</v>
+        <v>6884026</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24421,76 +24421,76 @@
         <v>45346.625</v>
       </c>
       <c r="F269" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G269" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H269">
         <v>1</v>
       </c>
       <c r="I269">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J269" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K269">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="L269">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M269">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N269">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="O269">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P269">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q269">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R269">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S269">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T269">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U269">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V269">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W269">
         <v>-1</v>
       </c>
       <c r="X269">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y269">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z269">
         <v>-1</v>
       </c>
       <c r="AA269">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB269">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC269">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24854,7 +24854,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>6843424</v>
+        <v>6843423</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -24866,40 +24866,40 @@
         <v>45353.625</v>
       </c>
       <c r="F274" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G274" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I274">
         <v>0</v>
       </c>
       <c r="J274" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K274">
-        <v>1.3</v>
+        <v>2.45</v>
       </c>
       <c r="L274">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="M274">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N274">
-        <v>1.363</v>
+        <v>2.55</v>
       </c>
       <c r="O274">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="P274">
-        <v>8</v>
+        <v>2.875</v>
       </c>
       <c r="Q274">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R274">
         <v>1.8</v>
@@ -24908,34 +24908,34 @@
         <v>2.05</v>
       </c>
       <c r="T274">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U274">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V274">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W274">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X274">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y274">
         <v>-1</v>
       </c>
       <c r="Z274">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA274">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB274">
         <v>-1</v>
       </c>
       <c r="AC274">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="275" spans="1:29">
@@ -24943,7 +24943,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>6843423</v>
+        <v>6897686</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24955,46 +24955,46 @@
         <v>45353.625</v>
       </c>
       <c r="F275" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G275" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I275">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J275" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K275">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="L275">
+        <v>3.2</v>
+      </c>
+      <c r="M275">
         <v>3.1</v>
       </c>
-      <c r="M275">
-        <v>3</v>
-      </c>
       <c r="N275">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="O275">
         <v>3.1</v>
       </c>
       <c r="P275">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="Q275">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R275">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S275">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T275">
         <v>2.25</v>
@@ -25003,28 +25003,28 @@
         <v>2.05</v>
       </c>
       <c r="V275">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W275">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X275">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y275">
         <v>-1</v>
       </c>
       <c r="Z275">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA275">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB275">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC275">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="276" spans="1:29">
@@ -25032,7 +25032,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6917760</v>
+        <v>6843426</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25044,40 +25044,40 @@
         <v>45353.625</v>
       </c>
       <c r="F276" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G276" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J276" t="s">
         <v>57</v>
       </c>
       <c r="K276">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="L276">
+        <v>3.4</v>
+      </c>
+      <c r="M276">
+        <v>2.625</v>
+      </c>
+      <c r="N276">
+        <v>2.45</v>
+      </c>
+      <c r="O276">
         <v>3.5</v>
       </c>
-      <c r="M276">
-        <v>4.75</v>
-      </c>
-      <c r="N276">
-        <v>1.8</v>
-      </c>
-      <c r="O276">
-        <v>3.4</v>
-      </c>
       <c r="P276">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q276">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R276">
         <v>1.825</v>
@@ -25086,34 +25086,34 @@
         <v>2.025</v>
       </c>
       <c r="T276">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U276">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V276">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W276">
         <v>-1</v>
       </c>
       <c r="X276">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Y276">
         <v>-1</v>
       </c>
       <c r="Z276">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA276">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB276">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC276">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25121,7 +25121,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6897686</v>
+        <v>6843425</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25133,28 +25133,28 @@
         <v>45353.625</v>
       </c>
       <c r="F277" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G277" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I277">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J277" t="s">
         <v>57</v>
       </c>
       <c r="K277">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L277">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M277">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N277">
         <v>2.2</v>
@@ -25163,19 +25163,19 @@
         <v>3.1</v>
       </c>
       <c r="P277">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q277">
         <v>-0.25</v>
       </c>
       <c r="R277">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S277">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T277">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U277">
         <v>2.05</v>
@@ -25196,13 +25196,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA277">
-        <v>0.4625</v>
+        <v>0.475</v>
       </c>
       <c r="AB277">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AC277">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -25210,7 +25210,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>6843425</v>
+        <v>6843424</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25222,76 +25222,76 @@
         <v>45353.625</v>
       </c>
       <c r="F278" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G278" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J278" t="s">
         <v>57</v>
       </c>
       <c r="K278">
-        <v>2.25</v>
+        <v>1.3</v>
       </c>
       <c r="L278">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="M278">
-        <v>3.4</v>
+        <v>9</v>
       </c>
       <c r="N278">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="O278">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="P278">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="Q278">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R278">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S278">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T278">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U278">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V278">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W278">
         <v>-1</v>
       </c>
       <c r="X278">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="Y278">
         <v>-1</v>
       </c>
       <c r="Z278">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA278">
-        <v>0.475</v>
+        <v>1.05</v>
       </c>
       <c r="AB278">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC278">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="279" spans="1:29">
@@ -25299,7 +25299,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>6843426</v>
+        <v>6917760</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25311,40 +25311,40 @@
         <v>45353.625</v>
       </c>
       <c r="F279" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G279" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J279" t="s">
         <v>57</v>
       </c>
       <c r="K279">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="L279">
+        <v>3.5</v>
+      </c>
+      <c r="M279">
+        <v>4.75</v>
+      </c>
+      <c r="N279">
+        <v>1.8</v>
+      </c>
+      <c r="O279">
         <v>3.4</v>
       </c>
-      <c r="M279">
-        <v>2.625</v>
-      </c>
-      <c r="N279">
-        <v>2.45</v>
-      </c>
-      <c r="O279">
-        <v>3.5</v>
-      </c>
       <c r="P279">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q279">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R279">
         <v>1.825</v>
@@ -25353,34 +25353,34 @@
         <v>2.025</v>
       </c>
       <c r="T279">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U279">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V279">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W279">
         <v>-1</v>
       </c>
       <c r="X279">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y279">
         <v>-1</v>
       </c>
       <c r="Z279">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA279">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB279">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC279">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="280" spans="1:29">
@@ -26545,7 +26545,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>6843438</v>
+        <v>6904349</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26557,76 +26557,76 @@
         <v>45367.625</v>
       </c>
       <c r="F293" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G293" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I293">
         <v>1</v>
       </c>
       <c r="J293" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K293">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L293">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M293">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N293">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O293">
         <v>3.25</v>
       </c>
       <c r="P293">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q293">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R293">
+        <v>1.825</v>
+      </c>
+      <c r="S293">
         <v>2.025</v>
       </c>
-      <c r="S293">
-        <v>1.825</v>
-      </c>
       <c r="T293">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U293">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V293">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W293">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X293">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y293">
         <v>-1</v>
       </c>
       <c r="Z293">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA293">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB293">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC293">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="294" spans="1:29">
@@ -26634,7 +26634,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>6904349</v>
+        <v>7022325</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26646,10 +26646,10 @@
         <v>45367.625</v>
       </c>
       <c r="F294" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G294" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H294">
         <v>3</v>
@@ -26661,43 +26661,43 @@
         <v>55</v>
       </c>
       <c r="K294">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="L294">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M294">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="N294">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="O294">
         <v>3.25</v>
       </c>
       <c r="P294">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q294">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R294">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S294">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T294">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U294">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V294">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W294">
-        <v>1.05</v>
+        <v>1.625</v>
       </c>
       <c r="X294">
         <v>-1</v>
@@ -26706,13 +26706,13 @@
         <v>-1</v>
       </c>
       <c r="Z294">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA294">
         <v>-1</v>
       </c>
       <c r="AB294">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC294">
         <v>-1</v>
@@ -26723,7 +26723,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>7022325</v>
+        <v>6843438</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26735,76 +26735,76 @@
         <v>45367.625</v>
       </c>
       <c r="F295" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G295" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="H295">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I295">
         <v>1</v>
       </c>
       <c r="J295" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K295">
-        <v>3.3</v>
+        <v>1.95</v>
       </c>
       <c r="L295">
         <v>3.3</v>
       </c>
       <c r="M295">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="N295">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="O295">
         <v>3.25</v>
       </c>
       <c r="P295">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="Q295">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R295">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S295">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T295">
         <v>2.25</v>
       </c>
       <c r="U295">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="V295">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="W295">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X295">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y295">
         <v>-1</v>
       </c>
       <c r="Z295">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA295">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB295">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC295">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -26990,7 +26990,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>6843435</v>
+        <v>6843437</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -27002,76 +27002,76 @@
         <v>45367.625</v>
       </c>
       <c r="F298" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="G298" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I298">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J298" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K298">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L298">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M298">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="N298">
+        <v>2.15</v>
+      </c>
+      <c r="O298">
+        <v>2.875</v>
+      </c>
+      <c r="P298">
+        <v>4</v>
+      </c>
+      <c r="Q298">
+        <v>-0.25</v>
+      </c>
+      <c r="R298">
         <v>1.8</v>
       </c>
-      <c r="O298">
-        <v>3.3</v>
-      </c>
-      <c r="P298">
-        <v>5</v>
-      </c>
-      <c r="Q298">
-        <v>-0.75</v>
-      </c>
-      <c r="R298">
+      <c r="S298">
         <v>2.05</v>
       </c>
-      <c r="S298">
-        <v>1.8</v>
-      </c>
       <c r="T298">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U298">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V298">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W298">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X298">
         <v>-1</v>
       </c>
       <c r="Y298">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z298">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA298">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB298">
-        <v>1.05</v>
+        <v>0.4875</v>
       </c>
       <c r="AC298">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -27168,7 +27168,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>6843437</v>
+        <v>6843435</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27180,76 +27180,76 @@
         <v>45367.625</v>
       </c>
       <c r="F300" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G300" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I300">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J300" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K300">
+        <v>1.95</v>
+      </c>
+      <c r="L300">
+        <v>3.2</v>
+      </c>
+      <c r="M300">
+        <v>4.2</v>
+      </c>
+      <c r="N300">
+        <v>1.8</v>
+      </c>
+      <c r="O300">
+        <v>3.3</v>
+      </c>
+      <c r="P300">
+        <v>5</v>
+      </c>
+      <c r="Q300">
+        <v>-0.75</v>
+      </c>
+      <c r="R300">
+        <v>2.05</v>
+      </c>
+      <c r="S300">
+        <v>1.8</v>
+      </c>
+      <c r="T300">
         <v>2.25</v>
       </c>
-      <c r="L300">
-        <v>2.9</v>
-      </c>
-      <c r="M300">
-        <v>3.75</v>
-      </c>
-      <c r="N300">
-        <v>2.15</v>
-      </c>
-      <c r="O300">
-        <v>2.875</v>
-      </c>
-      <c r="P300">
+      <c r="U300">
+        <v>2.05</v>
+      </c>
+      <c r="V300">
+        <v>1.8</v>
+      </c>
+      <c r="W300">
+        <v>-1</v>
+      </c>
+      <c r="X300">
+        <v>-1</v>
+      </c>
+      <c r="Y300">
         <v>4</v>
       </c>
-      <c r="Q300">
-        <v>-0.25</v>
-      </c>
-      <c r="R300">
-        <v>1.8</v>
-      </c>
-      <c r="S300">
-        <v>2.05</v>
-      </c>
-      <c r="T300">
-        <v>1.75</v>
-      </c>
-      <c r="U300">
-        <v>1.975</v>
-      </c>
-      <c r="V300">
-        <v>1.875</v>
-      </c>
-      <c r="W300">
-        <v>1.15</v>
-      </c>
-      <c r="X300">
-        <v>-1</v>
-      </c>
-      <c r="Y300">
-        <v>-1</v>
-      </c>
       <c r="Z300">
+        <v>-1</v>
+      </c>
+      <c r="AA300">
         <v>0.8</v>
       </c>
-      <c r="AA300">
-        <v>-1</v>
-      </c>
       <c r="AB300">
-        <v>0.4875</v>
+        <v>1.05</v>
       </c>
       <c r="AC300">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="301" spans="1:29">
@@ -27435,7 +27435,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>6979343</v>
+        <v>6917761</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27447,55 +27447,55 @@
         <v>45381.625</v>
       </c>
       <c r="F303" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G303" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I303">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J303" t="s">
         <v>56</v>
       </c>
       <c r="K303">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="L303">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M303">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N303">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="O303">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P303">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q303">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R303">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S303">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T303">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U303">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V303">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W303">
         <v>-1</v>
@@ -27504,16 +27504,16 @@
         <v>-1</v>
       </c>
       <c r="Y303">
-        <v>3.2</v>
+        <v>1.375</v>
       </c>
       <c r="Z303">
         <v>-1</v>
       </c>
       <c r="AA303">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AB303">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC303">
         <v>-1</v>
@@ -27524,7 +27524,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6921722</v>
+        <v>6979343</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27536,10 +27536,10 @@
         <v>45381.625</v>
       </c>
       <c r="F304" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G304" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H304">
         <v>1</v>
@@ -27551,25 +27551,25 @@
         <v>56</v>
       </c>
       <c r="K304">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L304">
         <v>3.1</v>
       </c>
       <c r="M304">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N304">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="O304">
         <v>3</v>
       </c>
       <c r="P304">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q304">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R304">
         <v>2.05</v>
@@ -27578,13 +27578,13 @@
         <v>1.8</v>
       </c>
       <c r="T304">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U304">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V304">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W304">
         <v>-1</v>
@@ -27593,7 +27593,7 @@
         <v>-1</v>
       </c>
       <c r="Y304">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="Z304">
         <v>-1</v>
@@ -27602,7 +27602,7 @@
         <v>0.8</v>
       </c>
       <c r="AB304">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AC304">
         <v>-1</v>
@@ -27613,7 +27613,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>6907423</v>
+        <v>6990827</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27625,76 +27625,76 @@
         <v>45381.625</v>
       </c>
       <c r="F305" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G305" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305">
+        <v>0</v>
+      </c>
+      <c r="J305" t="s">
+        <v>57</v>
+      </c>
+      <c r="K305">
+        <v>2.8</v>
+      </c>
+      <c r="L305">
         <v>3</v>
       </c>
-      <c r="J305" t="s">
-        <v>56</v>
-      </c>
-      <c r="K305">
-        <v>2.05</v>
-      </c>
-      <c r="L305">
-        <v>3.3</v>
-      </c>
       <c r="M305">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="N305">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="O305">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P305">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="Q305">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R305">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S305">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T305">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U305">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V305">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W305">
         <v>-1</v>
       </c>
       <c r="X305">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y305">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z305">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA305">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB305">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC305">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="306" spans="1:29">
@@ -27702,7 +27702,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>6994680</v>
+        <v>6907423</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27714,73 +27714,73 @@
         <v>45381.625</v>
       </c>
       <c r="F306" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G306" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H306">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I306">
         <v>3</v>
       </c>
       <c r="J306" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K306">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L306">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M306">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N306">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O306">
         <v>3.3</v>
       </c>
       <c r="P306">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q306">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R306">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S306">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T306">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U306">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V306">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W306">
         <v>-1</v>
       </c>
       <c r="X306">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y306">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z306">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA306">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AB306">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC306">
         <v>-1</v>
@@ -27791,7 +27791,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>6990827</v>
+        <v>6994680</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27803,76 +27803,76 @@
         <v>45381.625</v>
       </c>
       <c r="F307" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G307" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I307">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J307" t="s">
         <v>57</v>
       </c>
       <c r="K307">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="L307">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M307">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="N307">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="O307">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P307">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q307">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R307">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S307">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T307">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U307">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V307">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W307">
         <v>-1</v>
       </c>
       <c r="X307">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="Y307">
         <v>-1</v>
       </c>
       <c r="Z307">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA307">
-        <v>-0</v>
+        <v>0.4375</v>
       </c>
       <c r="AB307">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC307">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -27880,7 +27880,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>6994684</v>
+        <v>6921722</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27892,55 +27892,55 @@
         <v>45381.625</v>
       </c>
       <c r="F308" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G308" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I308">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J308" t="s">
         <v>56</v>
       </c>
       <c r="K308">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="L308">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M308">
+        <v>3.2</v>
+      </c>
+      <c r="N308">
+        <v>2.375</v>
+      </c>
+      <c r="O308">
+        <v>3</v>
+      </c>
+      <c r="P308">
+        <v>3.2</v>
+      </c>
+      <c r="Q308">
+        <v>-0.25</v>
+      </c>
+      <c r="R308">
         <v>2.05</v>
       </c>
-      <c r="N308">
-        <v>3.75</v>
-      </c>
-      <c r="O308">
-        <v>3.3</v>
-      </c>
-      <c r="P308">
-        <v>2.05</v>
-      </c>
-      <c r="Q308">
-        <v>0.5</v>
-      </c>
-      <c r="R308">
-        <v>1.825</v>
-      </c>
       <c r="S308">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T308">
         <v>2.25</v>
       </c>
       <c r="U308">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V308">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W308">
         <v>-1</v>
@@ -27949,16 +27949,16 @@
         <v>-1</v>
       </c>
       <c r="Y308">
+        <v>2.2</v>
+      </c>
+      <c r="Z308">
+        <v>-1</v>
+      </c>
+      <c r="AA308">
+        <v>0.8</v>
+      </c>
+      <c r="AB308">
         <v>1.05</v>
-      </c>
-      <c r="Z308">
-        <v>-1</v>
-      </c>
-      <c r="AA308">
-        <v>1.025</v>
-      </c>
-      <c r="AB308">
-        <v>1</v>
       </c>
       <c r="AC308">
         <v>-1</v>
@@ -27969,7 +27969,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>6917761</v>
+        <v>6994684</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27981,55 +27981,55 @@
         <v>45381.625</v>
       </c>
       <c r="F309" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G309" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H309">
         <v>2</v>
       </c>
       <c r="I309">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J309" t="s">
         <v>56</v>
       </c>
       <c r="K309">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="L309">
         <v>3.3</v>
       </c>
       <c r="M309">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="N309">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="O309">
         <v>3.3</v>
       </c>
       <c r="P309">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="Q309">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R309">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S309">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="T309">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U309">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V309">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W309">
         <v>-1</v>
@@ -28038,16 +28038,16 @@
         <v>-1</v>
       </c>
       <c r="Y309">
-        <v>1.375</v>
+        <v>1.05</v>
       </c>
       <c r="Z309">
         <v>-1</v>
       </c>
       <c r="AA309">
-        <v>1.1</v>
+        <v>1.025</v>
       </c>
       <c r="AB309">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC309">
         <v>-1</v>
@@ -28195,10 +28195,10 @@
         <v>2.5</v>
       </c>
       <c r="U311">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V311">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W311">
         <v>0</v>
@@ -28269,10 +28269,10 @@
         <v>2</v>
       </c>
       <c r="U312">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V312">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="W312">
         <v>0</v>
@@ -28295,7 +28295,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>7024935</v>
+        <v>7024934</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28307,46 +28307,46 @@
         <v>45388.58333333334</v>
       </c>
       <c r="F313" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G313" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K313">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L313">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M313">
+        <v>4.2</v>
+      </c>
+      <c r="N313">
+        <v>1.909</v>
+      </c>
+      <c r="O313">
         <v>3.3</v>
       </c>
-      <c r="N313">
-        <v>2.2</v>
-      </c>
-      <c r="O313">
-        <v>3.25</v>
-      </c>
       <c r="P313">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q313">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R313">
+        <v>1.95</v>
+      </c>
+      <c r="S313">
         <v>1.9</v>
       </c>
-      <c r="S313">
+      <c r="T313">
+        <v>2</v>
+      </c>
+      <c r="U313">
+        <v>1.9</v>
+      </c>
+      <c r="V313">
         <v>1.95</v>
-      </c>
-      <c r="T313">
-        <v>2.25</v>
-      </c>
-      <c r="U313">
-        <v>1.85</v>
-      </c>
-      <c r="V313">
-        <v>2</v>
       </c>
       <c r="W313">
         <v>0</v>
@@ -28369,7 +28369,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>7024934</v>
+        <v>7024929</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28381,46 +28381,46 @@
         <v>45388.58333333334</v>
       </c>
       <c r="F314" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G314" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K314">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L314">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M314">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="N314">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="O314">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P314">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q314">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R314">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S314">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T314">
         <v>2</v>
       </c>
       <c r="U314">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V314">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W314">
         <v>0</v>
@@ -28443,7 +28443,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>7024930</v>
+        <v>7024933</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28455,46 +28455,46 @@
         <v>45388.58333333334</v>
       </c>
       <c r="F315" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G315" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="K315">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L315">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M315">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N315">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O315">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P315">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q315">
         <v>-0.25</v>
       </c>
       <c r="R315">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S315">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T315">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U315">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V315">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W315">
         <v>0</v>
@@ -28517,7 +28517,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>7024933</v>
+        <v>7024930</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28529,40 +28529,40 @@
         <v>45388.58333333334</v>
       </c>
       <c r="F316" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G316" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="K316">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L316">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M316">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="N316">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O316">
         <v>3.25</v>
       </c>
       <c r="P316">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q316">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R316">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S316">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T316">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U316">
         <v>2.05</v>
@@ -28591,7 +28591,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>7021699</v>
+        <v>7024935</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28603,46 +28603,46 @@
         <v>45388.58333333334</v>
       </c>
       <c r="F317" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G317" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K317">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L317">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M317">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="N317">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O317">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P317">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q317">
         <v>-0.25</v>
       </c>
       <c r="R317">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S317">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T317">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U317">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V317">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W317">
         <v>0</v>
@@ -28704,10 +28704,10 @@
         <v>-0.5</v>
       </c>
       <c r="R318">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S318">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T318">
         <v>2.25</v>
@@ -28739,7 +28739,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>7024929</v>
+        <v>7021699</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28751,46 +28751,46 @@
         <v>45388.58333333334</v>
       </c>
       <c r="F319" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G319" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K319">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="L319">
         <v>3</v>
       </c>
       <c r="M319">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="N319">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="O319">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P319">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="Q319">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R319">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S319">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T319">
         <v>2</v>
       </c>
       <c r="U319">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V319">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W319">
         <v>0</v>
@@ -28861,10 +28861,10 @@
         <v>2.75</v>
       </c>
       <c r="U320">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V320">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W320">
         <v>0</v>

--- a/France Ligue 2/France Ligue 2.xlsx
+++ b/France Ligue 2/France Ligue 2.xlsx
@@ -13996,7 +13996,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6843328</v>
+        <v>7022311</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -14008,40 +14008,40 @@
         <v>45255.625</v>
       </c>
       <c r="F152" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G152" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152">
         <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K152">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="L152">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="M152">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="N152">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="O152">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="P152">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q152">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R152">
         <v>1.8</v>
@@ -14050,19 +14050,19 @@
         <v>2.05</v>
       </c>
       <c r="T152">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U152">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V152">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W152">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X152">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
         <v>-1</v>
@@ -14074,10 +14074,10 @@
         <v>-1</v>
       </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC152">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14085,7 +14085,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7022311</v>
+        <v>6843324</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14097,58 +14097,58 @@
         <v>45255.625</v>
       </c>
       <c r="F153" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G153" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H153">
         <v>2</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="s">
         <v>55</v>
       </c>
       <c r="K153">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="L153">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="M153">
+        <v>3.25</v>
+      </c>
+      <c r="N153">
+        <v>2</v>
+      </c>
+      <c r="O153">
+        <v>3.3</v>
+      </c>
+      <c r="P153">
+        <v>3.75</v>
+      </c>
+      <c r="Q153">
+        <v>-0.5</v>
+      </c>
+      <c r="R153">
+        <v>2.025</v>
+      </c>
+      <c r="S153">
+        <v>1.825</v>
+      </c>
+      <c r="T153">
         <v>2.5</v>
       </c>
-      <c r="N153">
-        <v>3.3</v>
-      </c>
-      <c r="O153">
-        <v>2.75</v>
-      </c>
-      <c r="P153">
-        <v>2.375</v>
-      </c>
-      <c r="Q153">
-        <v>0.25</v>
-      </c>
-      <c r="R153">
-        <v>1.8</v>
-      </c>
-      <c r="S153">
-        <v>2.05</v>
-      </c>
-      <c r="T153">
-        <v>1.75</v>
-      </c>
       <c r="U153">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V153">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W153">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="X153">
         <v>-1</v>
@@ -14157,16 +14157,16 @@
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AA153">
         <v>-1</v>
       </c>
       <c r="AB153">
-        <v>0.45</v>
+        <v>1.025</v>
       </c>
       <c r="AC153">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14174,7 +14174,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6843324</v>
+        <v>6843328</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14186,76 +14186,76 @@
         <v>45255.625</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="G154" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K154">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="L154">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M154">
-        <v>3.25</v>
+        <v>1.9</v>
       </c>
       <c r="N154">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="O154">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P154">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="Q154">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R154">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S154">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T154">
         <v>2.5</v>
       </c>
       <c r="U154">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V154">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W154">
+        <v>-1</v>
+      </c>
+      <c r="X154">
+        <v>2.6</v>
+      </c>
+      <c r="Y154">
+        <v>-1</v>
+      </c>
+      <c r="Z154">
+        <v>0.8</v>
+      </c>
+      <c r="AA154">
+        <v>-1</v>
+      </c>
+      <c r="AB154">
+        <v>-1</v>
+      </c>
+      <c r="AC154">
         <v>1</v>
-      </c>
-      <c r="X154">
-        <v>-1</v>
-      </c>
-      <c r="Y154">
-        <v>-1</v>
-      </c>
-      <c r="Z154">
-        <v>1.025</v>
-      </c>
-      <c r="AA154">
-        <v>-1</v>
-      </c>
-      <c r="AB154">
-        <v>1.025</v>
-      </c>
-      <c r="AC154">
-        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14352,7 +14352,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6843331</v>
+        <v>6843330</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14364,37 +14364,37 @@
         <v>45255.625</v>
       </c>
       <c r="F156" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G156" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H156">
         <v>0</v>
       </c>
       <c r="I156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J156" t="s">
         <v>56</v>
       </c>
       <c r="K156">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="L156">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M156">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="N156">
         <v>2.9</v>
       </c>
       <c r="O156">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P156">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="Q156">
         <v>0.25</v>
@@ -14406,13 +14406,13 @@
         <v>2.1</v>
       </c>
       <c r="T156">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U156">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V156">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W156">
         <v>-1</v>
@@ -14421,7 +14421,7 @@
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>1.375</v>
+        <v>1.3</v>
       </c>
       <c r="Z156">
         <v>-1</v>
@@ -14430,10 +14430,10 @@
         <v>1.1</v>
       </c>
       <c r="AB156">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14441,7 +14441,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6843330</v>
+        <v>6843331</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14453,37 +14453,37 @@
         <v>45255.625</v>
       </c>
       <c r="F157" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G157" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H157">
         <v>0</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J157" t="s">
         <v>56</v>
       </c>
       <c r="K157">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="L157">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M157">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="N157">
         <v>2.9</v>
       </c>
       <c r="O157">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P157">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="Q157">
         <v>0.25</v>
@@ -14495,13 +14495,13 @@
         <v>2.1</v>
       </c>
       <c r="T157">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U157">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V157">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W157">
         <v>-1</v>
@@ -14510,7 +14510,7 @@
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>1.3</v>
+        <v>1.375</v>
       </c>
       <c r="Z157">
         <v>-1</v>
@@ -14519,10 +14519,10 @@
         <v>1.1</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC157">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -15331,7 +15331,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6843334</v>
+        <v>6843339</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15343,28 +15343,28 @@
         <v>45262.625</v>
       </c>
       <c r="F167" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G167" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167">
         <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K167">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L167">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M167">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N167">
         <v>2.15</v>
@@ -15373,19 +15373,19 @@
         <v>3.2</v>
       </c>
       <c r="P167">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q167">
         <v>-0.25</v>
       </c>
       <c r="R167">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S167">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T167">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U167">
         <v>2</v>
@@ -15397,16 +15397,16 @@
         <v>-1</v>
       </c>
       <c r="X167">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y167">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z167">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA167">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AB167">
         <v>-1</v>
@@ -15420,7 +15420,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6843332</v>
+        <v>6843336</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15432,10 +15432,10 @@
         <v>45262.625</v>
       </c>
       <c r="F168" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G168" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15447,43 +15447,43 @@
         <v>55</v>
       </c>
       <c r="K168">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L168">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M168">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="N168">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="O168">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P168">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q168">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R168">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S168">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T168">
         <v>2.25</v>
       </c>
       <c r="U168">
+        <v>1.95</v>
+      </c>
+      <c r="V168">
         <v>1.9</v>
       </c>
-      <c r="V168">
-        <v>1.95</v>
-      </c>
       <c r="W168">
-        <v>1.6</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15492,7 +15492,7 @@
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA168">
         <v>-1</v>
@@ -15501,7 +15501,7 @@
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15509,7 +15509,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6843336</v>
+        <v>6843332</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15521,10 +15521,10 @@
         <v>45262.625</v>
       </c>
       <c r="F169" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G169" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -15536,43 +15536,43 @@
         <v>55</v>
       </c>
       <c r="K169">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L169">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M169">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="N169">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="O169">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P169">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="Q169">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R169">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S169">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T169">
         <v>2.25</v>
       </c>
       <c r="U169">
+        <v>1.9</v>
+      </c>
+      <c r="V169">
         <v>1.95</v>
       </c>
-      <c r="V169">
-        <v>1.9</v>
-      </c>
       <c r="W169">
-        <v>0.8500000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="X169">
         <v>-1</v>
@@ -15581,7 +15581,7 @@
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA169">
         <v>-1</v>
@@ -15590,7 +15590,7 @@
         <v>-1</v>
       </c>
       <c r="AC169">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15598,7 +15598,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6843339</v>
+        <v>6843334</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15610,28 +15610,28 @@
         <v>45262.625</v>
       </c>
       <c r="F170" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G170" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170">
         <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K170">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L170">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M170">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N170">
         <v>2.15</v>
@@ -15640,19 +15640,19 @@
         <v>3.2</v>
       </c>
       <c r="P170">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q170">
         <v>-0.25</v>
       </c>
       <c r="R170">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S170">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T170">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U170">
         <v>2</v>
@@ -15664,16 +15664,16 @@
         <v>-1</v>
       </c>
       <c r="X170">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y170">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA170">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="AB170">
         <v>-1</v>
@@ -15687,7 +15687,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6842557</v>
+        <v>6842737</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15699,76 +15699,76 @@
         <v>45265.69791666666</v>
       </c>
       <c r="F171" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G171" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H171">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I171">
         <v>2</v>
       </c>
       <c r="J171" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K171">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="L171">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M171">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="N171">
-        <v>2.45</v>
+        <v>5.25</v>
       </c>
       <c r="O171">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P171">
-        <v>2.8</v>
+        <v>1.65</v>
       </c>
       <c r="Q171">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R171">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S171">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T171">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U171">
+        <v>1.975</v>
+      </c>
+      <c r="V171">
         <v>1.875</v>
       </c>
-      <c r="V171">
-        <v>1.975</v>
-      </c>
       <c r="W171">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z171">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA171">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB171">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15776,7 +15776,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6842737</v>
+        <v>6843340</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15788,73 +15788,73 @@
         <v>45265.69791666666</v>
       </c>
       <c r="F172" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G172" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K172">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="L172">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="M172">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="N172">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="O172">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="P172">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="Q172">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R172">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S172">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T172">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="U172">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V172">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W172">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X172">
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA172">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB172">
-        <v>0.4875</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AC172">
         <v>-0.5</v>
@@ -15865,7 +15865,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6843340</v>
+        <v>6843342</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15877,40 +15877,40 @@
         <v>45265.69791666666</v>
       </c>
       <c r="F173" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G173" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173" t="s">
         <v>55</v>
       </c>
       <c r="K173">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="L173">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="M173">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N173">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="O173">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="P173">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q173">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R173">
         <v>1.85</v>
@@ -15919,16 +15919,16 @@
         <v>2</v>
       </c>
       <c r="T173">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U173">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V173">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W173">
-        <v>1.8</v>
+        <v>1.15</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15943,10 +15943,10 @@
         <v>-1</v>
       </c>
       <c r="AB173">
-        <v>0.5249999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC173">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15954,7 +15954,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6843342</v>
+        <v>6843347</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15966,73 +15966,73 @@
         <v>45265.69791666666</v>
       </c>
       <c r="F174" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G174" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>5</v>
+      </c>
+      <c r="J174" t="s">
+        <v>56</v>
+      </c>
+      <c r="K174">
+        <v>2.4</v>
+      </c>
+      <c r="L174">
+        <v>3.1</v>
+      </c>
+      <c r="M174">
+        <v>3.2</v>
+      </c>
+      <c r="N174">
+        <v>2.2</v>
+      </c>
+      <c r="O174">
         <v>3</v>
       </c>
-      <c r="I174">
-        <v>1</v>
-      </c>
-      <c r="J174" t="s">
-        <v>55</v>
-      </c>
-      <c r="K174">
-        <v>2.15</v>
-      </c>
-      <c r="L174">
-        <v>3.3</v>
-      </c>
-      <c r="M174">
-        <v>3.4</v>
-      </c>
-      <c r="N174">
-        <v>2.15</v>
-      </c>
-      <c r="O174">
-        <v>3.2</v>
-      </c>
       <c r="P174">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q174">
         <v>-0.25</v>
       </c>
       <c r="R174">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S174">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T174">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U174">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V174">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W174">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z174">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB174">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC174">
         <v>-1</v>
@@ -16043,7 +16043,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6843347</v>
+        <v>6842557</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16055,73 +16055,73 @@
         <v>45265.69791666666</v>
       </c>
       <c r="F175" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G175" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I175">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K175">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="L175">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M175">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="N175">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="O175">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P175">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q175">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R175">
+        <v>1.8</v>
+      </c>
+      <c r="S175">
+        <v>2.05</v>
+      </c>
+      <c r="T175">
+        <v>2.25</v>
+      </c>
+      <c r="U175">
         <v>1.875</v>
       </c>
-      <c r="S175">
+      <c r="V175">
         <v>1.975</v>
       </c>
-      <c r="T175">
-        <v>2</v>
-      </c>
-      <c r="U175">
-        <v>1.975</v>
-      </c>
-      <c r="V175">
-        <v>1.875</v>
-      </c>
       <c r="W175">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA175">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC175">
         <v>-1</v>
@@ -16132,7 +16132,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6843343</v>
+        <v>6843344</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16144,76 +16144,76 @@
         <v>45265.69791666666</v>
       </c>
       <c r="F176" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="G176" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H176">
         <v>1</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J176" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K176">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L176">
         <v>3.3</v>
       </c>
       <c r="M176">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N176">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="O176">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P176">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q176">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R176">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S176">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T176">
         <v>2.25</v>
       </c>
       <c r="U176">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V176">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W176">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z176">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC176">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16221,7 +16221,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6843346</v>
+        <v>6843343</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16233,13 +16233,13 @@
         <v>45265.69791666666</v>
       </c>
       <c r="F177" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G177" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177">
         <v>0</v>
@@ -16248,43 +16248,43 @@
         <v>55</v>
       </c>
       <c r="K177">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L177">
         <v>3.3</v>
       </c>
       <c r="M177">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N177">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="O177">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P177">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="Q177">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S177">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T177">
         <v>2.25</v>
       </c>
       <c r="U177">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V177">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W177">
-        <v>1.8</v>
+        <v>0.95</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16293,16 +16293,16 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA177">
         <v>-1</v>
       </c>
       <c r="AB177">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16310,7 +16310,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6843345</v>
+        <v>6843346</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16322,10 +16322,10 @@
         <v>45265.69791666666</v>
       </c>
       <c r="F178" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="G178" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16337,43 +16337,43 @@
         <v>55</v>
       </c>
       <c r="K178">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="L178">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M178">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="N178">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="O178">
         <v>3.2</v>
       </c>
       <c r="P178">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q178">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R178">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S178">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T178">
         <v>2.25</v>
       </c>
       <c r="U178">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V178">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W178">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16382,7 +16382,7 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AA178">
         <v>-1</v>
@@ -16391,7 +16391,7 @@
         <v>-0.5</v>
       </c>
       <c r="AC178">
-        <v>0.45</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16399,7 +16399,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6843344</v>
+        <v>6843345</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16411,76 +16411,76 @@
         <v>45265.69791666666</v>
       </c>
       <c r="F179" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G179" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K179">
         <v>2.05</v>
       </c>
       <c r="L179">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M179">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N179">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O179">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P179">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q179">
         <v>-0.25</v>
       </c>
       <c r="R179">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S179">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T179">
         <v>2.25</v>
       </c>
       <c r="U179">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V179">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA179">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AC179">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16577,7 +16577,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6843349</v>
+        <v>6842558</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16589,76 +16589,76 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F181" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G181" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181">
         <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K181">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="L181">
+        <v>3.3</v>
+      </c>
+      <c r="M181">
+        <v>3.3</v>
+      </c>
+      <c r="N181">
+        <v>1.909</v>
+      </c>
+      <c r="O181">
+        <v>3.6</v>
+      </c>
+      <c r="P181">
         <v>3.5</v>
       </c>
-      <c r="M181">
-        <v>4.75</v>
-      </c>
-      <c r="N181">
-        <v>1.533</v>
-      </c>
-      <c r="O181">
-        <v>3.75</v>
-      </c>
-      <c r="P181">
-        <v>5.75</v>
-      </c>
       <c r="Q181">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R181">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S181">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T181">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U181">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V181">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W181">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X181">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB181">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC181">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16666,7 +16666,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6842558</v>
+        <v>6843349</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16678,76 +16678,76 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F182" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G182" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182">
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K182">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="L182">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M182">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="N182">
-        <v>1.909</v>
+        <v>1.533</v>
       </c>
       <c r="O182">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P182">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q182">
+        <v>-1</v>
+      </c>
+      <c r="R182">
+        <v>2</v>
+      </c>
+      <c r="S182">
+        <v>1.85</v>
+      </c>
+      <c r="T182">
+        <v>2.25</v>
+      </c>
+      <c r="U182">
+        <v>1.875</v>
+      </c>
+      <c r="V182">
+        <v>1.975</v>
+      </c>
+      <c r="W182">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="X182">
+        <v>-1</v>
+      </c>
+      <c r="Y182">
+        <v>-1</v>
+      </c>
+      <c r="Z182">
+        <v>1</v>
+      </c>
+      <c r="AA182">
+        <v>-1</v>
+      </c>
+      <c r="AB182">
         <v>-0.5</v>
       </c>
-      <c r="R182">
-        <v>1.95</v>
-      </c>
-      <c r="S182">
-        <v>1.9</v>
-      </c>
-      <c r="T182">
-        <v>2.75</v>
-      </c>
-      <c r="U182">
-        <v>2.025</v>
-      </c>
-      <c r="V182">
-        <v>1.825</v>
-      </c>
-      <c r="W182">
-        <v>-1</v>
-      </c>
-      <c r="X182">
-        <v>2.6</v>
-      </c>
-      <c r="Y182">
-        <v>-1</v>
-      </c>
-      <c r="Z182">
-        <v>-1</v>
-      </c>
-      <c r="AA182">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB182">
-        <v>-1</v>
-      </c>
       <c r="AC182">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16755,7 +16755,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6843355</v>
+        <v>7022314</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16767,76 +16767,76 @@
         <v>45276.625</v>
       </c>
       <c r="F183" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G183" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K183">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="L183">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M183">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="N183">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="O183">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P183">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q183">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R183">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S183">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T183">
         <v>2.25</v>
       </c>
       <c r="U183">
+        <v>1.9</v>
+      </c>
+      <c r="V183">
         <v>1.95</v>
       </c>
-      <c r="V183">
-        <v>1.9</v>
-      </c>
       <c r="W183">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X183">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA183">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
+        <v>-1</v>
+      </c>
+      <c r="AC183">
         <v>0.95</v>
-      </c>
-      <c r="AC183">
-        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16844,7 +16844,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7022314</v>
+        <v>6843352</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16856,76 +16856,76 @@
         <v>45276.625</v>
       </c>
       <c r="F184" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G184" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H184">
         <v>1</v>
       </c>
       <c r="I184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K184">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="L184">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M184">
+        <v>4.5</v>
+      </c>
+      <c r="N184">
+        <v>1.833</v>
+      </c>
+      <c r="O184">
+        <v>3.3</v>
+      </c>
+      <c r="P184">
         <v>4.2</v>
-      </c>
-      <c r="N184">
-        <v>2</v>
-      </c>
-      <c r="O184">
-        <v>3.2</v>
-      </c>
-      <c r="P184">
-        <v>3.75</v>
       </c>
       <c r="Q184">
         <v>-0.5</v>
       </c>
       <c r="R184">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S184">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T184">
         <v>2.25</v>
       </c>
       <c r="U184">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V184">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W184">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X184">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC184">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -17200,7 +17200,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6843352</v>
+        <v>6843355</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17212,76 +17212,76 @@
         <v>45276.625</v>
       </c>
       <c r="F188" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G188" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J188" t="s">
         <v>57</v>
       </c>
       <c r="K188">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L188">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M188">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="N188">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="O188">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P188">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q188">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R188">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S188">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T188">
         <v>2.25</v>
       </c>
       <c r="U188">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V188">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W188">
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA188">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
       <c r="AB188">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC188">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17289,7 +17289,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6842738</v>
+        <v>6843353</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17301,55 +17301,55 @@
         <v>45276.625</v>
       </c>
       <c r="F189" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G189" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J189" t="s">
         <v>56</v>
       </c>
       <c r="K189">
-        <v>1.615</v>
+        <v>4.333</v>
       </c>
       <c r="L189">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M189">
-        <v>5.25</v>
+        <v>1.727</v>
       </c>
       <c r="N189">
-        <v>1.571</v>
+        <v>4</v>
       </c>
       <c r="O189">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P189">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q189">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R189">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S189">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T189">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U189">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V189">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W189">
         <v>-1</v>
@@ -17358,19 +17358,19 @@
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>4.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z189">
         <v>-1</v>
       </c>
       <c r="AA189">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC189">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17378,7 +17378,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6843353</v>
+        <v>6842738</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17390,55 +17390,55 @@
         <v>45276.625</v>
       </c>
       <c r="F190" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G190" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190">
         <v>1</v>
-      </c>
-      <c r="I190">
-        <v>4</v>
       </c>
       <c r="J190" t="s">
         <v>56</v>
       </c>
       <c r="K190">
-        <v>4.333</v>
+        <v>1.615</v>
       </c>
       <c r="L190">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M190">
-        <v>1.727</v>
+        <v>5.25</v>
       </c>
       <c r="N190">
-        <v>4</v>
+        <v>1.571</v>
       </c>
       <c r="O190">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P190">
+        <v>5.5</v>
+      </c>
+      <c r="Q190">
+        <v>-1</v>
+      </c>
+      <c r="R190">
+        <v>2.05</v>
+      </c>
+      <c r="S190">
         <v>1.8</v>
       </c>
-      <c r="Q190">
-        <v>0.5</v>
-      </c>
-      <c r="R190">
-        <v>1.975</v>
-      </c>
-      <c r="S190">
-        <v>1.875</v>
-      </c>
       <c r="T190">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U190">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V190">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W190">
         <v>-1</v>
@@ -17447,19 +17447,19 @@
         <v>-1</v>
       </c>
       <c r="Y190">
+        <v>4.5</v>
+      </c>
+      <c r="Z190">
+        <v>-1</v>
+      </c>
+      <c r="AA190">
         <v>0.8</v>
       </c>
-      <c r="Z190">
-        <v>-1</v>
-      </c>
-      <c r="AA190">
-        <v>0.875</v>
-      </c>
       <c r="AB190">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC190">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -18001,7 +18001,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6842739</v>
+        <v>7603137</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18013,73 +18013,73 @@
         <v>45279.69791666666</v>
       </c>
       <c r="F197" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G197" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J197" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K197">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="L197">
         <v>3.2</v>
       </c>
       <c r="M197">
+        <v>3.2</v>
+      </c>
+      <c r="N197">
         <v>2.25</v>
       </c>
-      <c r="N197">
+      <c r="O197">
         <v>3.2</v>
       </c>
-      <c r="O197">
-        <v>3.3</v>
-      </c>
       <c r="P197">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q197">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R197">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S197">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T197">
         <v>2.25</v>
       </c>
       <c r="U197">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V197">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W197">
         <v>-1</v>
       </c>
       <c r="X197">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y197">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z197">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA197">
+        <v>0.4375</v>
+      </c>
+      <c r="AB197">
         <v>0.925</v>
-      </c>
-      <c r="AB197">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC197">
         <v>-1</v>
@@ -18179,7 +18179,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6843356</v>
+        <v>6842739</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18191,76 +18191,76 @@
         <v>45279.69791666666</v>
       </c>
       <c r="F199" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G199" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H199">
         <v>0</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J199" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K199">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="L199">
         <v>3.2</v>
       </c>
       <c r="M199">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N199">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="O199">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P199">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="Q199">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R199">
-        <v>2.125</v>
+        <v>1.925</v>
       </c>
       <c r="S199">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T199">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U199">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V199">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W199">
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y199">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z199">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA199">
-        <v>0.375</v>
+        <v>0.925</v>
       </c>
       <c r="AB199">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC199">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18268,7 +18268,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7603137</v>
+        <v>6843356</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18280,61 +18280,61 @@
         <v>45279.69791666666</v>
       </c>
       <c r="F200" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G200" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J200" t="s">
         <v>57</v>
       </c>
       <c r="K200">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L200">
         <v>3.2</v>
       </c>
       <c r="M200">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N200">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="O200">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P200">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q200">
         <v>-0.25</v>
       </c>
       <c r="R200">
-        <v>1.975</v>
+        <v>2.125</v>
       </c>
       <c r="S200">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T200">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U200">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V200">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W200">
         <v>-1</v>
       </c>
       <c r="X200">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y200">
         <v>-1</v>
@@ -18343,13 +18343,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA200">
-        <v>0.4375</v>
+        <v>0.375</v>
       </c>
       <c r="AB200">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC200">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -19425,7 +19425,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6843379</v>
+        <v>6843377</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19437,76 +19437,76 @@
         <v>45314.69791666666</v>
       </c>
       <c r="F213" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G213" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I213">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J213" t="s">
         <v>57</v>
       </c>
       <c r="K213">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="L213">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M213">
+        <v>3.6</v>
+      </c>
+      <c r="N213">
+        <v>1.75</v>
+      </c>
+      <c r="O213">
+        <v>3.2</v>
+      </c>
+      <c r="P213">
+        <v>4.333</v>
+      </c>
+      <c r="Q213">
+        <v>-0.5</v>
+      </c>
+      <c r="R213">
+        <v>1.8</v>
+      </c>
+      <c r="S213">
+        <v>2.05</v>
+      </c>
+      <c r="T213">
         <v>2.25</v>
       </c>
-      <c r="N213">
-        <v>2.875</v>
-      </c>
-      <c r="O213">
-        <v>3.3</v>
-      </c>
-      <c r="P213">
-        <v>2.25</v>
-      </c>
-      <c r="Q213">
-        <v>0.25</v>
-      </c>
-      <c r="R213">
+      <c r="U213">
         <v>1.875</v>
       </c>
-      <c r="S213">
+      <c r="V213">
         <v>1.975</v>
       </c>
-      <c r="T213">
-        <v>2.5</v>
-      </c>
-      <c r="U213">
-        <v>1.975</v>
-      </c>
-      <c r="V213">
-        <v>1.875</v>
-      </c>
       <c r="W213">
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC213">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19514,7 +19514,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6843375</v>
+        <v>6843379</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19526,40 +19526,40 @@
         <v>45314.69791666666</v>
       </c>
       <c r="F214" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="G214" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H214">
         <v>1</v>
       </c>
       <c r="I214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J214" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K214">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="L214">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M214">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="N214">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="O214">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P214">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q214">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R214">
         <v>1.875</v>
@@ -19568,34 +19568,34 @@
         <v>1.975</v>
       </c>
       <c r="T214">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U214">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V214">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W214">
         <v>-1</v>
       </c>
       <c r="X214">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y214">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA214">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB214">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC214">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19603,7 +19603,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6843373</v>
+        <v>6843375</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19615,55 +19615,55 @@
         <v>45314.69791666666</v>
       </c>
       <c r="F215" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="G215" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J215" t="s">
         <v>56</v>
       </c>
       <c r="K215">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L215">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M215">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N215">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="O215">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P215">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q215">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R215">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S215">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T215">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U215">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V215">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W215">
         <v>-1</v>
@@ -19672,19 +19672,19 @@
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="Z215">
         <v>-1</v>
       </c>
       <c r="AA215">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB215">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC215">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19692,7 +19692,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6843378</v>
+        <v>6843373</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19704,40 +19704,40 @@
         <v>45314.69791666666</v>
       </c>
       <c r="F216" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G216" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K216">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="L216">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M216">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N216">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="O216">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="P216">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="Q216">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R216">
         <v>1.8</v>
@@ -19746,34 +19746,34 @@
         <v>2.05</v>
       </c>
       <c r="T216">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U216">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V216">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W216">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X216">
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z216">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA216">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB216">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC216">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19781,7 +19781,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6843376</v>
+        <v>6843378</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19793,76 +19793,76 @@
         <v>45314.69791666666</v>
       </c>
       <c r="F217" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G217" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K217">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="L217">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M217">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="N217">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="O217">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="P217">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="Q217">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R217">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S217">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T217">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U217">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V217">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W217">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X217">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y217">
         <v>-1</v>
       </c>
       <c r="Z217">
+        <v>0.8</v>
+      </c>
+      <c r="AA217">
+        <v>-1</v>
+      </c>
+      <c r="AB217">
+        <v>0.5</v>
+      </c>
+      <c r="AC217">
         <v>-0.5</v>
-      </c>
-      <c r="AA217">
-        <v>0.4625</v>
-      </c>
-      <c r="AB217">
-        <v>0</v>
-      </c>
-      <c r="AC217">
-        <v>-0</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -19959,7 +19959,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6842741</v>
+        <v>6843376</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19971,76 +19971,76 @@
         <v>45314.69791666666</v>
       </c>
       <c r="F219" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G219" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="H219">
         <v>1</v>
       </c>
       <c r="I219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K219">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L219">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M219">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N219">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O219">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P219">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q219">
         <v>-0.25</v>
       </c>
       <c r="R219">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S219">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T219">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U219">
+        <v>2.05</v>
+      </c>
+      <c r="V219">
         <v>1.8</v>
       </c>
-      <c r="V219">
-        <v>2.05</v>
-      </c>
       <c r="W219">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X219">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y219">
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA219">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB219">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC219">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20048,7 +20048,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6843377</v>
+        <v>6842741</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20060,76 +20060,76 @@
         <v>45314.69791666666</v>
       </c>
       <c r="F220" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G220" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H220">
+        <v>1</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220" t="s">
+        <v>55</v>
+      </c>
+      <c r="K220">
+        <v>2.25</v>
+      </c>
+      <c r="L220">
+        <v>3.2</v>
+      </c>
+      <c r="M220">
         <v>3</v>
       </c>
-      <c r="I220">
-        <v>3</v>
-      </c>
-      <c r="J220" t="s">
-        <v>57</v>
-      </c>
-      <c r="K220">
-        <v>2</v>
-      </c>
-      <c r="L220">
-        <v>3</v>
-      </c>
-      <c r="M220">
-        <v>3.6</v>
-      </c>
       <c r="N220">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="O220">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P220">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="Q220">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R220">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S220">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T220">
         <v>2.25</v>
       </c>
       <c r="U220">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V220">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W220">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X220">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y220">
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA220">
+        <v>-1</v>
+      </c>
+      <c r="AB220">
+        <v>-1</v>
+      </c>
+      <c r="AC220">
         <v>1.05</v>
-      </c>
-      <c r="AB220">
-        <v>0.875</v>
-      </c>
-      <c r="AC220">
-        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -21116,7 +21116,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6842743</v>
+        <v>6842563</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21128,58 +21128,58 @@
         <v>45325.625</v>
       </c>
       <c r="F232" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G232" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H232">
+        <v>2</v>
+      </c>
+      <c r="I232">
         <v>1</v>
-      </c>
-      <c r="I232">
-        <v>0</v>
       </c>
       <c r="J232" t="s">
         <v>55</v>
       </c>
       <c r="K232">
+        <v>3.4</v>
+      </c>
+      <c r="L232">
+        <v>3.3</v>
+      </c>
+      <c r="M232">
+        <v>2.1</v>
+      </c>
+      <c r="N232">
+        <v>3.25</v>
+      </c>
+      <c r="O232">
+        <v>3.4</v>
+      </c>
+      <c r="P232">
         <v>2.15</v>
       </c>
-      <c r="L232">
-        <v>3.2</v>
-      </c>
-      <c r="M232">
-        <v>3.4</v>
-      </c>
-      <c r="N232">
-        <v>2.15</v>
-      </c>
-      <c r="O232">
-        <v>3</v>
-      </c>
-      <c r="P232">
-        <v>3.6</v>
-      </c>
       <c r="Q232">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R232">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S232">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T232">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U232">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V232">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W232">
-        <v>1.15</v>
+        <v>2.25</v>
       </c>
       <c r="X232">
         <v>-1</v>
@@ -21188,16 +21188,16 @@
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA232">
         <v>-1</v>
       </c>
       <c r="AB232">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC232">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21205,7 +21205,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6843395</v>
+        <v>6842743</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21217,58 +21217,58 @@
         <v>45325.625</v>
       </c>
       <c r="F233" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G233" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H233">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J233" t="s">
         <v>55</v>
       </c>
       <c r="K233">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L233">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M233">
+        <v>3.4</v>
+      </c>
+      <c r="N233">
+        <v>2.15</v>
+      </c>
+      <c r="O233">
+        <v>3</v>
+      </c>
+      <c r="P233">
         <v>3.6</v>
-      </c>
-      <c r="N233">
-        <v>2.25</v>
-      </c>
-      <c r="O233">
-        <v>3.2</v>
-      </c>
-      <c r="P233">
-        <v>3.1</v>
       </c>
       <c r="Q233">
         <v>-0.25</v>
       </c>
       <c r="R233">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S233">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T233">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U233">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V233">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W233">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="X233">
         <v>-1</v>
@@ -21277,16 +21277,16 @@
         <v>-1</v>
       </c>
       <c r="Z233">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA233">
         <v>-1</v>
       </c>
       <c r="AB233">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC233">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21294,7 +21294,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6843389</v>
+        <v>6843395</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21306,73 +21306,73 @@
         <v>45325.625</v>
       </c>
       <c r="F234" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G234" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J234" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K234">
-        <v>4.4</v>
+        <v>2.05</v>
       </c>
       <c r="L234">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M234">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="N234">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="O234">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P234">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q234">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R234">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S234">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T234">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U234">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V234">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W234">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X234">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y234">
         <v>-1</v>
       </c>
       <c r="Z234">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA234">
         <v>-1</v>
       </c>
       <c r="AB234">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC234">
         <v>-1</v>
@@ -21383,7 +21383,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6842563</v>
+        <v>6843389</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21395,73 +21395,73 @@
         <v>45325.625</v>
       </c>
       <c r="F235" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G235" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H235">
         <v>2</v>
       </c>
       <c r="I235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J235" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K235">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="L235">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M235">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="N235">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="O235">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P235">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="Q235">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R235">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S235">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T235">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U235">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V235">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W235">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X235">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AA235">
         <v>-1</v>
       </c>
       <c r="AB235">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC235">
         <v>-1</v>
@@ -23430,7 +23430,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6843405</v>
+        <v>6843407</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23442,10 +23442,10 @@
         <v>45339.625</v>
       </c>
       <c r="F258" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="G258" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H258">
         <v>0</v>
@@ -23457,40 +23457,40 @@
         <v>56</v>
       </c>
       <c r="K258">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="L258">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M258">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="N258">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="O258">
         <v>3.1</v>
       </c>
       <c r="P258">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="Q258">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R258">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S258">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T258">
         <v>2.25</v>
       </c>
       <c r="U258">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V258">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W258">
         <v>-1</v>
@@ -23499,19 +23499,19 @@
         <v>-1</v>
       </c>
       <c r="Y258">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="Z258">
         <v>-1</v>
       </c>
       <c r="AA258">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB258">
         <v>-0.5</v>
       </c>
       <c r="AC258">
-        <v>0.475</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="259" spans="1:29">
@@ -23519,7 +23519,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6843407</v>
+        <v>6843405</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23531,10 +23531,10 @@
         <v>45339.625</v>
       </c>
       <c r="F259" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G259" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H259">
         <v>0</v>
@@ -23546,40 +23546,40 @@
         <v>56</v>
       </c>
       <c r="K259">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="L259">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M259">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="N259">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="O259">
         <v>3.1</v>
       </c>
       <c r="P259">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q259">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R259">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S259">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T259">
         <v>2.25</v>
       </c>
       <c r="U259">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V259">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W259">
         <v>-1</v>
@@ -23588,19 +23588,19 @@
         <v>-1</v>
       </c>
       <c r="Y259">
-        <v>2.25</v>
+        <v>1.55</v>
       </c>
       <c r="Z259">
         <v>-1</v>
       </c>
       <c r="AA259">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB259">
         <v>-0.5</v>
       </c>
       <c r="AC259">
-        <v>0.4625</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="260" spans="1:29">
@@ -23964,7 +23964,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6843415</v>
+        <v>6843412</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23976,40 +23976,40 @@
         <v>45346.625</v>
       </c>
       <c r="F264" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G264" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J264" t="s">
         <v>57</v>
       </c>
       <c r="K264">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="L264">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="M264">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="N264">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="O264">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="P264">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q264">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R264">
         <v>1.925</v>
@@ -24018,34 +24018,34 @@
         <v>1.925</v>
       </c>
       <c r="T264">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="U264">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V264">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W264">
         <v>-1</v>
       </c>
       <c r="X264">
-        <v>3</v>
+        <v>1.875</v>
       </c>
       <c r="Y264">
         <v>-1</v>
       </c>
       <c r="Z264">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA264">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AB264">
         <v>-1</v>
       </c>
       <c r="AC264">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24053,7 +24053,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>6843412</v>
+        <v>6843417</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24065,76 +24065,76 @@
         <v>45346.625</v>
       </c>
       <c r="F265" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G265" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H265">
         <v>0</v>
       </c>
       <c r="I265">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J265" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K265">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="L265">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M265">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="N265">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="O265">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P265">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="Q265">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R265">
+        <v>2.1</v>
+      </c>
+      <c r="S265">
+        <v>1.775</v>
+      </c>
+      <c r="T265">
+        <v>2.25</v>
+      </c>
+      <c r="U265">
         <v>1.925</v>
       </c>
-      <c r="S265">
+      <c r="V265">
         <v>1.925</v>
       </c>
-      <c r="T265">
-        <v>1.5</v>
-      </c>
-      <c r="U265">
-        <v>1.85</v>
-      </c>
-      <c r="V265">
-        <v>2</v>
-      </c>
       <c r="W265">
         <v>-1</v>
       </c>
       <c r="X265">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y265">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z265">
+        <v>-1</v>
+      </c>
+      <c r="AA265">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB265">
         <v>-0.5</v>
       </c>
-      <c r="AA265">
+      <c r="AC265">
         <v>0.4625</v>
-      </c>
-      <c r="AB265">
-        <v>-1</v>
-      </c>
-      <c r="AC265">
-        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -24142,7 +24142,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6843417</v>
+        <v>6843418</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24154,55 +24154,55 @@
         <v>45346.625</v>
       </c>
       <c r="F266" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G266" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H266">
         <v>0</v>
       </c>
       <c r="I266">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J266" t="s">
         <v>56</v>
       </c>
       <c r="K266">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="L266">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M266">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="N266">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="O266">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P266">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="Q266">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R266">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S266">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T266">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U266">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V266">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W266">
         <v>-1</v>
@@ -24211,19 +24211,19 @@
         <v>-1</v>
       </c>
       <c r="Y266">
-        <v>1.4</v>
+        <v>3.333</v>
       </c>
       <c r="Z266">
         <v>-1</v>
       </c>
       <c r="AA266">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB266">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC266">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -24231,7 +24231,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6843418</v>
+        <v>6843419</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24243,76 +24243,76 @@
         <v>45346.625</v>
       </c>
       <c r="F267" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G267" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H267">
         <v>0</v>
       </c>
       <c r="I267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J267" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K267">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="L267">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M267">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="N267">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="O267">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P267">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="Q267">
+        <v>-0.25</v>
+      </c>
+      <c r="R267">
+        <v>2.075</v>
+      </c>
+      <c r="S267">
+        <v>1.725</v>
+      </c>
+      <c r="T267">
+        <v>2.25</v>
+      </c>
+      <c r="U267">
+        <v>2.025</v>
+      </c>
+      <c r="V267">
+        <v>1.825</v>
+      </c>
+      <c r="W267">
+        <v>-1</v>
+      </c>
+      <c r="X267">
+        <v>2.1</v>
+      </c>
+      <c r="Y267">
+        <v>-1</v>
+      </c>
+      <c r="Z267">
         <v>-0.5</v>
       </c>
-      <c r="R267">
-        <v>1.875</v>
-      </c>
-      <c r="S267">
-        <v>1.975</v>
-      </c>
-      <c r="T267">
-        <v>2.5</v>
-      </c>
-      <c r="U267">
-        <v>1.95</v>
-      </c>
-      <c r="V267">
-        <v>1.9</v>
-      </c>
-      <c r="W267">
-        <v>-1</v>
-      </c>
-      <c r="X267">
-        <v>-1</v>
-      </c>
-      <c r="Y267">
-        <v>3.333</v>
-      </c>
-      <c r="Z267">
-        <v>-1</v>
-      </c>
       <c r="AA267">
-        <v>0.9750000000000001</v>
+        <v>0.3625</v>
       </c>
       <c r="AB267">
         <v>-1</v>
       </c>
       <c r="AC267">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24320,7 +24320,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6843419</v>
+        <v>6884026</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24332,76 +24332,76 @@
         <v>45346.625</v>
       </c>
       <c r="F268" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G268" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I268">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J268" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K268">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L268">
+        <v>3.4</v>
+      </c>
+      <c r="M268">
         <v>3.1</v>
       </c>
-      <c r="M268">
-        <v>3</v>
-      </c>
       <c r="N268">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="O268">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P268">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q268">
         <v>-0.25</v>
       </c>
       <c r="R268">
-        <v>2.075</v>
+        <v>1.825</v>
       </c>
       <c r="S268">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="T268">
         <v>2.25</v>
       </c>
       <c r="U268">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V268">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W268">
         <v>-1</v>
       </c>
       <c r="X268">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y268">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z268">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA268">
-        <v>0.3625</v>
+        <v>1.025</v>
       </c>
       <c r="AB268">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC268">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24409,7 +24409,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6884026</v>
+        <v>6843415</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24421,76 +24421,76 @@
         <v>45346.625</v>
       </c>
       <c r="F269" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G269" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H269">
         <v>1</v>
       </c>
       <c r="I269">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J269" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K269">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="L269">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M269">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N269">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="O269">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P269">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q269">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R269">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S269">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T269">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U269">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V269">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W269">
         <v>-1</v>
       </c>
       <c r="X269">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y269">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z269">
         <v>-1</v>
       </c>
       <c r="AA269">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB269">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC269">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24854,7 +24854,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>6843423</v>
+        <v>6843424</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -24866,40 +24866,40 @@
         <v>45353.625</v>
       </c>
       <c r="F274" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G274" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274">
         <v>0</v>
       </c>
       <c r="J274" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K274">
-        <v>2.45</v>
+        <v>1.3</v>
       </c>
       <c r="L274">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="M274">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N274">
-        <v>2.55</v>
+        <v>1.363</v>
       </c>
       <c r="O274">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="P274">
-        <v>2.875</v>
+        <v>8</v>
       </c>
       <c r="Q274">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R274">
         <v>1.8</v>
@@ -24908,34 +24908,34 @@
         <v>2.05</v>
       </c>
       <c r="T274">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U274">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V274">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W274">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X274">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y274">
         <v>-1</v>
       </c>
       <c r="Z274">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA274">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB274">
         <v>-1</v>
       </c>
       <c r="AC274">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="275" spans="1:29">
@@ -24943,7 +24943,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>6897686</v>
+        <v>6843423</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24955,46 +24955,46 @@
         <v>45353.625</v>
       </c>
       <c r="F275" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G275" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I275">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J275" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K275">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="L275">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M275">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N275">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="O275">
         <v>3.1</v>
       </c>
       <c r="P275">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="Q275">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R275">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S275">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T275">
         <v>2.25</v>
@@ -25003,28 +25003,28 @@
         <v>2.05</v>
       </c>
       <c r="V275">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W275">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X275">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y275">
         <v>-1</v>
       </c>
       <c r="Z275">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA275">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB275">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC275">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="276" spans="1:29">
@@ -25032,7 +25032,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6843426</v>
+        <v>6917760</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25044,40 +25044,40 @@
         <v>45353.625</v>
       </c>
       <c r="F276" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G276" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J276" t="s">
         <v>57</v>
       </c>
       <c r="K276">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="L276">
+        <v>3.5</v>
+      </c>
+      <c r="M276">
+        <v>4.75</v>
+      </c>
+      <c r="N276">
+        <v>1.8</v>
+      </c>
+      <c r="O276">
         <v>3.4</v>
       </c>
-      <c r="M276">
-        <v>2.625</v>
-      </c>
-      <c r="N276">
-        <v>2.45</v>
-      </c>
-      <c r="O276">
-        <v>3.5</v>
-      </c>
       <c r="P276">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q276">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R276">
         <v>1.825</v>
@@ -25086,34 +25086,34 @@
         <v>2.025</v>
       </c>
       <c r="T276">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U276">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V276">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W276">
         <v>-1</v>
       </c>
       <c r="X276">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y276">
         <v>-1</v>
       </c>
       <c r="Z276">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA276">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB276">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC276">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25121,7 +25121,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6843425</v>
+        <v>6897686</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25133,28 +25133,28 @@
         <v>45353.625</v>
       </c>
       <c r="F277" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G277" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I277">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J277" t="s">
         <v>57</v>
       </c>
       <c r="K277">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L277">
+        <v>3.2</v>
+      </c>
+      <c r="M277">
         <v>3.1</v>
-      </c>
-      <c r="M277">
-        <v>3.4</v>
       </c>
       <c r="N277">
         <v>2.2</v>
@@ -25163,19 +25163,19 @@
         <v>3.1</v>
       </c>
       <c r="P277">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q277">
         <v>-0.25</v>
       </c>
       <c r="R277">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S277">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T277">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U277">
         <v>2.05</v>
@@ -25196,13 +25196,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA277">
-        <v>0.475</v>
+        <v>0.4625</v>
       </c>
       <c r="AB277">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AC277">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -25210,7 +25210,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>6843424</v>
+        <v>6843425</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25222,76 +25222,76 @@
         <v>45353.625</v>
       </c>
       <c r="F278" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G278" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I278">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J278" t="s">
         <v>57</v>
       </c>
       <c r="K278">
-        <v>1.3</v>
+        <v>2.25</v>
       </c>
       <c r="L278">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="M278">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="N278">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="O278">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="P278">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="Q278">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R278">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S278">
+        <v>1.95</v>
+      </c>
+      <c r="T278">
+        <v>2</v>
+      </c>
+      <c r="U278">
         <v>2.05</v>
       </c>
-      <c r="T278">
-        <v>2.75</v>
-      </c>
-      <c r="U278">
-        <v>2</v>
-      </c>
       <c r="V278">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W278">
         <v>-1</v>
       </c>
       <c r="X278">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="Y278">
         <v>-1</v>
       </c>
       <c r="Z278">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA278">
-        <v>1.05</v>
+        <v>0.475</v>
       </c>
       <c r="AB278">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC278">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="279" spans="1:29">
@@ -25299,7 +25299,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>6917760</v>
+        <v>6843426</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25311,40 +25311,40 @@
         <v>45353.625</v>
       </c>
       <c r="F279" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G279" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J279" t="s">
         <v>57</v>
       </c>
       <c r="K279">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="L279">
+        <v>3.4</v>
+      </c>
+      <c r="M279">
+        <v>2.625</v>
+      </c>
+      <c r="N279">
+        <v>2.45</v>
+      </c>
+      <c r="O279">
         <v>3.5</v>
       </c>
-      <c r="M279">
-        <v>4.75</v>
-      </c>
-      <c r="N279">
-        <v>1.8</v>
-      </c>
-      <c r="O279">
-        <v>3.4</v>
-      </c>
       <c r="P279">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q279">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R279">
         <v>1.825</v>
@@ -25353,34 +25353,34 @@
         <v>2.025</v>
       </c>
       <c r="T279">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U279">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V279">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W279">
         <v>-1</v>
       </c>
       <c r="X279">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Y279">
         <v>-1</v>
       </c>
       <c r="Z279">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA279">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB279">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC279">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="280" spans="1:29">
@@ -26545,7 +26545,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>6904349</v>
+        <v>6843438</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26557,76 +26557,76 @@
         <v>45367.625</v>
       </c>
       <c r="F293" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G293" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H293">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I293">
         <v>1</v>
       </c>
       <c r="J293" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K293">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L293">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M293">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N293">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O293">
         <v>3.25</v>
       </c>
       <c r="P293">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q293">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R293">
+        <v>2.025</v>
+      </c>
+      <c r="S293">
         <v>1.825</v>
       </c>
-      <c r="S293">
-        <v>2.025</v>
-      </c>
       <c r="T293">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U293">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V293">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W293">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X293">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y293">
         <v>-1</v>
       </c>
       <c r="Z293">
+        <v>-1</v>
+      </c>
+      <c r="AA293">
         <v>0.825</v>
       </c>
-      <c r="AA293">
-        <v>-1</v>
-      </c>
       <c r="AB293">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC293">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="294" spans="1:29">
@@ -26634,7 +26634,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>7022325</v>
+        <v>6904349</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26646,10 +26646,10 @@
         <v>45367.625</v>
       </c>
       <c r="F294" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G294" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H294">
         <v>3</v>
@@ -26661,43 +26661,43 @@
         <v>55</v>
       </c>
       <c r="K294">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="L294">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M294">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="N294">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="O294">
         <v>3.25</v>
       </c>
       <c r="P294">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q294">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R294">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S294">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T294">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U294">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V294">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W294">
-        <v>1.625</v>
+        <v>1.05</v>
       </c>
       <c r="X294">
         <v>-1</v>
@@ -26706,13 +26706,13 @@
         <v>-1</v>
       </c>
       <c r="Z294">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA294">
         <v>-1</v>
       </c>
       <c r="AB294">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC294">
         <v>-1</v>
@@ -26723,7 +26723,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>6843438</v>
+        <v>7022325</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26735,76 +26735,76 @@
         <v>45367.625</v>
       </c>
       <c r="F295" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G295" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I295">
         <v>1</v>
       </c>
       <c r="J295" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K295">
-        <v>1.95</v>
+        <v>3.3</v>
       </c>
       <c r="L295">
         <v>3.3</v>
       </c>
       <c r="M295">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N295">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="O295">
         <v>3.25</v>
       </c>
       <c r="P295">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="Q295">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R295">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S295">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T295">
         <v>2.25</v>
       </c>
       <c r="U295">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="V295">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="W295">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X295">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y295">
         <v>-1</v>
       </c>
       <c r="Z295">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA295">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB295">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC295">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -26990,7 +26990,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>6843437</v>
+        <v>6843435</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -27002,76 +27002,76 @@
         <v>45367.625</v>
       </c>
       <c r="F298" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G298" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I298">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J298" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K298">
+        <v>1.95</v>
+      </c>
+      <c r="L298">
+        <v>3.2</v>
+      </c>
+      <c r="M298">
+        <v>4.2</v>
+      </c>
+      <c r="N298">
+        <v>1.8</v>
+      </c>
+      <c r="O298">
+        <v>3.3</v>
+      </c>
+      <c r="P298">
+        <v>5</v>
+      </c>
+      <c r="Q298">
+        <v>-0.75</v>
+      </c>
+      <c r="R298">
+        <v>2.05</v>
+      </c>
+      <c r="S298">
+        <v>1.8</v>
+      </c>
+      <c r="T298">
         <v>2.25</v>
       </c>
-      <c r="L298">
-        <v>2.9</v>
-      </c>
-      <c r="M298">
-        <v>3.75</v>
-      </c>
-      <c r="N298">
-        <v>2.15</v>
-      </c>
-      <c r="O298">
-        <v>2.875</v>
-      </c>
-      <c r="P298">
+      <c r="U298">
+        <v>2.05</v>
+      </c>
+      <c r="V298">
+        <v>1.8</v>
+      </c>
+      <c r="W298">
+        <v>-1</v>
+      </c>
+      <c r="X298">
+        <v>-1</v>
+      </c>
+      <c r="Y298">
         <v>4</v>
       </c>
-      <c r="Q298">
-        <v>-0.25</v>
-      </c>
-      <c r="R298">
-        <v>1.8</v>
-      </c>
-      <c r="S298">
-        <v>2.05</v>
-      </c>
-      <c r="T298">
-        <v>1.75</v>
-      </c>
-      <c r="U298">
-        <v>1.975</v>
-      </c>
-      <c r="V298">
-        <v>1.875</v>
-      </c>
-      <c r="W298">
-        <v>1.15</v>
-      </c>
-      <c r="X298">
-        <v>-1</v>
-      </c>
-      <c r="Y298">
-        <v>-1</v>
-      </c>
       <c r="Z298">
+        <v>-1</v>
+      </c>
+      <c r="AA298">
         <v>0.8</v>
       </c>
-      <c r="AA298">
-        <v>-1</v>
-      </c>
       <c r="AB298">
-        <v>0.4875</v>
+        <v>1.05</v>
       </c>
       <c r="AC298">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -27168,7 +27168,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>6843435</v>
+        <v>6843437</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27180,76 +27180,76 @@
         <v>45367.625</v>
       </c>
       <c r="F300" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="G300" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I300">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J300" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K300">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L300">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M300">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="N300">
+        <v>2.15</v>
+      </c>
+      <c r="O300">
+        <v>2.875</v>
+      </c>
+      <c r="P300">
+        <v>4</v>
+      </c>
+      <c r="Q300">
+        <v>-0.25</v>
+      </c>
+      <c r="R300">
         <v>1.8</v>
       </c>
-      <c r="O300">
-        <v>3.3</v>
-      </c>
-      <c r="P300">
-        <v>5</v>
-      </c>
-      <c r="Q300">
-        <v>-0.75</v>
-      </c>
-      <c r="R300">
+      <c r="S300">
         <v>2.05</v>
       </c>
-      <c r="S300">
-        <v>1.8</v>
-      </c>
       <c r="T300">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U300">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V300">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W300">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X300">
         <v>-1</v>
       </c>
       <c r="Y300">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z300">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA300">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB300">
-        <v>1.05</v>
+        <v>0.4875</v>
       </c>
       <c r="AC300">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="301" spans="1:29">
@@ -27435,7 +27435,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>6917761</v>
+        <v>6979343</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27447,55 +27447,55 @@
         <v>45381.625</v>
       </c>
       <c r="F303" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G303" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I303">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J303" t="s">
         <v>56</v>
       </c>
       <c r="K303">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="L303">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M303">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="N303">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="O303">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P303">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="Q303">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R303">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S303">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T303">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U303">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V303">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W303">
         <v>-1</v>
@@ -27504,16 +27504,16 @@
         <v>-1</v>
       </c>
       <c r="Y303">
-        <v>1.375</v>
+        <v>3.2</v>
       </c>
       <c r="Z303">
         <v>-1</v>
       </c>
       <c r="AA303">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AB303">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC303">
         <v>-1</v>
@@ -27524,7 +27524,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6979343</v>
+        <v>6921722</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27536,10 +27536,10 @@
         <v>45381.625</v>
       </c>
       <c r="F304" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G304" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H304">
         <v>1</v>
@@ -27551,25 +27551,25 @@
         <v>56</v>
       </c>
       <c r="K304">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L304">
         <v>3.1</v>
       </c>
       <c r="M304">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N304">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="O304">
         <v>3</v>
       </c>
       <c r="P304">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q304">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R304">
         <v>2.05</v>
@@ -27578,13 +27578,13 @@
         <v>1.8</v>
       </c>
       <c r="T304">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U304">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V304">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W304">
         <v>-1</v>
@@ -27593,7 +27593,7 @@
         <v>-1</v>
       </c>
       <c r="Y304">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="Z304">
         <v>-1</v>
@@ -27602,7 +27602,7 @@
         <v>0.8</v>
       </c>
       <c r="AB304">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AC304">
         <v>-1</v>
@@ -27613,7 +27613,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>6990827</v>
+        <v>6907423</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27625,76 +27625,76 @@
         <v>45381.625</v>
       </c>
       <c r="F305" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G305" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J305" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K305">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="L305">
+        <v>3.3</v>
+      </c>
+      <c r="M305">
+        <v>3.6</v>
+      </c>
+      <c r="N305">
+        <v>1.909</v>
+      </c>
+      <c r="O305">
+        <v>3.3</v>
+      </c>
+      <c r="P305">
+        <v>4</v>
+      </c>
+      <c r="Q305">
+        <v>-0.5</v>
+      </c>
+      <c r="R305">
+        <v>1.925</v>
+      </c>
+      <c r="S305">
+        <v>1.925</v>
+      </c>
+      <c r="T305">
+        <v>2.25</v>
+      </c>
+      <c r="U305">
+        <v>2.025</v>
+      </c>
+      <c r="V305">
+        <v>1.825</v>
+      </c>
+      <c r="W305">
+        <v>-1</v>
+      </c>
+      <c r="X305">
+        <v>-1</v>
+      </c>
+      <c r="Y305">
         <v>3</v>
       </c>
-      <c r="M305">
-        <v>2.7</v>
-      </c>
-      <c r="N305">
-        <v>2.9</v>
-      </c>
-      <c r="O305">
-        <v>2.9</v>
-      </c>
-      <c r="P305">
-        <v>2.6</v>
-      </c>
-      <c r="Q305">
-        <v>0</v>
-      </c>
-      <c r="R305">
-        <v>2.025</v>
-      </c>
-      <c r="S305">
-        <v>1.825</v>
-      </c>
-      <c r="T305">
-        <v>2</v>
-      </c>
-      <c r="U305">
-        <v>1.9</v>
-      </c>
-      <c r="V305">
-        <v>1.95</v>
-      </c>
-      <c r="W305">
-        <v>-1</v>
-      </c>
-      <c r="X305">
-        <v>1.9</v>
-      </c>
-      <c r="Y305">
-        <v>-1</v>
-      </c>
       <c r="Z305">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA305">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB305">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC305">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="306" spans="1:29">
@@ -27702,7 +27702,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>6907423</v>
+        <v>6994680</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27714,73 +27714,73 @@
         <v>45381.625</v>
       </c>
       <c r="F306" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G306" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I306">
         <v>3</v>
       </c>
       <c r="J306" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K306">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L306">
+        <v>3.25</v>
+      </c>
+      <c r="M306">
         <v>3.3</v>
       </c>
-      <c r="M306">
-        <v>3.6</v>
-      </c>
       <c r="N306">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O306">
         <v>3.3</v>
       </c>
       <c r="P306">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q306">
+        <v>-0.25</v>
+      </c>
+      <c r="R306">
+        <v>1.975</v>
+      </c>
+      <c r="S306">
+        <v>1.875</v>
+      </c>
+      <c r="T306">
+        <v>2.5</v>
+      </c>
+      <c r="U306">
+        <v>2</v>
+      </c>
+      <c r="V306">
+        <v>1.85</v>
+      </c>
+      <c r="W306">
+        <v>-1</v>
+      </c>
+      <c r="X306">
+        <v>2.3</v>
+      </c>
+      <c r="Y306">
+        <v>-1</v>
+      </c>
+      <c r="Z306">
         <v>-0.5</v>
       </c>
-      <c r="R306">
-        <v>1.925</v>
-      </c>
-      <c r="S306">
-        <v>1.925</v>
-      </c>
-      <c r="T306">
-        <v>2.25</v>
-      </c>
-      <c r="U306">
-        <v>2.025</v>
-      </c>
-      <c r="V306">
-        <v>1.825</v>
-      </c>
-      <c r="W306">
-        <v>-1</v>
-      </c>
-      <c r="X306">
-        <v>-1</v>
-      </c>
-      <c r="Y306">
-        <v>3</v>
-      </c>
-      <c r="Z306">
-        <v>-1</v>
-      </c>
       <c r="AA306">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AB306">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC306">
         <v>-1</v>
@@ -27791,7 +27791,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>6994680</v>
+        <v>6990827</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27803,76 +27803,76 @@
         <v>45381.625</v>
       </c>
       <c r="F307" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G307" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H307">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I307">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J307" t="s">
         <v>57</v>
       </c>
       <c r="K307">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="L307">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M307">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="N307">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="O307">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P307">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="Q307">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R307">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S307">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T307">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U307">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V307">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W307">
         <v>-1</v>
       </c>
       <c r="X307">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="Y307">
         <v>-1</v>
       </c>
       <c r="Z307">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA307">
-        <v>0.4375</v>
+        <v>-0</v>
       </c>
       <c r="AB307">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC307">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -27880,7 +27880,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>6921722</v>
+        <v>6994684</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27892,55 +27892,55 @@
         <v>45381.625</v>
       </c>
       <c r="F308" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G308" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I308">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J308" t="s">
         <v>56</v>
       </c>
       <c r="K308">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="L308">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M308">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="N308">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="O308">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P308">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q308">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R308">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S308">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T308">
         <v>2.25</v>
       </c>
       <c r="U308">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V308">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W308">
         <v>-1</v>
@@ -27949,16 +27949,16 @@
         <v>-1</v>
       </c>
       <c r="Y308">
-        <v>2.2</v>
+        <v>1.05</v>
       </c>
       <c r="Z308">
         <v>-1</v>
       </c>
       <c r="AA308">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB308">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AC308">
         <v>-1</v>
@@ -27969,7 +27969,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>6994684</v>
+        <v>6917761</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27981,55 +27981,55 @@
         <v>45381.625</v>
       </c>
       <c r="F309" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G309" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H309">
         <v>2</v>
       </c>
       <c r="I309">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J309" t="s">
         <v>56</v>
       </c>
       <c r="K309">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="L309">
         <v>3.3</v>
       </c>
       <c r="M309">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="N309">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="O309">
         <v>3.3</v>
       </c>
       <c r="P309">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="Q309">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R309">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S309">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="T309">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U309">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V309">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W309">
         <v>-1</v>
@@ -28038,16 +28038,16 @@
         <v>-1</v>
       </c>
       <c r="Y309">
-        <v>1.05</v>
+        <v>1.375</v>
       </c>
       <c r="Z309">
         <v>-1</v>
       </c>
       <c r="AA309">
-        <v>1.025</v>
+        <v>1.1</v>
       </c>
       <c r="AB309">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC309">
         <v>-1</v>
@@ -28174,7 +28174,7 @@
         <v>6.5</v>
       </c>
       <c r="N311">
-        <v>1.45</v>
+        <v>1.444</v>
       </c>
       <c r="O311">
         <v>4.2</v>
@@ -28195,10 +28195,10 @@
         <v>2.5</v>
       </c>
       <c r="U311">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V311">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W311">
         <v>0</v>
@@ -28260,19 +28260,19 @@
         <v>-0.75</v>
       </c>
       <c r="R312">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S312">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T312">
         <v>2</v>
       </c>
       <c r="U312">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V312">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W312">
         <v>0</v>
@@ -28295,7 +28295,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>7024934</v>
+        <v>7024935</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28307,46 +28307,46 @@
         <v>45388.58333333334</v>
       </c>
       <c r="F313" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G313" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K313">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L313">
+        <v>3.25</v>
+      </c>
+      <c r="M313">
         <v>3.3</v>
       </c>
-      <c r="M313">
-        <v>4.2</v>
-      </c>
       <c r="N313">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O313">
+        <v>3.25</v>
+      </c>
+      <c r="P313">
         <v>3.3</v>
       </c>
-      <c r="P313">
-        <v>4.2</v>
-      </c>
       <c r="Q313">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R313">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S313">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T313">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U313">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V313">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W313">
         <v>0</v>
@@ -28369,7 +28369,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>7024929</v>
+        <v>7024933</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28381,46 +28381,46 @@
         <v>45388.58333333334</v>
       </c>
       <c r="F314" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G314" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="K314">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="L314">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M314">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="N314">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="O314">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P314">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q314">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R314">
+        <v>2.025</v>
+      </c>
+      <c r="S314">
         <v>1.825</v>
       </c>
-      <c r="S314">
+      <c r="T314">
+        <v>2.5</v>
+      </c>
+      <c r="U314">
         <v>2.025</v>
       </c>
-      <c r="T314">
-        <v>2</v>
-      </c>
-      <c r="U314">
-        <v>2.05</v>
-      </c>
       <c r="V314">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W314">
         <v>0</v>
@@ -28443,7 +28443,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>7024933</v>
+        <v>7024930</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28455,31 +28455,31 @@
         <v>45388.58333333334</v>
       </c>
       <c r="F315" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G315" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="K315">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L315">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M315">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="N315">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O315">
         <v>3.25</v>
       </c>
       <c r="P315">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q315">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R315">
         <v>2.05</v>
@@ -28488,13 +28488,13 @@
         <v>1.8</v>
       </c>
       <c r="T315">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U315">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V315">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W315">
         <v>0</v>
@@ -28517,7 +28517,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>7024930</v>
+        <v>7024929</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28529,40 +28529,40 @@
         <v>45388.58333333334</v>
       </c>
       <c r="F316" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G316" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K316">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L316">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M316">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="N316">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="O316">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P316">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q316">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R316">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S316">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T316">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U316">
         <v>2.05</v>
@@ -28591,7 +28591,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>7024935</v>
+        <v>7024073</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28603,46 +28603,46 @@
         <v>45388.58333333334</v>
       </c>
       <c r="F317" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G317" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="K317">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L317">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M317">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="N317">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="O317">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P317">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q317">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R317">
+        <v>1.975</v>
+      </c>
+      <c r="S317">
         <v>1.875</v>
-      </c>
-      <c r="S317">
-        <v>1.975</v>
       </c>
       <c r="T317">
         <v>2.25</v>
       </c>
       <c r="U317">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V317">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W317">
         <v>0</v>
@@ -28665,7 +28665,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>7024073</v>
+        <v>7021699</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28677,28 +28677,28 @@
         <v>45388.58333333334</v>
       </c>
       <c r="F318" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G318" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="K318">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L318">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M318">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="N318">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O318">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P318">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q318">
         <v>-0.5</v>
@@ -28710,13 +28710,13 @@
         <v>1.85</v>
       </c>
       <c r="T318">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U318">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V318">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W318">
         <v>0</v>
@@ -28739,7 +28739,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>7021699</v>
+        <v>7024934</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28751,46 +28751,46 @@
         <v>45388.58333333334</v>
       </c>
       <c r="F319" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G319" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K319">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L319">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M319">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="N319">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O319">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P319">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q319">
         <v>-0.5</v>
       </c>
       <c r="R319">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S319">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T319">
         <v>2</v>
       </c>
       <c r="U319">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V319">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W319">
         <v>0</v>

--- a/France Ligue 2/France Ligue 2.xlsx
+++ b/France Ligue 2/France Ligue 2.xlsx
@@ -97,6 +97,9 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
+    <t>7223440</t>
+  </si>
+  <si>
     <t>7223439</t>
   </si>
   <si>
@@ -112,13 +115,10 @@
     <t>7223434</t>
   </si>
   <si>
-    <t>7223433</t>
+    <t>7222497</t>
   </si>
   <si>
-    <t>7223440</t>
-  </si>
-  <si>
-    <t>7222497</t>
+    <t>7223433</t>
   </si>
   <si>
     <t>7223436</t>
@@ -6088,7 +6088,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6842546</v>
+        <v>6843253</v>
       </c>
       <c r="C65" t="s">
         <v>37</v>
@@ -6097,40 +6097,40 @@
         <v>45185.58333333334</v>
       </c>
       <c r="E65" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F65" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I65" t="s">
         <v>66</v>
       </c>
       <c r="J65">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="K65">
         <v>3.2</v>
       </c>
       <c r="L65">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="M65">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="N65">
+        <v>3</v>
+      </c>
+      <c r="O65">
         <v>3.2</v>
       </c>
-      <c r="O65">
-        <v>2.1</v>
-      </c>
       <c r="P65">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q65">
         <v>2.05</v>
@@ -6139,13 +6139,13 @@
         <v>1.8</v>
       </c>
       <c r="S65">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T65">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="U65">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="V65">
         <v>-1</v>
@@ -6154,7 +6154,7 @@
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y65">
         <v>-1</v>
@@ -6163,7 +6163,7 @@
         <v>0.8</v>
       </c>
       <c r="AA65">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB65">
         <v>-1</v>
@@ -6174,7 +6174,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6843258</v>
+        <v>6842546</v>
       </c>
       <c r="C66" t="s">
         <v>37</v>
@@ -6183,76 +6183,76 @@
         <v>45185.58333333334</v>
       </c>
       <c r="E66" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J66">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="K66">
         <v>3.2</v>
       </c>
       <c r="L66">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="M66">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="N66">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O66">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="P66">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q66">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="R66">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S66">
         <v>2.25</v>
       </c>
       <c r="T66">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U66">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V66">
         <v>-1</v>
       </c>
       <c r="W66">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X66">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y66">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB66">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:28">
@@ -6260,7 +6260,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6843257</v>
+        <v>6843258</v>
       </c>
       <c r="C67" t="s">
         <v>37</v>
@@ -6269,34 +6269,34 @@
         <v>45185.58333333334</v>
       </c>
       <c r="E67" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F67" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G67">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J67">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K67">
         <v>3.2</v>
       </c>
       <c r="L67">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="M67">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="N67">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O67">
         <v>2.75</v>
@@ -6305,40 +6305,40 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R67">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S67">
         <v>2.25</v>
       </c>
       <c r="T67">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U67">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V67">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA67">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="68" spans="1:28">
@@ -6346,7 +6346,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6842726</v>
+        <v>6843257</v>
       </c>
       <c r="C68" t="s">
         <v>37</v>
@@ -6355,40 +6355,40 @@
         <v>45185.58333333334</v>
       </c>
       <c r="E68" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="F68" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H68">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J68">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="K68">
         <v>3.2</v>
       </c>
       <c r="L68">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="M68">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="N68">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O68">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="P68">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q68">
         <v>1.875</v>
@@ -6400,28 +6400,28 @@
         <v>2.25</v>
       </c>
       <c r="T68">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U68">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V68">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z68">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB68">
         <v>-1</v>
@@ -6432,7 +6432,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6843253</v>
+        <v>6842726</v>
       </c>
       <c r="C69" t="s">
         <v>37</v>
@@ -6441,13 +6441,13 @@
         <v>45185.58333333334</v>
       </c>
       <c r="E69" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F69" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H69">
         <v>3</v>
@@ -6456,40 +6456,40 @@
         <v>66</v>
       </c>
       <c r="J69">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="K69">
         <v>3.2</v>
       </c>
       <c r="L69">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M69">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="N69">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O69">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P69">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q69">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="R69">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S69">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T69">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U69">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="V69">
         <v>-1</v>
@@ -6498,16 +6498,16 @@
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA69">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB69">
         <v>-1</v>
@@ -7034,7 +7034,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6843263</v>
+        <v>6843261</v>
       </c>
       <c r="C76" t="s">
         <v>37</v>
@@ -7043,58 +7043,58 @@
         <v>45192.58333333334</v>
       </c>
       <c r="E76" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F76" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G76">
         <v>2</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="s">
         <v>65</v>
       </c>
       <c r="J76">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="K76">
+        <v>3.4</v>
+      </c>
+      <c r="L76">
+        <v>4</v>
+      </c>
+      <c r="M76">
+        <v>2.05</v>
+      </c>
+      <c r="N76">
         <v>3.25</v>
       </c>
-      <c r="L76">
-        <v>3.25</v>
-      </c>
-      <c r="M76">
-        <v>2</v>
-      </c>
-      <c r="N76">
-        <v>3.4</v>
-      </c>
       <c r="O76">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P76">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q76">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="R76">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S76">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T76">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U76">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V76">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="W76">
         <v>-1</v>
@@ -7103,16 +7103,16 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB76">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7120,7 +7120,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6843264</v>
+        <v>6843263</v>
       </c>
       <c r="C77" t="s">
         <v>37</v>
@@ -7129,58 +7129,58 @@
         <v>45192.58333333334</v>
       </c>
       <c r="E77" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="F77" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G77">
         <v>2</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="s">
         <v>65</v>
       </c>
       <c r="J77">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K77">
         <v>3.25</v>
       </c>
       <c r="L77">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M77">
+        <v>2</v>
+      </c>
+      <c r="N77">
+        <v>3.4</v>
+      </c>
+      <c r="O77">
+        <v>4</v>
+      </c>
+      <c r="P77">
+        <v>-0.5</v>
+      </c>
+      <c r="Q77">
+        <v>2</v>
+      </c>
+      <c r="R77">
+        <v>1.85</v>
+      </c>
+      <c r="S77">
         <v>2.25</v>
       </c>
-      <c r="N77">
-        <v>3.1</v>
-      </c>
-      <c r="O77">
-        <v>3.25</v>
-      </c>
-      <c r="P77">
-        <v>-0.25</v>
-      </c>
-      <c r="Q77">
-        <v>1.975</v>
-      </c>
-      <c r="R77">
-        <v>1.875</v>
-      </c>
-      <c r="S77">
-        <v>2</v>
-      </c>
       <c r="T77">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U77">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V77">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="W77">
         <v>-1</v>
@@ -7189,16 +7189,16 @@
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -7206,7 +7206,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6843266</v>
+        <v>6843264</v>
       </c>
       <c r="C78" t="s">
         <v>37</v>
@@ -7215,73 +7215,73 @@
         <v>45192.58333333334</v>
       </c>
       <c r="E78" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F78" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G78">
+        <v>2</v>
+      </c>
+      <c r="H78">
         <v>1</v>
       </c>
-      <c r="H78">
-        <v>2</v>
-      </c>
       <c r="I78" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J78">
         <v>2.3</v>
       </c>
       <c r="K78">
+        <v>3.25</v>
+      </c>
+      <c r="L78">
         <v>3.1</v>
       </c>
-      <c r="L78">
-        <v>3.3</v>
-      </c>
       <c r="M78">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="N78">
         <v>3.1</v>
       </c>
       <c r="O78">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P78">
         <v>-0.25</v>
       </c>
       <c r="Q78">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="R78">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S78">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T78">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="U78">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V78">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z78">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB78">
         <v>-1</v>
@@ -7292,7 +7292,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6843261</v>
+        <v>6843266</v>
       </c>
       <c r="C79" t="s">
         <v>37</v>
@@ -7301,73 +7301,73 @@
         <v>45192.58333333334</v>
       </c>
       <c r="E79" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F79" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="G79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J79">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="K79">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L79">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M79">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="N79">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="O79">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P79">
         <v>-0.25</v>
       </c>
       <c r="Q79">
+        <v>2.025</v>
+      </c>
+      <c r="R79">
         <v>1.825</v>
       </c>
-      <c r="R79">
-        <v>2.025</v>
-      </c>
       <c r="S79">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T79">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U79">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V79">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W79">
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y79">
+        <v>-1</v>
+      </c>
+      <c r="Z79">
         <v>0.825</v>
       </c>
-      <c r="Z79">
-        <v>-1</v>
-      </c>
       <c r="AA79">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB79">
         <v>-1</v>
@@ -7550,7 +7550,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6843275</v>
+        <v>6843269</v>
       </c>
       <c r="C82" t="s">
         <v>37</v>
@@ -7559,73 +7559,73 @@
         <v>45195.65625</v>
       </c>
       <c r="E82" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F82" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="G82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I82" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J82">
+        <v>1.75</v>
+      </c>
+      <c r="K82">
+        <v>3.75</v>
+      </c>
+      <c r="L82">
+        <v>4.5</v>
+      </c>
+      <c r="M82">
+        <v>1.75</v>
+      </c>
+      <c r="N82">
+        <v>3.6</v>
+      </c>
+      <c r="O82">
+        <v>4.5</v>
+      </c>
+      <c r="P82">
+        <v>-0.75</v>
+      </c>
+      <c r="Q82">
+        <v>2.025</v>
+      </c>
+      <c r="R82">
+        <v>1.825</v>
+      </c>
+      <c r="S82">
+        <v>2.25</v>
+      </c>
+      <c r="T82">
+        <v>1.8</v>
+      </c>
+      <c r="U82">
         <v>2.05</v>
       </c>
-      <c r="K82">
-        <v>3.4</v>
-      </c>
-      <c r="L82">
+      <c r="V82">
+        <v>-1</v>
+      </c>
+      <c r="W82">
+        <v>-1</v>
+      </c>
+      <c r="X82">
         <v>3.5</v>
       </c>
-      <c r="M82">
-        <v>2.15</v>
-      </c>
-      <c r="N82">
-        <v>3.5</v>
-      </c>
-      <c r="O82">
-        <v>3.2</v>
-      </c>
-      <c r="P82">
-        <v>-0.25</v>
-      </c>
-      <c r="Q82">
-        <v>1.85</v>
-      </c>
-      <c r="R82">
-        <v>2</v>
-      </c>
-      <c r="S82">
-        <v>2.5</v>
-      </c>
-      <c r="T82">
-        <v>1.85</v>
-      </c>
-      <c r="U82">
-        <v>2</v>
-      </c>
-      <c r="V82">
-        <v>1.15</v>
-      </c>
-      <c r="W82">
-        <v>-1</v>
-      </c>
-      <c r="X82">
-        <v>-1</v>
-      </c>
       <c r="Y82">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA82">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB82">
         <v>-1</v>
@@ -7636,7 +7636,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6843268</v>
+        <v>6843275</v>
       </c>
       <c r="C83" t="s">
         <v>37</v>
@@ -7645,76 +7645,76 @@
         <v>45195.65625</v>
       </c>
       <c r="E83" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F83" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J83">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="K83">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L83">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M83">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="N83">
+        <v>3.5</v>
+      </c>
+      <c r="O83">
         <v>3.2</v>
-      </c>
-      <c r="O83">
-        <v>3.25</v>
       </c>
       <c r="P83">
         <v>-0.25</v>
       </c>
       <c r="Q83">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R83">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S83">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T83">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U83">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V83">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W83">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z83">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB83">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -7722,7 +7722,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6842548</v>
+        <v>6843268</v>
       </c>
       <c r="C84" t="s">
         <v>37</v>
@@ -7731,10 +7731,10 @@
         <v>45195.65625</v>
       </c>
       <c r="E84" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F84" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -7746,40 +7746,40 @@
         <v>64</v>
       </c>
       <c r="J84">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="K84">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L84">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="M84">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="N84">
         <v>3.2</v>
       </c>
       <c r="O84">
-        <v>2.625</v>
+        <v>3.25</v>
       </c>
       <c r="P84">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q84">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="R84">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S84">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T84">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U84">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V84">
         <v>-1</v>
@@ -7791,16 +7791,16 @@
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z84">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="85" spans="1:28">
@@ -7808,7 +7808,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6843272</v>
+        <v>6842548</v>
       </c>
       <c r="C85" t="s">
         <v>37</v>
@@ -7817,76 +7817,76 @@
         <v>45195.65625</v>
       </c>
       <c r="E85" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F85" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J85">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="K85">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L85">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="M85">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="N85">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O85">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="P85">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q85">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R85">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S85">
         <v>2.25</v>
       </c>
       <c r="T85">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U85">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V85">
         <v>-1</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X85">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z85">
+        <v>0</v>
+      </c>
+      <c r="AA85">
+        <v>-1</v>
+      </c>
+      <c r="AB85">
         <v>1.05</v>
-      </c>
-      <c r="AA85">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB85">
-        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:28">
@@ -7894,7 +7894,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6843269</v>
+        <v>6843272</v>
       </c>
       <c r="C86" t="s">
         <v>37</v>
@@ -7903,55 +7903,55 @@
         <v>45195.65625</v>
       </c>
       <c r="E86" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G86">
         <v>1</v>
       </c>
       <c r="H86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I86" t="s">
         <v>66</v>
       </c>
       <c r="J86">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="K86">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L86">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M86">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="N86">
         <v>3.6</v>
       </c>
       <c r="O86">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P86">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q86">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="R86">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S86">
         <v>2.25</v>
       </c>
       <c r="T86">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U86">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V86">
         <v>-1</v>
@@ -7960,16 +7960,16 @@
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>3.5</v>
+        <v>3.333</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AA86">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB86">
         <v>-1</v>
@@ -7980,7 +7980,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7022304</v>
+        <v>6842728</v>
       </c>
       <c r="C87" t="s">
         <v>37</v>
@@ -7989,76 +7989,76 @@
         <v>45195.65625</v>
       </c>
       <c r="E87" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F87" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G87">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J87">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="K87">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L87">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="M87">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="N87">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="O87">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="P87">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q87">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="R87">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S87">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T87">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U87">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V87">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y87">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA87">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:28">
@@ -8066,7 +8066,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6843274</v>
+        <v>7022304</v>
       </c>
       <c r="C88" t="s">
         <v>37</v>
@@ -8075,76 +8075,76 @@
         <v>45195.65625</v>
       </c>
       <c r="E88" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F88" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J88">
-        <v>2.875</v>
+        <v>1.6</v>
       </c>
       <c r="K88">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="L88">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="M88">
-        <v>2.875</v>
+        <v>1.45</v>
       </c>
       <c r="N88">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="O88">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="P88">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="Q88">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="R88">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S88">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T88">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="U88">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V88">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z88">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB88">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:28">
@@ -8152,7 +8152,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6842728</v>
+        <v>6843274</v>
       </c>
       <c r="C89" t="s">
         <v>37</v>
@@ -8161,10 +8161,10 @@
         <v>45195.65625</v>
       </c>
       <c r="E89" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F89" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -8176,40 +8176,40 @@
         <v>66</v>
       </c>
       <c r="J89">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="K89">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L89">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="M89">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="N89">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="O89">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="P89">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q89">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="R89">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S89">
         <v>2.25</v>
       </c>
       <c r="T89">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="U89">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V89">
         <v>-1</v>
@@ -8218,19 +8218,19 @@
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA89">
         <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -8324,7 +8324,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6843283</v>
+        <v>7022305</v>
       </c>
       <c r="C91" t="s">
         <v>37</v>
@@ -8333,46 +8333,46 @@
         <v>45199.58333333334</v>
       </c>
       <c r="E91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F91" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J91">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="K91">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L91">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M91">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="N91">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O91">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="P91">
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="R91">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S91">
         <v>2.25</v>
@@ -8387,22 +8387,22 @@
         <v>-1</v>
       </c>
       <c r="W91">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X91">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB91">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:28">
@@ -8410,7 +8410,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6843281</v>
+        <v>6842549</v>
       </c>
       <c r="C92" t="s">
         <v>37</v>
@@ -8419,13 +8419,13 @@
         <v>45199.58333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8434,61 +8434,61 @@
         <v>65</v>
       </c>
       <c r="J92">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="K92">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L92">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="M92">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="N92">
         <v>3.25</v>
       </c>
       <c r="O92">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>2.025</v>
+      </c>
+      <c r="R92">
+        <v>1.825</v>
+      </c>
+      <c r="S92">
+        <v>2.25</v>
+      </c>
+      <c r="T92">
+        <v>1.85</v>
+      </c>
+      <c r="U92">
+        <v>2</v>
+      </c>
+      <c r="V92">
+        <v>1.7</v>
+      </c>
+      <c r="W92">
+        <v>-1</v>
+      </c>
+      <c r="X92">
+        <v>-1</v>
+      </c>
+      <c r="Y92">
+        <v>1.025</v>
+      </c>
+      <c r="Z92">
+        <v>-1</v>
+      </c>
+      <c r="AA92">
         <v>-0.5</v>
       </c>
-      <c r="Q92">
-        <v>1.825</v>
-      </c>
-      <c r="R92">
-        <v>2.025</v>
-      </c>
-      <c r="S92">
-        <v>2</v>
-      </c>
-      <c r="T92">
-        <v>1.825</v>
-      </c>
-      <c r="U92">
-        <v>2.025</v>
-      </c>
-      <c r="V92">
-        <v>0.8</v>
-      </c>
-      <c r="W92">
-        <v>-1</v>
-      </c>
-      <c r="X92">
-        <v>-1</v>
-      </c>
-      <c r="Y92">
-        <v>0.825</v>
-      </c>
-      <c r="Z92">
-        <v>-1</v>
-      </c>
-      <c r="AA92">
-        <v>-1</v>
-      </c>
       <c r="AB92">
-        <v>1.025</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="93" spans="1:28">
@@ -8496,7 +8496,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6843280</v>
+        <v>6842729</v>
       </c>
       <c r="C93" t="s">
         <v>37</v>
@@ -8505,76 +8505,76 @@
         <v>45199.58333333334</v>
       </c>
       <c r="E93" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F93" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J93">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="K93">
         <v>3.25</v>
       </c>
       <c r="L93">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M93">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="N93">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="O93">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P93">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q93">
+        <v>1.825</v>
+      </c>
+      <c r="R93">
         <v>2.025</v>
-      </c>
-      <c r="R93">
-        <v>1.825</v>
       </c>
       <c r="S93">
         <v>2.25</v>
       </c>
       <c r="T93">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="U93">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V93">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z93">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB93">
-        <v>0.825</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:28">
@@ -8582,7 +8582,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6843279</v>
+        <v>6843278</v>
       </c>
       <c r="C94" t="s">
         <v>37</v>
@@ -8591,58 +8591,58 @@
         <v>45199.58333333334</v>
       </c>
       <c r="E94" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="F94" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="s">
         <v>65</v>
       </c>
       <c r="J94">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="K94">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L94">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="M94">
-        <v>1.571</v>
+        <v>3.2</v>
       </c>
       <c r="N94">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="O94">
-        <v>5.75</v>
+        <v>2.3</v>
       </c>
       <c r="P94">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q94">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="R94">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S94">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T94">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U94">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V94">
-        <v>0.571</v>
+        <v>2.2</v>
       </c>
       <c r="W94">
         <v>-1</v>
@@ -8651,16 +8651,16 @@
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="Z94">
         <v>-1</v>
       </c>
       <c r="AA94">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="95" spans="1:28">
@@ -8668,7 +8668,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6843278</v>
+        <v>6843279</v>
       </c>
       <c r="C95" t="s">
         <v>37</v>
@@ -8677,58 +8677,58 @@
         <v>45199.58333333334</v>
       </c>
       <c r="E95" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="F95" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G95">
+        <v>3</v>
+      </c>
+      <c r="H95">
         <v>1</v>
-      </c>
-      <c r="H95">
-        <v>0</v>
       </c>
       <c r="I95" t="s">
         <v>65</v>
       </c>
       <c r="J95">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="K95">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L95">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="M95">
-        <v>3.2</v>
+        <v>1.571</v>
       </c>
       <c r="N95">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="O95">
-        <v>2.3</v>
+        <v>5.75</v>
       </c>
       <c r="P95">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q95">
+        <v>1.975</v>
+      </c>
+      <c r="R95">
+        <v>1.875</v>
+      </c>
+      <c r="S95">
+        <v>2.75</v>
+      </c>
+      <c r="T95">
         <v>1.825</v>
       </c>
-      <c r="R95">
+      <c r="U95">
         <v>2.025</v>
       </c>
-      <c r="S95">
-        <v>2.25</v>
-      </c>
-      <c r="T95">
-        <v>1.9</v>
-      </c>
-      <c r="U95">
-        <v>1.95</v>
-      </c>
       <c r="V95">
-        <v>2.2</v>
+        <v>0.571</v>
       </c>
       <c r="W95">
         <v>-1</v>
@@ -8737,16 +8737,16 @@
         <v>-1</v>
       </c>
       <c r="Y95">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="Z95">
+        <v>-1</v>
+      </c>
+      <c r="AA95">
         <v>0.825</v>
       </c>
-      <c r="Z95">
-        <v>-1</v>
-      </c>
-      <c r="AA95">
-        <v>-1</v>
-      </c>
       <c r="AB95">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:28">
@@ -8754,7 +8754,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6842729</v>
+        <v>6843280</v>
       </c>
       <c r="C96" t="s">
         <v>37</v>
@@ -8763,76 +8763,76 @@
         <v>45199.58333333334</v>
       </c>
       <c r="E96" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F96" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J96">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="K96">
         <v>3.25</v>
       </c>
       <c r="L96">
+        <v>3.5</v>
+      </c>
+      <c r="M96">
+        <v>2</v>
+      </c>
+      <c r="N96">
+        <v>3.2</v>
+      </c>
+      <c r="O96">
         <v>4</v>
       </c>
-      <c r="M96">
-        <v>1.615</v>
-      </c>
-      <c r="N96">
-        <v>3.75</v>
-      </c>
-      <c r="O96">
-        <v>5.25</v>
-      </c>
       <c r="P96">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q96">
+        <v>2.025</v>
+      </c>
+      <c r="R96">
         <v>1.825</v>
-      </c>
-      <c r="R96">
-        <v>2.025</v>
       </c>
       <c r="S96">
         <v>2.25</v>
       </c>
       <c r="T96">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="U96">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V96">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y96">
+        <v>-1</v>
+      </c>
+      <c r="Z96">
         <v>0.825</v>
       </c>
-      <c r="Z96">
-        <v>-1</v>
-      </c>
       <c r="AA96">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>0.5249999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="97" spans="1:28">
@@ -8840,7 +8840,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6842549</v>
+        <v>6843281</v>
       </c>
       <c r="C97" t="s">
         <v>37</v>
@@ -8849,13 +8849,13 @@
         <v>45199.58333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F97" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -8864,43 +8864,43 @@
         <v>65</v>
       </c>
       <c r="J97">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="K97">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L97">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="M97">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="N97">
         <v>3.25</v>
       </c>
       <c r="O97">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="P97">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q97">
+        <v>1.825</v>
+      </c>
+      <c r="R97">
         <v>2.025</v>
       </c>
-      <c r="R97">
+      <c r="S97">
+        <v>2</v>
+      </c>
+      <c r="T97">
         <v>1.825</v>
       </c>
-      <c r="S97">
-        <v>2.25</v>
-      </c>
-      <c r="T97">
-        <v>1.85</v>
-      </c>
       <c r="U97">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V97">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="W97">
         <v>-1</v>
@@ -8909,16 +8909,16 @@
         <v>-1</v>
       </c>
       <c r="Y97">
+        <v>0.825</v>
+      </c>
+      <c r="Z97">
+        <v>-1</v>
+      </c>
+      <c r="AA97">
+        <v>-1</v>
+      </c>
+      <c r="AB97">
         <v>1.025</v>
-      </c>
-      <c r="Z97">
-        <v>-1</v>
-      </c>
-      <c r="AA97">
-        <v>-0.5</v>
-      </c>
-      <c r="AB97">
-        <v>0.5</v>
       </c>
     </row>
     <row r="98" spans="1:28">
@@ -8926,7 +8926,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7022305</v>
+        <v>6843283</v>
       </c>
       <c r="C98" t="s">
         <v>37</v>
@@ -8935,46 +8935,46 @@
         <v>45199.58333333334</v>
       </c>
       <c r="E98" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F98" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="G98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J98">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="K98">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L98">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M98">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="N98">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O98">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="P98">
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="R98">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S98">
         <v>2.25</v>
@@ -8989,22 +8989,22 @@
         <v>-1</v>
       </c>
       <c r="W98">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y98">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA98">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="99" spans="1:28">
@@ -16924,7 +16924,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6843361</v>
+        <v>6843362</v>
       </c>
       <c r="C191" t="s">
         <v>37</v>
@@ -16933,73 +16933,73 @@
         <v>45279.69791666666</v>
       </c>
       <c r="E191" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F191" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G191">
+        <v>1</v>
+      </c>
+      <c r="H191">
         <v>3</v>
       </c>
-      <c r="H191">
-        <v>2</v>
-      </c>
       <c r="I191" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J191">
+        <v>3.3</v>
+      </c>
+      <c r="K191">
+        <v>3.3</v>
+      </c>
+      <c r="L191">
+        <v>2.2</v>
+      </c>
+      <c r="M191">
+        <v>3.6</v>
+      </c>
+      <c r="N191">
+        <v>3.4</v>
+      </c>
+      <c r="O191">
+        <v>2.05</v>
+      </c>
+      <c r="P191">
+        <v>0.5</v>
+      </c>
+      <c r="Q191">
         <v>1.8</v>
       </c>
-      <c r="K191">
-        <v>3.5</v>
-      </c>
-      <c r="L191">
-        <v>4.5</v>
-      </c>
-      <c r="M191">
-        <v>1.8</v>
-      </c>
-      <c r="N191">
-        <v>3.5</v>
-      </c>
-      <c r="O191">
-        <v>4.5</v>
-      </c>
-      <c r="P191">
-        <v>-0.5</v>
-      </c>
-      <c r="Q191">
-        <v>1.825</v>
-      </c>
       <c r="R191">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S191">
         <v>2.25</v>
       </c>
       <c r="T191">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="U191">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V191">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="W191">
         <v>-1</v>
       </c>
       <c r="X191">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y191">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z191">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA191">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB191">
         <v>-1</v>
@@ -17010,7 +17010,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7603137</v>
+        <v>6842739</v>
       </c>
       <c r="C192" t="s">
         <v>37</v>
@@ -17019,73 +17019,73 @@
         <v>45279.69791666666</v>
       </c>
       <c r="E192" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F192" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="G192">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I192" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J192">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="K192">
         <v>3.2</v>
       </c>
       <c r="L192">
+        <v>2.25</v>
+      </c>
+      <c r="M192">
         <v>3.2</v>
       </c>
-      <c r="M192">
-        <v>2.25</v>
-      </c>
       <c r="N192">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O192">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="P192">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q192">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R192">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S192">
         <v>2.25</v>
       </c>
       <c r="T192">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U192">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V192">
         <v>-1</v>
       </c>
       <c r="W192">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X192">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y192">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z192">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AA192">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB192">
         <v>-1</v>
@@ -17182,7 +17182,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6842739</v>
+        <v>6843361</v>
       </c>
       <c r="C194" t="s">
         <v>37</v>
@@ -17191,73 +17191,73 @@
         <v>45279.69791666666</v>
       </c>
       <c r="E194" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F194" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G194">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H194">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I194" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J194">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="K194">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L194">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="M194">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="N194">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="O194">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="P194">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q194">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R194">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S194">
         <v>2.25</v>
       </c>
       <c r="T194">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U194">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V194">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W194">
         <v>-1</v>
       </c>
       <c r="X194">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y194">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z194">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA194">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB194">
         <v>-1</v>
@@ -17268,7 +17268,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6843362</v>
+        <v>6843356</v>
       </c>
       <c r="C195" t="s">
         <v>37</v>
@@ -17277,76 +17277,76 @@
         <v>45279.69791666666</v>
       </c>
       <c r="E195" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F195" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195" t="s">
+        <v>64</v>
+      </c>
+      <c r="J195">
+        <v>2.375</v>
+      </c>
+      <c r="K195">
+        <v>3.2</v>
+      </c>
+      <c r="L195">
         <v>3</v>
       </c>
-      <c r="I195" t="s">
-        <v>66</v>
-      </c>
-      <c r="J195">
-        <v>3.3</v>
-      </c>
-      <c r="K195">
-        <v>3.3</v>
-      </c>
-      <c r="L195">
-        <v>2.2</v>
-      </c>
       <c r="M195">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="N195">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O195">
+        <v>2.9</v>
+      </c>
+      <c r="P195">
+        <v>-0.25</v>
+      </c>
+      <c r="Q195">
+        <v>2.125</v>
+      </c>
+      <c r="R195">
+        <v>1.75</v>
+      </c>
+      <c r="S195">
+        <v>2</v>
+      </c>
+      <c r="T195">
+        <v>1.8</v>
+      </c>
+      <c r="U195">
         <v>2.05</v>
       </c>
-      <c r="P195">
-        <v>0.5</v>
-      </c>
-      <c r="Q195">
-        <v>1.8</v>
-      </c>
-      <c r="R195">
-        <v>2.05</v>
-      </c>
-      <c r="S195">
-        <v>2.25</v>
-      </c>
-      <c r="T195">
-        <v>1.925</v>
-      </c>
-      <c r="U195">
-        <v>1.925</v>
-      </c>
       <c r="V195">
         <v>-1</v>
       </c>
       <c r="W195">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X195">
+        <v>-1</v>
+      </c>
+      <c r="Y195">
+        <v>-0.5</v>
+      </c>
+      <c r="Z195">
+        <v>0.375</v>
+      </c>
+      <c r="AA195">
+        <v>-1</v>
+      </c>
+      <c r="AB195">
         <v>1.05</v>
-      </c>
-      <c r="Y195">
-        <v>-1</v>
-      </c>
-      <c r="Z195">
-        <v>1.05</v>
-      </c>
-      <c r="AA195">
-        <v>0.925</v>
-      </c>
-      <c r="AB195">
-        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:28">
@@ -17354,7 +17354,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6843356</v>
+        <v>6843359</v>
       </c>
       <c r="C196" t="s">
         <v>37</v>
@@ -17363,61 +17363,61 @@
         <v>45279.69791666666</v>
       </c>
       <c r="E196" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F196" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I196" t="s">
         <v>64</v>
       </c>
       <c r="J196">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="K196">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L196">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M196">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="N196">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O196">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P196">
         <v>-0.25</v>
       </c>
       <c r="Q196">
-        <v>2.125</v>
+        <v>1.85</v>
       </c>
       <c r="R196">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S196">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="T196">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U196">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V196">
         <v>-1</v>
       </c>
       <c r="W196">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="X196">
         <v>-1</v>
@@ -17426,13 +17426,13 @@
         <v>-0.5</v>
       </c>
       <c r="Z196">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="AA196">
         <v>-1</v>
       </c>
       <c r="AB196">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="197" spans="1:28">
@@ -17440,7 +17440,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6843360</v>
+        <v>6843357</v>
       </c>
       <c r="C197" t="s">
         <v>37</v>
@@ -17449,40 +17449,40 @@
         <v>45279.69791666666</v>
       </c>
       <c r="E197" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F197" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G197">
+        <v>2</v>
+      </c>
+      <c r="H197">
         <v>1</v>
-      </c>
-      <c r="H197">
-        <v>0</v>
       </c>
       <c r="I197" t="s">
         <v>65</v>
       </c>
       <c r="J197">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="K197">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L197">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M197">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="N197">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="O197">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P197">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q197">
         <v>2</v>
@@ -17491,16 +17491,16 @@
         <v>1.85</v>
       </c>
       <c r="S197">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T197">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U197">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V197">
-        <v>1.25</v>
+        <v>0.95</v>
       </c>
       <c r="W197">
         <v>-1</v>
@@ -17515,10 +17515,10 @@
         <v>-1</v>
       </c>
       <c r="AA197">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB197">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:28">
@@ -17526,7 +17526,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6843357</v>
+        <v>7603137</v>
       </c>
       <c r="C198" t="s">
         <v>37</v>
@@ -17535,73 +17535,73 @@
         <v>45279.69791666666</v>
       </c>
       <c r="E198" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F198" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G198">
         <v>2</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I198" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J198">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="K198">
         <v>3.2</v>
       </c>
       <c r="L198">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="M198">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="N198">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="O198">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P198">
+        <v>-0.25</v>
+      </c>
+      <c r="Q198">
+        <v>1.975</v>
+      </c>
+      <c r="R198">
+        <v>1.875</v>
+      </c>
+      <c r="S198">
+        <v>2.25</v>
+      </c>
+      <c r="T198">
+        <v>1.925</v>
+      </c>
+      <c r="U198">
+        <v>1.925</v>
+      </c>
+      <c r="V198">
+        <v>-1</v>
+      </c>
+      <c r="W198">
+        <v>2.2</v>
+      </c>
+      <c r="X198">
+        <v>-1</v>
+      </c>
+      <c r="Y198">
         <v>-0.5</v>
       </c>
-      <c r="Q198">
-        <v>2</v>
-      </c>
-      <c r="R198">
-        <v>1.85</v>
-      </c>
-      <c r="S198">
-        <v>1.75</v>
-      </c>
-      <c r="T198">
-        <v>1.975</v>
-      </c>
-      <c r="U198">
-        <v>1.875</v>
-      </c>
-      <c r="V198">
-        <v>0.95</v>
-      </c>
-      <c r="W198">
-        <v>-1</v>
-      </c>
-      <c r="X198">
-        <v>-1</v>
-      </c>
-      <c r="Y198">
-        <v>1</v>
-      </c>
       <c r="Z198">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA198">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB198">
         <v>-1</v>
@@ -17612,7 +17612,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6843359</v>
+        <v>6843360</v>
       </c>
       <c r="C199" t="s">
         <v>37</v>
@@ -17621,49 +17621,49 @@
         <v>45279.69791666666</v>
       </c>
       <c r="E199" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="F199" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G199">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J199">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K199">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L199">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M199">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="N199">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O199">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P199">
         <v>-0.25</v>
       </c>
       <c r="Q199">
+        <v>2</v>
+      </c>
+      <c r="R199">
         <v>1.85</v>
       </c>
-      <c r="R199">
-        <v>2</v>
-      </c>
       <c r="S199">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="T199">
         <v>1.925</v>
@@ -17672,19 +17672,19 @@
         <v>1.925</v>
       </c>
       <c r="V199">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W199">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X199">
         <v>-1</v>
       </c>
       <c r="Y199">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="Z199">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA199">
         <v>-1</v>
@@ -17870,7 +17870,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6842740</v>
+        <v>6843366</v>
       </c>
       <c r="C202" t="s">
         <v>37</v>
@@ -17879,76 +17879,76 @@
         <v>45304.625</v>
       </c>
       <c r="E202" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F202" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G202">
+        <v>0</v>
+      </c>
+      <c r="H202">
         <v>1</v>
       </c>
-      <c r="H202">
-        <v>0</v>
-      </c>
       <c r="I202" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J202">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="K202">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="L202">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="M202">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="N202">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="O202">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="P202">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q202">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R202">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S202">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T202">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="U202">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V202">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W202">
         <v>-1</v>
       </c>
       <c r="X202">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y202">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z202">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA202">
         <v>-1</v>
       </c>
       <c r="AB202">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="203" spans="1:28">
@@ -17956,7 +17956,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6843364</v>
+        <v>6842740</v>
       </c>
       <c r="C203" t="s">
         <v>37</v>
@@ -17965,13 +17965,13 @@
         <v>45304.625</v>
       </c>
       <c r="E203" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F203" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H203">
         <v>0</v>
@@ -17980,43 +17980,43 @@
         <v>65</v>
       </c>
       <c r="J203">
-        <v>3.2</v>
+        <v>1.833</v>
       </c>
       <c r="K203">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L203">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="M203">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="N203">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="O203">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="P203">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q203">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R203">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S203">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T203">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U203">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V203">
-        <v>1.45</v>
+        <v>0.909</v>
       </c>
       <c r="W203">
         <v>-1</v>
@@ -18025,16 +18025,16 @@
         <v>-1</v>
       </c>
       <c r="Y203">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="Z203">
         <v>-1</v>
       </c>
       <c r="AA203">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB203">
-        <v>0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="204" spans="1:28">
@@ -18042,7 +18042,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6843366</v>
+        <v>6843364</v>
       </c>
       <c r="C204" t="s">
         <v>37</v>
@@ -18051,76 +18051,76 @@
         <v>45304.625</v>
       </c>
       <c r="E204" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F204" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="G204">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J204">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K204">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L204">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="M204">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="N204">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="O204">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="P204">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q204">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R204">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S204">
         <v>2</v>
       </c>
       <c r="T204">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="U204">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V204">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="W204">
         <v>-1</v>
       </c>
       <c r="X204">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y204">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z204">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA204">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB204">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:28">
@@ -18128,7 +18128,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7022316</v>
+        <v>6843368</v>
       </c>
       <c r="C205" t="s">
         <v>37</v>
@@ -18137,13 +18137,13 @@
         <v>45304.625</v>
       </c>
       <c r="E205" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F205" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G205">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H205">
         <v>1</v>
@@ -18152,43 +18152,43 @@
         <v>65</v>
       </c>
       <c r="J205">
-        <v>1.833</v>
+        <v>2.9</v>
       </c>
       <c r="K205">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="L205">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="M205">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="N205">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="O205">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="P205">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q205">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="R205">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S205">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T205">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="U205">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V205">
-        <v>0.909</v>
+        <v>1.625</v>
       </c>
       <c r="W205">
         <v>-1</v>
@@ -18197,13 +18197,13 @@
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z205">
         <v>-1</v>
       </c>
       <c r="AA205">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB205">
         <v>-1</v>
@@ -18214,7 +18214,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6843369</v>
+        <v>6843370</v>
       </c>
       <c r="C206" t="s">
         <v>37</v>
@@ -18223,76 +18223,76 @@
         <v>45304.625</v>
       </c>
       <c r="E206" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F206" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G206">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I206" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J206">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="K206">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="L206">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="M206">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="N206">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="O206">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="P206">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q206">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="R206">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S206">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T206">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U206">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V206">
         <v>-1</v>
       </c>
       <c r="W206">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X206">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AA206">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB206">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="207" spans="1:28">
@@ -18300,7 +18300,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6843370</v>
+        <v>6843369</v>
       </c>
       <c r="C207" t="s">
         <v>37</v>
@@ -18309,76 +18309,76 @@
         <v>45304.625</v>
       </c>
       <c r="E207" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="F207" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G207">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I207" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J207">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="K207">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="L207">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="M207">
+        <v>1.65</v>
+      </c>
+      <c r="N207">
+        <v>3.75</v>
+      </c>
+      <c r="O207">
+        <v>4.75</v>
+      </c>
+      <c r="P207">
+        <v>-0.75</v>
+      </c>
+      <c r="Q207">
+        <v>1.825</v>
+      </c>
+      <c r="R207">
+        <v>2.025</v>
+      </c>
+      <c r="S207">
+        <v>2.5</v>
+      </c>
+      <c r="T207">
+        <v>1.975</v>
+      </c>
+      <c r="U207">
+        <v>1.875</v>
+      </c>
+      <c r="V207">
+        <v>-1</v>
+      </c>
+      <c r="W207">
         <v>2.75</v>
       </c>
-      <c r="N207">
-        <v>2.9</v>
-      </c>
-      <c r="O207">
-        <v>2.6</v>
-      </c>
-      <c r="P207">
-        <v>0</v>
-      </c>
-      <c r="Q207">
-        <v>2.05</v>
-      </c>
-      <c r="R207">
-        <v>1.8</v>
-      </c>
-      <c r="S207">
-        <v>2</v>
-      </c>
-      <c r="T207">
-        <v>1.925</v>
-      </c>
-      <c r="U207">
-        <v>1.925</v>
-      </c>
-      <c r="V207">
-        <v>-1</v>
-      </c>
-      <c r="W207">
-        <v>-1</v>
-      </c>
       <c r="X207">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y207">
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AA207">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB207">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="208" spans="1:28">
@@ -18386,7 +18386,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6843371</v>
+        <v>7022316</v>
       </c>
       <c r="C208" t="s">
         <v>37</v>
@@ -18395,10 +18395,10 @@
         <v>45304.625</v>
       </c>
       <c r="E208" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F208" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G208">
         <v>2</v>
@@ -18410,19 +18410,19 @@
         <v>65</v>
       </c>
       <c r="J208">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="K208">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L208">
         <v>4</v>
       </c>
       <c r="M208">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="N208">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="O208">
         <v>3.8</v>
@@ -18431,13 +18431,13 @@
         <v>-0.5</v>
       </c>
       <c r="Q208">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R208">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S208">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T208">
         <v>1.9</v>
@@ -18446,7 +18446,7 @@
         <v>1.95</v>
       </c>
       <c r="V208">
-        <v>0.75</v>
+        <v>0.909</v>
       </c>
       <c r="W208">
         <v>-1</v>
@@ -18455,16 +18455,16 @@
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="Z208">
         <v>-1</v>
       </c>
       <c r="AA208">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB208">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:28">
@@ -18472,7 +18472,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6843368</v>
+        <v>6843371</v>
       </c>
       <c r="C209" t="s">
         <v>37</v>
@@ -18481,13 +18481,13 @@
         <v>45304.625</v>
       </c>
       <c r="E209" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F209" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="G209">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H209">
         <v>1</v>
@@ -18496,43 +18496,43 @@
         <v>65</v>
       </c>
       <c r="J209">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="K209">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="L209">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="M209">
-        <v>2.625</v>
+        <v>1.75</v>
       </c>
       <c r="N209">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="O209">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="P209">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q209">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="R209">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S209">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="T209">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="U209">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V209">
-        <v>1.625</v>
+        <v>0.75</v>
       </c>
       <c r="W209">
         <v>-1</v>
@@ -18541,16 +18541,16 @@
         <v>-1</v>
       </c>
       <c r="Y209">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="Z209">
         <v>-1</v>
       </c>
       <c r="AA209">
-        <v>1.05</v>
+        <v>0.45</v>
       </c>
       <c r="AB209">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="210" spans="1:28">
@@ -19246,7 +19246,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6843373</v>
+        <v>6842561</v>
       </c>
       <c r="C218" t="s">
         <v>37</v>
@@ -19255,46 +19255,46 @@
         <v>45314.69791666666</v>
       </c>
       <c r="E218" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F218" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G218">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H218">
         <v>1</v>
       </c>
       <c r="I218" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J218">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="K218">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L218">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="M218">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="N218">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="O218">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="P218">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q218">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="R218">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S218">
         <v>2.5</v>
@@ -19306,25 +19306,25 @@
         <v>1.925</v>
       </c>
       <c r="V218">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="W218">
         <v>-1</v>
       </c>
       <c r="X218">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y218">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z218">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA218">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB218">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:28">
@@ -19332,7 +19332,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6842561</v>
+        <v>6843374</v>
       </c>
       <c r="C219" t="s">
         <v>37</v>
@@ -19341,16 +19341,16 @@
         <v>45314.69791666666</v>
       </c>
       <c r="E219" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="F219" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G219">
         <v>3</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I219" t="s">
         <v>65</v>
@@ -19365,25 +19365,25 @@
         <v>4.333</v>
       </c>
       <c r="M219">
-        <v>1.571</v>
+        <v>2.05</v>
       </c>
       <c r="N219">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="O219">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="P219">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q219">
+        <v>1.825</v>
+      </c>
+      <c r="R219">
         <v>2.025</v>
       </c>
-      <c r="R219">
-        <v>1.825</v>
-      </c>
       <c r="S219">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T219">
         <v>1.925</v>
@@ -19392,7 +19392,7 @@
         <v>1.925</v>
       </c>
       <c r="V219">
-        <v>0.571</v>
+        <v>1.05</v>
       </c>
       <c r="W219">
         <v>-1</v>
@@ -19401,7 +19401,7 @@
         <v>-1</v>
       </c>
       <c r="Y219">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="Z219">
         <v>-1</v>
@@ -19418,7 +19418,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6843374</v>
+        <v>6843373</v>
       </c>
       <c r="C220" t="s">
         <v>37</v>
@@ -19427,49 +19427,49 @@
         <v>45314.69791666666</v>
       </c>
       <c r="E220" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="F220" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="G220">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I220" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J220">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="K220">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L220">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="M220">
+        <v>2.8</v>
+      </c>
+      <c r="N220">
+        <v>3.25</v>
+      </c>
+      <c r="O220">
+        <v>2.3</v>
+      </c>
+      <c r="P220">
+        <v>0.25</v>
+      </c>
+      <c r="Q220">
+        <v>1.8</v>
+      </c>
+      <c r="R220">
         <v>2.05</v>
       </c>
-      <c r="N220">
-        <v>3.3</v>
-      </c>
-      <c r="O220">
-        <v>3.3</v>
-      </c>
-      <c r="P220">
-        <v>-0.25</v>
-      </c>
-      <c r="Q220">
-        <v>1.825</v>
-      </c>
-      <c r="R220">
-        <v>2.025</v>
-      </c>
       <c r="S220">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T220">
         <v>1.925</v>
@@ -19478,25 +19478,25 @@
         <v>1.925</v>
       </c>
       <c r="V220">
+        <v>-1</v>
+      </c>
+      <c r="W220">
+        <v>-1</v>
+      </c>
+      <c r="X220">
+        <v>1.3</v>
+      </c>
+      <c r="Y220">
+        <v>-1</v>
+      </c>
+      <c r="Z220">
         <v>1.05</v>
       </c>
-      <c r="W220">
-        <v>-1</v>
-      </c>
-      <c r="X220">
-        <v>-1</v>
-      </c>
-      <c r="Y220">
-        <v>0.825</v>
-      </c>
-      <c r="Z220">
-        <v>-1</v>
-      </c>
       <c r="AA220">
+        <v>-1</v>
+      </c>
+      <c r="AB220">
         <v>0.925</v>
-      </c>
-      <c r="AB220">
-        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:28">
@@ -20536,7 +20536,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6842563</v>
+        <v>6842743</v>
       </c>
       <c r="C233" t="s">
         <v>37</v>
@@ -20545,58 +20545,58 @@
         <v>45325.625</v>
       </c>
       <c r="E233" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F233" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="s">
         <v>65</v>
       </c>
       <c r="J233">
+        <v>2.15</v>
+      </c>
+      <c r="K233">
+        <v>3.2</v>
+      </c>
+      <c r="L233">
         <v>3.4</v>
       </c>
-      <c r="K233">
-        <v>3.3</v>
-      </c>
-      <c r="L233">
-        <v>2.1</v>
-      </c>
       <c r="M233">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="N233">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="O233">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="P233">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q233">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="R233">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S233">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T233">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U233">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V233">
-        <v>2.25</v>
+        <v>1.15</v>
       </c>
       <c r="W233">
         <v>-1</v>
@@ -20605,16 +20605,16 @@
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="Z233">
         <v>-1</v>
       </c>
       <c r="AA233">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB233">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="234" spans="1:28">
@@ -20622,7 +20622,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6842743</v>
+        <v>6843388</v>
       </c>
       <c r="C234" t="s">
         <v>37</v>
@@ -20631,76 +20631,76 @@
         <v>45325.625</v>
       </c>
       <c r="E234" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F234" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G234">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I234" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J234">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="K234">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L234">
         <v>3.4</v>
       </c>
       <c r="M234">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="N234">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O234">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="P234">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q234">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="R234">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S234">
         <v>2</v>
       </c>
       <c r="T234">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="U234">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V234">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="W234">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X234">
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Z234">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA234">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB234">
-        <v>0.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:28">
@@ -20708,7 +20708,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6843389</v>
+        <v>6842563</v>
       </c>
       <c r="C235" t="s">
         <v>37</v>
@@ -20717,73 +20717,73 @@
         <v>45325.625</v>
       </c>
       <c r="E235" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="F235" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="G235">
         <v>2</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I235" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J235">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="K235">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L235">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="M235">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="N235">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O235">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="P235">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q235">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="R235">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S235">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T235">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U235">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V235">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="W235">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X235">
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="Z235">
         <v>-1</v>
       </c>
       <c r="AA235">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB235">
         <v>-1</v>
@@ -21052,7 +21052,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6843388</v>
+        <v>6843389</v>
       </c>
       <c r="C239" t="s">
         <v>37</v>
@@ -21061,76 +21061,76 @@
         <v>45325.625</v>
       </c>
       <c r="E239" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F239" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I239" t="s">
         <v>64</v>
       </c>
       <c r="J239">
-        <v>2.2</v>
+        <v>4.4</v>
       </c>
       <c r="K239">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="L239">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="M239">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N239">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="O239">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="P239">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q239">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="R239">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S239">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="T239">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="U239">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V239">
         <v>-1</v>
       </c>
       <c r="W239">
-        <v>1.9</v>
+        <v>2.75</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="Z239">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA239">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB239">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:28">
@@ -24836,7 +24836,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6921720</v>
+        <v>6843428</v>
       </c>
       <c r="C283" t="s">
         <v>37</v>
@@ -24845,76 +24845,76 @@
         <v>45360.625</v>
       </c>
       <c r="E283" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F283" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="G283">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H283">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I283" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J283">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="K283">
         <v>3.1</v>
       </c>
       <c r="L283">
+        <v>3.3</v>
+      </c>
+      <c r="M283">
         <v>2.25</v>
-      </c>
-      <c r="M283">
-        <v>3.6</v>
       </c>
       <c r="N283">
         <v>3</v>
       </c>
       <c r="O283">
+        <v>3.3</v>
+      </c>
+      <c r="P283">
+        <v>-0.25</v>
+      </c>
+      <c r="Q283">
+        <v>2.025</v>
+      </c>
+      <c r="R283">
+        <v>1.825</v>
+      </c>
+      <c r="S283">
         <v>2.25</v>
       </c>
-      <c r="P283">
-        <v>0.25</v>
-      </c>
-      <c r="Q283">
-        <v>1.9</v>
-      </c>
-      <c r="R283">
-        <v>1.95</v>
-      </c>
-      <c r="S283">
-        <v>2</v>
-      </c>
       <c r="T283">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U283">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V283">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W283">
         <v>-1</v>
       </c>
       <c r="X283">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y283">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z283">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA283">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB283">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="284" spans="1:28">
@@ -24922,7 +24922,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6843429</v>
+        <v>6921720</v>
       </c>
       <c r="C284" t="s">
         <v>37</v>
@@ -24931,76 +24931,76 @@
         <v>45360.625</v>
       </c>
       <c r="E284" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F284" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G284">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I284" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J284">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="K284">
+        <v>3.1</v>
+      </c>
+      <c r="L284">
+        <v>2.25</v>
+      </c>
+      <c r="M284">
+        <v>3.6</v>
+      </c>
+      <c r="N284">
         <v>3</v>
       </c>
-      <c r="L284">
-        <v>3.1</v>
-      </c>
-      <c r="M284">
-        <v>2.55</v>
-      </c>
-      <c r="N284">
-        <v>2.9</v>
-      </c>
       <c r="O284">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="P284">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q284">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R284">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S284">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T284">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U284">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V284">
         <v>-1</v>
       </c>
       <c r="W284">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X284">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y284">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z284">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA284">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB284">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="285" spans="1:28">
@@ -25008,7 +25008,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>6843431</v>
+        <v>6843429</v>
       </c>
       <c r="C285" t="s">
         <v>37</v>
@@ -25017,76 +25017,76 @@
         <v>45360.625</v>
       </c>
       <c r="E285" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F285" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G285">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I285" t="s">
         <v>64</v>
       </c>
       <c r="J285">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="K285">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="L285">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M285">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="N285">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="O285">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P285">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q285">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R285">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S285">
         <v>2.25</v>
       </c>
       <c r="T285">
+        <v>2</v>
+      </c>
+      <c r="U285">
         <v>1.85</v>
       </c>
-      <c r="U285">
-        <v>2</v>
-      </c>
       <c r="V285">
         <v>-1</v>
       </c>
       <c r="W285">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="X285">
         <v>-1</v>
       </c>
       <c r="Y285">
+        <v>0</v>
+      </c>
+      <c r="Z285">
+        <v>0</v>
+      </c>
+      <c r="AA285">
         <v>-0.5</v>
       </c>
-      <c r="Z285">
-        <v>0.475</v>
-      </c>
-      <c r="AA285">
-        <v>-1</v>
-      </c>
       <c r="AB285">
-        <v>1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="286" spans="1:28">
@@ -25094,7 +25094,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>6843433</v>
+        <v>6843431</v>
       </c>
       <c r="C286" t="s">
         <v>37</v>
@@ -25103,10 +25103,10 @@
         <v>45360.625</v>
       </c>
       <c r="E286" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F286" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G286">
         <v>0</v>
@@ -25118,61 +25118,61 @@
         <v>64</v>
       </c>
       <c r="J286">
-        <v>3.8</v>
+        <v>1.909</v>
       </c>
       <c r="K286">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L286">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="M286">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="N286">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="O286">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="P286">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q286">
+        <v>1.9</v>
+      </c>
+      <c r="R286">
+        <v>1.95</v>
+      </c>
+      <c r="S286">
+        <v>2.25</v>
+      </c>
+      <c r="T286">
         <v>1.85</v>
       </c>
-      <c r="R286">
-        <v>2</v>
-      </c>
-      <c r="S286">
-        <v>2</v>
-      </c>
-      <c r="T286">
-        <v>2.025</v>
-      </c>
       <c r="U286">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V286">
         <v>-1</v>
       </c>
       <c r="W286">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="X286">
         <v>-1</v>
       </c>
       <c r="Y286">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="Z286">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA286">
         <v>-1</v>
       </c>
       <c r="AB286">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:28">
@@ -25180,7 +25180,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>6843432</v>
+        <v>6843433</v>
       </c>
       <c r="C287" t="s">
         <v>37</v>
@@ -25189,76 +25189,76 @@
         <v>45360.625</v>
       </c>
       <c r="E287" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F287" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="G287">
         <v>0</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I287" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J287">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="K287">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L287">
-        <v>3.3</v>
+        <v>2.05</v>
       </c>
       <c r="M287">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="N287">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O287">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="P287">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q287">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="R287">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S287">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T287">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="U287">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V287">
         <v>-1</v>
       </c>
       <c r="W287">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X287">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y287">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z287">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA287">
         <v>-1</v>
       </c>
       <c r="AB287">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="288" spans="1:28">
@@ -25266,7 +25266,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>7022324</v>
+        <v>6843432</v>
       </c>
       <c r="C288" t="s">
         <v>37</v>
@@ -25275,55 +25275,55 @@
         <v>45360.625</v>
       </c>
       <c r="E288" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F288" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G288">
+        <v>0</v>
+      </c>
+      <c r="H288">
         <v>1</v>
-      </c>
-      <c r="H288">
-        <v>3</v>
       </c>
       <c r="I288" t="s">
         <v>66</v>
       </c>
       <c r="J288">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="K288">
         <v>3</v>
       </c>
       <c r="L288">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="M288">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="N288">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="O288">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P288">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q288">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R288">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S288">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="T288">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="U288">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V288">
         <v>-1</v>
@@ -25332,19 +25332,19 @@
         <v>-1</v>
       </c>
       <c r="X288">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="Y288">
         <v>-1</v>
       </c>
       <c r="Z288">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA288">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB288">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="289" spans="1:28">
@@ -25352,7 +25352,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>6843428</v>
+        <v>7022324</v>
       </c>
       <c r="C289" t="s">
         <v>37</v>
@@ -25361,76 +25361,76 @@
         <v>45360.625</v>
       </c>
       <c r="E289" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F289" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G289">
         <v>1</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I289" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J289">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="K289">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L289">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="M289">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="N289">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="O289">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P289">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q289">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="R289">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S289">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="T289">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U289">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V289">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W289">
         <v>-1</v>
       </c>
       <c r="X289">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y289">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z289">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA289">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB289">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="290" spans="1:28">
@@ -28706,7 +28706,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>7060669</v>
+        <v>7060672</v>
       </c>
       <c r="C328" t="s">
         <v>37</v>
@@ -28715,73 +28715,73 @@
         <v>45395.58333333334</v>
       </c>
       <c r="E328" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F328" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G328">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I328" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J328">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="K328">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L328">
+        <v>1.833</v>
+      </c>
+      <c r="M328">
+        <v>3.1</v>
+      </c>
+      <c r="N328">
+        <v>3.25</v>
+      </c>
+      <c r="O328">
         <v>2.2</v>
-      </c>
-      <c r="M328">
-        <v>3.25</v>
-      </c>
-      <c r="N328">
-        <v>2.9</v>
-      </c>
-      <c r="O328">
-        <v>2.375</v>
       </c>
       <c r="P328">
         <v>0.25</v>
       </c>
       <c r="Q328">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R328">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S328">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T328">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U328">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V328">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="W328">
         <v>-1</v>
       </c>
       <c r="X328">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y328">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z328">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA328">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB328">
         <v>-1</v>
@@ -28792,7 +28792,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>7060672</v>
+        <v>7060669</v>
       </c>
       <c r="C329" t="s">
         <v>37</v>
@@ -28801,73 +28801,73 @@
         <v>45395.58333333334</v>
       </c>
       <c r="E329" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F329" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="G329">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H329">
+        <v>2</v>
+      </c>
+      <c r="I329" t="s">
+        <v>66</v>
+      </c>
+      <c r="J329">
+        <v>3.5</v>
+      </c>
+      <c r="K329">
         <v>3</v>
       </c>
-      <c r="I329" t="s">
-        <v>65</v>
-      </c>
-      <c r="J329">
-        <v>4.5</v>
-      </c>
-      <c r="K329">
+      <c r="L329">
+        <v>2.2</v>
+      </c>
+      <c r="M329">
         <v>3.25</v>
       </c>
-      <c r="L329">
-        <v>1.833</v>
-      </c>
-      <c r="M329">
-        <v>3.1</v>
-      </c>
       <c r="N329">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="O329">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="P329">
         <v>0.25</v>
       </c>
       <c r="Q329">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R329">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S329">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T329">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U329">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V329">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="W329">
         <v>-1</v>
       </c>
       <c r="X329">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y329">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z329">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA329">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB329">
         <v>-1</v>
@@ -29910,7 +29910,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>7129121</v>
+        <v>7129118</v>
       </c>
       <c r="C342" t="s">
         <v>37</v>
@@ -29919,13 +29919,13 @@
         <v>45405.65625</v>
       </c>
       <c r="E342" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F342" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G342">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H342">
         <v>0</v>
@@ -29934,43 +29934,43 @@
         <v>65</v>
       </c>
       <c r="J342">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="K342">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="L342">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="M342">
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="N342">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="O342">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="P342">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q342">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="R342">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S342">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="T342">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U342">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V342">
-        <v>4</v>
+        <v>0.75</v>
       </c>
       <c r="W342">
         <v>-1</v>
@@ -29979,7 +29979,7 @@
         <v>-1</v>
       </c>
       <c r="Y342">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z342">
         <v>-1</v>
@@ -29988,7 +29988,7 @@
         <v>-1</v>
       </c>
       <c r="AB342">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="343" spans="1:28">
@@ -29996,7 +29996,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>7129118</v>
+        <v>7129119</v>
       </c>
       <c r="C343" t="s">
         <v>37</v>
@@ -30005,10 +30005,10 @@
         <v>45405.65625</v>
       </c>
       <c r="E343" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="F343" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G343">
         <v>2</v>
@@ -30020,43 +30020,43 @@
         <v>65</v>
       </c>
       <c r="J343">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="K343">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="L343">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M343">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="N343">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="O343">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P343">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q343">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R343">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S343">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T343">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U343">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V343">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="W343">
         <v>-1</v>
@@ -30065,16 +30065,16 @@
         <v>-1</v>
       </c>
       <c r="Y343">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="Z343">
         <v>-1</v>
       </c>
       <c r="AA343">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB343">
-        <v>1.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:28">
@@ -30082,7 +30082,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>7129119</v>
+        <v>7129121</v>
       </c>
       <c r="C344" t="s">
         <v>37</v>
@@ -30091,13 +30091,13 @@
         <v>45405.65625</v>
       </c>
       <c r="E344" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F344" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G344">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H344">
         <v>0</v>
@@ -30106,43 +30106,43 @@
         <v>65</v>
       </c>
       <c r="J344">
+        <v>4</v>
+      </c>
+      <c r="K344">
+        <v>2.9</v>
+      </c>
+      <c r="L344">
         <v>2.1</v>
       </c>
-      <c r="K344">
-        <v>3.2</v>
-      </c>
-      <c r="L344">
-        <v>3.6</v>
-      </c>
       <c r="M344">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="N344">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="O344">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="P344">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q344">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="R344">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S344">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="T344">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U344">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V344">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="W344">
         <v>-1</v>
@@ -30151,16 +30151,16 @@
         <v>-1</v>
       </c>
       <c r="Y344">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="Z344">
         <v>-1</v>
       </c>
       <c r="AA344">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB344">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="345" spans="1:28">
@@ -30512,7 +30512,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>7129124</v>
+        <v>7129120</v>
       </c>
       <c r="C349" t="s">
         <v>37</v>
@@ -30521,76 +30521,76 @@
         <v>45405.65625</v>
       </c>
       <c r="E349" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F349" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G349">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J349">
+        <v>1.55</v>
+      </c>
+      <c r="K349">
         <v>3.75</v>
       </c>
-      <c r="K349">
-        <v>3.4</v>
-      </c>
       <c r="L349">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="M349">
-        <v>3.5</v>
+        <v>1.533</v>
       </c>
       <c r="N349">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="O349">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P349">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q349">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R349">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S349">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T349">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U349">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V349">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W349">
         <v>-1</v>
       </c>
       <c r="X349">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y349">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z349">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA349">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB349">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="350" spans="1:28">
@@ -30598,7 +30598,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>7129120</v>
+        <v>7129124</v>
       </c>
       <c r="C350" t="s">
         <v>37</v>
@@ -30607,76 +30607,76 @@
         <v>45405.65625</v>
       </c>
       <c r="E350" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F350" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G350">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J350">
-        <v>1.55</v>
+        <v>3.75</v>
       </c>
       <c r="K350">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L350">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="M350">
-        <v>1.533</v>
+        <v>3.5</v>
       </c>
       <c r="N350">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="O350">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P350">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Q350">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R350">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S350">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T350">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U350">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V350">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W350">
         <v>-1</v>
       </c>
       <c r="X350">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y350">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z350">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA350">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB350">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="351" spans="1:28">
@@ -31028,7 +31028,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>7158241</v>
+        <v>7158229</v>
       </c>
       <c r="C355" t="s">
         <v>37</v>
@@ -31037,58 +31037,58 @@
         <v>45409.58333333334</v>
       </c>
       <c r="E355" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F355" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="G355">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="s">
         <v>65</v>
       </c>
       <c r="J355">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="K355">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L355">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="M355">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="N355">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="O355">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="P355">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q355">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R355">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S355">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T355">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U355">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V355">
-        <v>1.625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W355">
         <v>-1</v>
@@ -31097,16 +31097,16 @@
         <v>-1</v>
       </c>
       <c r="Y355">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="Z355">
         <v>-1</v>
       </c>
       <c r="AA355">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB355">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="356" spans="1:28">
@@ -31114,7 +31114,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>7158229</v>
+        <v>7158239</v>
       </c>
       <c r="C356" t="s">
         <v>37</v>
@@ -31123,76 +31123,76 @@
         <v>45409.58333333334</v>
       </c>
       <c r="E356" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F356" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G356">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J356">
+        <v>2.2</v>
+      </c>
+      <c r="K356">
+        <v>3.3</v>
+      </c>
+      <c r="L356">
+        <v>3.2</v>
+      </c>
+      <c r="M356">
+        <v>2.5</v>
+      </c>
+      <c r="N356">
+        <v>3.25</v>
+      </c>
+      <c r="O356">
+        <v>2.8</v>
+      </c>
+      <c r="P356">
+        <v>0</v>
+      </c>
+      <c r="Q356">
         <v>1.8</v>
       </c>
-      <c r="K356">
-        <v>3.4</v>
-      </c>
-      <c r="L356">
-        <v>4.75</v>
-      </c>
-      <c r="M356">
-        <v>1.85</v>
-      </c>
-      <c r="N356">
-        <v>3.5</v>
-      </c>
-      <c r="O356">
-        <v>4.333</v>
-      </c>
-      <c r="P356">
-        <v>-0.5</v>
-      </c>
-      <c r="Q356">
-        <v>1.875</v>
-      </c>
       <c r="R356">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S356">
         <v>2.25</v>
       </c>
       <c r="T356">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U356">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V356">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W356">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X356">
         <v>-1</v>
       </c>
       <c r="Y356">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="Z356">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA356">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB356">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="357" spans="1:28">
@@ -31200,7 +31200,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>7158239</v>
+        <v>7158240</v>
       </c>
       <c r="C357" t="s">
         <v>37</v>
@@ -31209,76 +31209,76 @@
         <v>45409.58333333334</v>
       </c>
       <c r="E357" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F357" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G357">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J357">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="K357">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L357">
+        <v>2.4</v>
+      </c>
+      <c r="M357">
+        <v>2.7</v>
+      </c>
+      <c r="N357">
         <v>3.2</v>
       </c>
-      <c r="M357">
-        <v>2.5</v>
-      </c>
-      <c r="N357">
-        <v>3.25</v>
-      </c>
       <c r="O357">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="P357">
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="R357">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S357">
         <v>2.25</v>
       </c>
       <c r="T357">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="U357">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V357">
         <v>-1</v>
       </c>
       <c r="W357">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X357">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y357">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z357">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA357">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB357">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="358" spans="1:28">
@@ -31286,7 +31286,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>7158240</v>
+        <v>7158241</v>
       </c>
       <c r="C358" t="s">
         <v>37</v>
@@ -31295,76 +31295,76 @@
         <v>45409.58333333334</v>
       </c>
       <c r="E358" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F358" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="G358">
         <v>1</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J358">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="K358">
         <v>3.2</v>
       </c>
       <c r="L358">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="M358">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="N358">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O358">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="P358">
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="R358">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S358">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T358">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="U358">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V358">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="W358">
         <v>-1</v>
       </c>
       <c r="X358">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y358">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z358">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA358">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB358">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="359" spans="1:28">
@@ -31553,46 +31553,46 @@
         <v>45415.625</v>
       </c>
       <c r="E361" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F361" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J361">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="K361">
         <v>3.5</v>
       </c>
       <c r="L361">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="M361">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="N361">
         <v>3.5</v>
       </c>
       <c r="O361">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="P361">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q361">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R361">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S361">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T361">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U361">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V361">
         <v>0</v>
@@ -31618,37 +31618,37 @@
         <v>45415.625</v>
       </c>
       <c r="E362" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F362" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J362">
-        <v>2.05</v>
+        <v>1.833</v>
       </c>
       <c r="K362">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L362">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M362">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="N362">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O362">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P362">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q362">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R362">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S362">
         <v>2.25</v>
@@ -31683,46 +31683,46 @@
         <v>45415.625</v>
       </c>
       <c r="E363" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F363" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J363">
-        <v>1.6</v>
+        <v>2.05</v>
       </c>
       <c r="K363">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="L363">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="M363">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="N363">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="O363">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="P363">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q363">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="R363">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S363">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T363">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U363">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V363">
         <v>0</v>
@@ -31748,31 +31748,31 @@
         <v>45415.625</v>
       </c>
       <c r="E364" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F364" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J364">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="K364">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="L364">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="M364">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="N364">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="O364">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="P364">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q364">
         <v>1.975</v>
@@ -31781,13 +31781,13 @@
         <v>1.875</v>
       </c>
       <c r="S364">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T364">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U364">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V364">
         <v>0</v>
@@ -31813,46 +31813,46 @@
         <v>45415.625</v>
       </c>
       <c r="E365" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="F365" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J365">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="K365">
         <v>3</v>
       </c>
       <c r="L365">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M365">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="N365">
         <v>3.1</v>
       </c>
       <c r="O365">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P365">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q365">
+        <v>1.925</v>
+      </c>
+      <c r="R365">
+        <v>1.925</v>
+      </c>
+      <c r="S365">
+        <v>2</v>
+      </c>
+      <c r="T365">
+        <v>1.825</v>
+      </c>
+      <c r="U365">
         <v>2.025</v>
-      </c>
-      <c r="R365">
-        <v>1.825</v>
-      </c>
-      <c r="S365">
-        <v>2</v>
-      </c>
-      <c r="T365">
-        <v>1.8</v>
-      </c>
-      <c r="U365">
-        <v>2.05</v>
       </c>
       <c r="V365">
         <v>0</v>
@@ -31878,46 +31878,46 @@
         <v>45415.625</v>
       </c>
       <c r="E366" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F366" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="J366">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="K366">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L366">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M366">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="N366">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O366">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P366">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q366">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R366">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S366">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T366">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U366">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V366">
         <v>0</v>
@@ -31943,46 +31943,46 @@
         <v>45415.625</v>
       </c>
       <c r="E367" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F367" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J367">
+        <v>2.05</v>
+      </c>
+      <c r="K367">
+        <v>3.2</v>
+      </c>
+      <c r="L367">
+        <v>3.6</v>
+      </c>
+      <c r="M367">
+        <v>2</v>
+      </c>
+      <c r="N367">
+        <v>3.2</v>
+      </c>
+      <c r="O367">
+        <v>3.8</v>
+      </c>
+      <c r="P367">
+        <v>-0.5</v>
+      </c>
+      <c r="Q367">
+        <v>2.05</v>
+      </c>
+      <c r="R367">
+        <v>1.8</v>
+      </c>
+      <c r="S367">
         <v>2.25</v>
       </c>
-      <c r="K367">
-        <v>3.5</v>
-      </c>
-      <c r="L367">
-        <v>2.9</v>
-      </c>
-      <c r="M367">
-        <v>2.25</v>
-      </c>
-      <c r="N367">
-        <v>3.5</v>
-      </c>
-      <c r="O367">
-        <v>3</v>
-      </c>
-      <c r="P367">
-        <v>-0.25</v>
-      </c>
-      <c r="Q367">
-        <v>2</v>
-      </c>
-      <c r="R367">
-        <v>1.85</v>
-      </c>
-      <c r="S367">
-        <v>2.5</v>
-      </c>
       <c r="T367">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U367">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V367">
         <v>0</v>
@@ -32008,46 +32008,46 @@
         <v>45415.625</v>
       </c>
       <c r="E368" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F368" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J368">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="K368">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L368">
+        <v>5</v>
+      </c>
+      <c r="M368">
+        <v>1.7</v>
+      </c>
+      <c r="N368">
         <v>3.6</v>
       </c>
-      <c r="M368">
-        <v>2.1</v>
-      </c>
-      <c r="N368">
-        <v>3.2</v>
-      </c>
       <c r="O368">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P368">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q368">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R368">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S368">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T368">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="U368">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V368">
         <v>0</v>
@@ -32088,22 +32088,22 @@
         <v>4.5</v>
       </c>
       <c r="M369">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="N369">
         <v>3.75</v>
       </c>
       <c r="O369">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P369">
         <v>-0.75</v>
       </c>
       <c r="Q369">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R369">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S369">
         <v>2.5</v>
@@ -32174,10 +32174,10 @@
         <v>2.25</v>
       </c>
       <c r="T370">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U370">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V370">
         <v>0</v>

--- a/France Ligue 2/France Ligue 2.xlsx
+++ b/France Ligue 2/France Ligue 2.xlsx
@@ -97,22 +97,19 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>7252956</t>
-  </si>
-  <si>
     <t>7251517</t>
   </si>
   <si>
-    <t>7252949</t>
+    <t>7251518</t>
   </si>
   <si>
     <t>7252950</t>
   </si>
   <si>
-    <t>7251518</t>
+    <t>7252951</t>
   </si>
   <si>
-    <t>7252952</t>
+    <t>7252949</t>
   </si>
   <si>
     <t>7252953</t>
@@ -124,7 +121,10 @@
     <t>7252955</t>
   </si>
   <si>
-    <t>7252951</t>
+    <t>7252956</t>
+  </si>
+  <si>
+    <t>7252952</t>
   </si>
   <si>
     <t>France Ligue 2</t>
@@ -32413,46 +32413,46 @@
         <v>45422.65625</v>
       </c>
       <c r="E371" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F371" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J371">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="K371">
         <v>3.5</v>
       </c>
       <c r="L371">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="M371">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N371">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O371">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="P371">
         <v>0.5</v>
       </c>
       <c r="Q371">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="R371">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S371">
         <v>2.5</v>
       </c>
       <c r="T371">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U371">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V371">
         <v>0</v>
@@ -32478,31 +32478,31 @@
         <v>45422.65625</v>
       </c>
       <c r="E372" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F372" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J372">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="K372">
+        <v>3.4</v>
+      </c>
+      <c r="L372">
+        <v>3.4</v>
+      </c>
+      <c r="M372">
+        <v>1.909</v>
+      </c>
+      <c r="N372">
         <v>3.5</v>
       </c>
-      <c r="L372">
-        <v>1.833</v>
-      </c>
-      <c r="M372">
-        <v>4.2</v>
-      </c>
-      <c r="N372">
-        <v>3.4</v>
-      </c>
       <c r="O372">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="P372">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q372">
         <v>1.925</v>
@@ -32511,13 +32511,13 @@
         <v>1.925</v>
       </c>
       <c r="S372">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T372">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U372">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V372">
         <v>0</v>
@@ -32543,40 +32543,40 @@
         <v>45422.65625</v>
       </c>
       <c r="E373" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F373" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="J373">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="K373">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L373">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M373">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="N373">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O373">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P373">
         <v>-0.25</v>
       </c>
       <c r="Q373">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R373">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S373">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T373">
         <v>1.875</v>
@@ -32608,46 +32608,46 @@
         <v>45422.65625</v>
       </c>
       <c r="E374" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F374" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J374">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="K374">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="L374">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M374">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="N374">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="O374">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P374">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q374">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R374">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S374">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T374">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U374">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V374">
         <v>0</v>
@@ -32673,46 +32673,46 @@
         <v>45422.65625</v>
       </c>
       <c r="E375" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F375" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="J375">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="K375">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="L375">
         <v>3.4</v>
       </c>
       <c r="M375">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="N375">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="O375">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P375">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q375">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R375">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S375">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T375">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U375">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V375">
         <v>0</v>
@@ -32738,46 +32738,46 @@
         <v>45422.65625</v>
       </c>
       <c r="E376" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F376" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J376">
+        <v>2.15</v>
+      </c>
+      <c r="K376">
+        <v>3.1</v>
+      </c>
+      <c r="L376">
+        <v>3.5</v>
+      </c>
+      <c r="M376">
+        <v>2.1</v>
+      </c>
+      <c r="N376">
+        <v>3.1</v>
+      </c>
+      <c r="O376">
         <v>3.6</v>
       </c>
-      <c r="K376">
-        <v>3.4</v>
-      </c>
-      <c r="L376">
-        <v>2</v>
-      </c>
-      <c r="M376">
-        <v>3.6</v>
-      </c>
-      <c r="N376">
-        <v>3.4</v>
-      </c>
-      <c r="O376">
-        <v>2</v>
-      </c>
       <c r="P376">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q376">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R376">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S376">
         <v>2.25</v>
       </c>
       <c r="T376">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U376">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V376">
         <v>0</v>
@@ -32803,31 +32803,31 @@
         <v>45422.65625</v>
       </c>
       <c r="E377" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F377" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J377">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="K377">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L377">
+        <v>2.1</v>
+      </c>
+      <c r="M377">
+        <v>3.75</v>
+      </c>
+      <c r="N377">
         <v>3.5</v>
       </c>
-      <c r="M377">
-        <v>2.15</v>
-      </c>
-      <c r="N377">
-        <v>3.1</v>
-      </c>
       <c r="O377">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="P377">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q377">
         <v>1.85</v>
@@ -32836,13 +32836,13 @@
         <v>2</v>
       </c>
       <c r="S377">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T377">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U377">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V377">
         <v>0</v>
@@ -32868,46 +32868,46 @@
         <v>45422.65625</v>
       </c>
       <c r="E378" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F378" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="J378">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K378">
         <v>3.4</v>
       </c>
       <c r="L378">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="M378">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N378">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O378">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="P378">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q378">
+        <v>1.925</v>
+      </c>
+      <c r="R378">
+        <v>1.925</v>
+      </c>
+      <c r="S378">
+        <v>2.75</v>
+      </c>
+      <c r="T378">
+        <v>2.025</v>
+      </c>
+      <c r="U378">
         <v>1.825</v>
-      </c>
-      <c r="R378">
-        <v>2.025</v>
-      </c>
-      <c r="S378">
-        <v>2.5</v>
-      </c>
-      <c r="T378">
-        <v>1.925</v>
-      </c>
-      <c r="U378">
-        <v>1.925</v>
       </c>
       <c r="V378">
         <v>0</v>
@@ -32933,46 +32933,46 @@
         <v>45422.65625</v>
       </c>
       <c r="E379" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F379" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="J379">
         <v>3.2</v>
       </c>
       <c r="K379">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L379">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="M379">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="N379">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O379">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="P379">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q379">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R379">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S379">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T379">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U379">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V379">
         <v>0</v>
@@ -32998,46 +32998,46 @@
         <v>45422.65625</v>
       </c>
       <c r="E380" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F380" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J380">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="K380">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L380">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M380">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="N380">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O380">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P380">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q380">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="R380">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S380">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T380">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="U380">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V380">
         <v>0</v>

--- a/France Ligue 2/France Ligue 2.xlsx
+++ b/France Ligue 2/France Ligue 2.xlsx
@@ -118,13 +118,13 @@
     <t>Metz</t>
   </si>
   <si>
-    <t>St Etienne</t>
-  </si>
-  <si>
     <t>Paris FC</t>
   </si>
   <si>
     <t>Grenoble</t>
+  </si>
+  <si>
+    <t>St Etienne</t>
   </si>
   <si>
     <t>Bordeaux</t>
@@ -157,19 +157,19 @@
     <t>Rodez Aveyron</t>
   </si>
   <si>
-    <t>Troyes</t>
+    <t>US Quevilly</t>
+  </si>
+  <si>
+    <t>SC Bastia</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
   </si>
   <si>
     <t>Angers</t>
   </si>
   <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>SC Bastia</t>
-  </si>
-  <si>
-    <t>US Quevilly</t>
+    <t>Troyes</t>
   </si>
   <si>
     <t>Guingamp</t>
@@ -940,7 +940,7 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -1020,7 +1020,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5608144</v>
+        <v>5608145</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -1032,10 +1032,10 @@
         <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1050,43 +1050,43 @@
         <v>57</v>
       </c>
       <c r="L6">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="M6">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O6">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="P6">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S6">
+        <v>1.9</v>
+      </c>
+      <c r="T6">
+        <v>1.95</v>
+      </c>
+      <c r="U6">
+        <v>2.5</v>
+      </c>
+      <c r="V6">
+        <v>2</v>
+      </c>
+      <c r="W6">
         <v>1.85</v>
       </c>
-      <c r="T6">
-        <v>2</v>
-      </c>
-      <c r="U6">
-        <v>3.25</v>
-      </c>
-      <c r="V6">
-        <v>1.9</v>
-      </c>
-      <c r="W6">
-        <v>1.95</v>
-      </c>
       <c r="X6">
-        <v>0.55</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y6">
         <v>-1</v>
@@ -1095,16 +1095,16 @@
         <v>-1</v>
       </c>
       <c r="AA6">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB6">
+        <v>-1</v>
+      </c>
+      <c r="AC6">
+        <v>-1</v>
+      </c>
+      <c r="AD6">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB6">
-        <v>-1</v>
-      </c>
-      <c r="AC6">
-        <v>-1</v>
-      </c>
-      <c r="AD6">
-        <v>0.95</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -1112,7 +1112,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5608145</v>
+        <v>5608146</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -1124,79 +1124,79 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L7">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="M7">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="N7">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="O7">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="P7">
         <v>3.4</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="R7">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T7">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U7">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W7">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="X7">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="AA7">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC7">
         <v>-1</v>
       </c>
       <c r="AD7">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -1204,7 +1204,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5608146</v>
+        <v>5608144</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -1216,79 +1216,79 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L8">
-        <v>2.7</v>
+        <v>1.571</v>
       </c>
       <c r="M8">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="N8">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="O8">
-        <v>2.7</v>
+        <v>1.55</v>
       </c>
       <c r="P8">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="Q8">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S8">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T8">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U8">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V8">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W8">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB8">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
         <v>-1</v>
       </c>
       <c r="AD8">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -1394,7 +1394,7 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1575,10 +1575,10 @@
         <v>45143.41666666666</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1946,7 +1946,7 @@
         <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -2038,7 +2038,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -2219,7 +2219,7 @@
         <v>45143.58333333334</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
         <v>53</v>
@@ -2498,7 +2498,7 @@
         <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2578,7 +2578,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6843224</v>
+        <v>6843226</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
@@ -2590,79 +2590,79 @@
         <v>47</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>56</v>
+      </c>
+      <c r="L23">
+        <v>2.5</v>
+      </c>
+      <c r="M23">
         <v>3</v>
       </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>2</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23" t="s">
-        <v>57</v>
-      </c>
-      <c r="L23">
-        <v>1.909</v>
-      </c>
-      <c r="M23">
-        <v>3.3</v>
-      </c>
       <c r="N23">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="O23">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P23">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q23">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="R23">
         <v>-0.25</v>
       </c>
       <c r="S23">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T23">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U23">
+        <v>2</v>
+      </c>
+      <c r="V23">
+        <v>2.025</v>
+      </c>
+      <c r="W23">
+        <v>1.825</v>
+      </c>
+      <c r="X23">
+        <v>-1</v>
+      </c>
+      <c r="Y23">
+        <v>-1</v>
+      </c>
+      <c r="Z23">
         <v>2.25</v>
       </c>
-      <c r="V23">
-        <v>1.85</v>
-      </c>
-      <c r="W23">
-        <v>2</v>
-      </c>
-      <c r="X23">
-        <v>1.15</v>
-      </c>
-      <c r="Y23">
-        <v>-1</v>
-      </c>
-      <c r="Z23">
-        <v>-1</v>
-      </c>
       <c r="AA23">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC23">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD23">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="24" spans="1:30">
@@ -2670,7 +2670,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6843225</v>
+        <v>6843220</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
@@ -2679,19 +2679,19 @@
         <v>45150.58333333334</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2700,43 +2700,43 @@
         <v>57</v>
       </c>
       <c r="L24">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="M24">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N24">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="O24">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="P24">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q24">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="R24">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S24">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T24">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U24">
         <v>2.25</v>
       </c>
       <c r="V24">
+        <v>2.025</v>
+      </c>
+      <c r="W24">
         <v>1.825</v>
       </c>
-      <c r="W24">
-        <v>2.025</v>
-      </c>
       <c r="X24">
-        <v>1.1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y24">
         <v>-1</v>
@@ -2745,16 +2745,16 @@
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB24">
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AD24">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:30">
@@ -2762,7 +2762,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7022297</v>
+        <v>6843221</v>
       </c>
       <c r="C25" t="s">
         <v>29</v>
@@ -2771,16 +2771,16 @@
         <v>45150.58333333334</v>
       </c>
       <c r="E25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2789,64 +2789,64 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L25">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="M25">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N25">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="O25">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="P25">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q25">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="R25">
         <v>-0.75</v>
       </c>
       <c r="S25">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T25">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U25">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V25">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W25">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="AA25">
         <v>-1</v>
       </c>
       <c r="AB25">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC25">
         <v>-1</v>
       </c>
       <c r="AD25">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:30">
@@ -2854,7 +2854,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6843221</v>
+        <v>7022297</v>
       </c>
       <c r="C26" t="s">
         <v>29</v>
@@ -2863,16 +2863,16 @@
         <v>45150.58333333334</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2881,64 +2881,64 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L26">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="M26">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N26">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="O26">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="P26">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q26">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="R26">
         <v>-0.75</v>
       </c>
       <c r="S26">
+        <v>1.825</v>
+      </c>
+      <c r="T26">
+        <v>2.025</v>
+      </c>
+      <c r="U26">
+        <v>2.25</v>
+      </c>
+      <c r="V26">
         <v>1.9</v>
       </c>
-      <c r="T26">
+      <c r="W26">
         <v>1.95</v>
       </c>
-      <c r="U26">
-        <v>2.5</v>
-      </c>
-      <c r="V26">
-        <v>1.875</v>
-      </c>
-      <c r="W26">
-        <v>1.975</v>
-      </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z26">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
         <v>-1</v>
       </c>
       <c r="AB26">
+        <v>1.025</v>
+      </c>
+      <c r="AC26">
+        <v>-1</v>
+      </c>
+      <c r="AD26">
         <v>0.95</v>
-      </c>
-      <c r="AC26">
-        <v>-1</v>
-      </c>
-      <c r="AD26">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:30">
@@ -2946,7 +2946,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6843220</v>
+        <v>6843225</v>
       </c>
       <c r="C27" t="s">
         <v>29</v>
@@ -2955,19 +2955,19 @@
         <v>45150.58333333334</v>
       </c>
       <c r="E27" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2976,43 +2976,43 @@
         <v>57</v>
       </c>
       <c r="L27">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="M27">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N27">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="O27">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="P27">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q27">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="R27">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S27">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T27">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U27">
         <v>2.25</v>
       </c>
       <c r="V27">
+        <v>1.825</v>
+      </c>
+      <c r="W27">
         <v>2.025</v>
       </c>
-      <c r="W27">
-        <v>1.825</v>
-      </c>
       <c r="X27">
-        <v>0.6659999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="Y27">
         <v>-1</v>
@@ -3021,16 +3021,16 @@
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AD27">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="28" spans="1:30">
@@ -3038,7 +3038,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6843226</v>
+        <v>6843224</v>
       </c>
       <c r="C28" t="s">
         <v>29</v>
@@ -3050,79 +3050,79 @@
         <v>51</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L28">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="M28">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="N28">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="O28">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P28">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q28">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="R28">
         <v>-0.25</v>
       </c>
       <c r="S28">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T28">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U28">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V28">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W28">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB28">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD28">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:30">
@@ -3415,7 +3415,7 @@
         <v>45157.41666666666</v>
       </c>
       <c r="E32" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F32" t="s">
         <v>49</v>
@@ -3694,7 +3694,7 @@
         <v>31</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -3783,10 +3783,10 @@
         <v>45157.58333333334</v>
       </c>
       <c r="E36" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F36" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3878,7 +3878,7 @@
         <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -4151,10 +4151,10 @@
         <v>45157.58333333334</v>
       </c>
       <c r="E40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F40" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -4522,7 +4522,7 @@
         <v>49</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4795,7 +4795,7 @@
         <v>45164.58333333334</v>
       </c>
       <c r="E47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F47" t="s">
         <v>40</v>
@@ -4887,7 +4887,7 @@
         <v>45164.58333333334</v>
       </c>
       <c r="E48" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F48" t="s">
         <v>43</v>
@@ -4979,10 +4979,10 @@
         <v>45164.58333333334</v>
       </c>
       <c r="E49" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -5074,7 +5074,7 @@
         <v>41</v>
       </c>
       <c r="F50" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -5166,7 +5166,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -5623,10 +5623,10 @@
         <v>45171.58333333334</v>
       </c>
       <c r="E56" t="s">
+        <v>51</v>
+      </c>
+      <c r="F56" t="s">
         <v>47</v>
-      </c>
-      <c r="F56" t="s">
-        <v>51</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -5807,10 +5807,10 @@
         <v>45171.58333333334</v>
       </c>
       <c r="E58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5899,7 +5899,7 @@
         <v>45171.58333333334</v>
       </c>
       <c r="E59" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F59" t="s">
         <v>42</v>
@@ -6083,10 +6083,10 @@
         <v>45171.58333333334</v>
       </c>
       <c r="E61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F61" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -6178,7 +6178,7 @@
         <v>53</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -6267,7 +6267,7 @@
         <v>45185.58333333334</v>
       </c>
       <c r="E63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F63" t="s">
         <v>30</v>
@@ -6362,7 +6362,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -6543,7 +6543,7 @@
         <v>45185.58333333334</v>
       </c>
       <c r="E66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F66" t="s">
         <v>43</v>
@@ -6638,7 +6638,7 @@
         <v>46</v>
       </c>
       <c r="F67" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G67">
         <v>4</v>
@@ -6727,7 +6727,7 @@
         <v>45185.58333333334</v>
       </c>
       <c r="E68" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F68" t="s">
         <v>40</v>
@@ -6914,7 +6914,7 @@
         <v>41</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -7095,7 +7095,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="E72" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F72" t="s">
         <v>49</v>
@@ -7371,10 +7371,10 @@
         <v>45192.58333333334</v>
       </c>
       <c r="E75" t="s">
+        <v>50</v>
+      </c>
+      <c r="F75" t="s">
         <v>48</v>
-      </c>
-      <c r="F75" t="s">
-        <v>50</v>
       </c>
       <c r="G75">
         <v>2</v>
@@ -7558,7 +7558,7 @@
         <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -7742,7 +7742,7 @@
         <v>40</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -7831,10 +7831,10 @@
         <v>45192.58333333334</v>
       </c>
       <c r="E80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F80" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -8291,7 +8291,7 @@
         <v>45195.65625</v>
       </c>
       <c r="E85" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F85" t="s">
         <v>31</v>
@@ -8386,7 +8386,7 @@
         <v>53</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -8475,7 +8475,7 @@
         <v>45195.65625</v>
       </c>
       <c r="E87" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F87" t="s">
         <v>43</v>
@@ -8567,10 +8567,10 @@
         <v>45195.65625</v>
       </c>
       <c r="E88" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F88" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -8662,7 +8662,7 @@
         <v>46</v>
       </c>
       <c r="F89" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8751,10 +8751,10 @@
         <v>45199.41666666666</v>
       </c>
       <c r="E90" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -8846,7 +8846,7 @@
         <v>44</v>
       </c>
       <c r="F91" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -8935,7 +8935,7 @@
         <v>45199.58333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F92" t="s">
         <v>40</v>
@@ -9030,7 +9030,7 @@
         <v>41</v>
       </c>
       <c r="F93" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -9487,7 +9487,7 @@
         <v>45199.58333333334</v>
       </c>
       <c r="E98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F98" t="s">
         <v>37</v>
@@ -9582,7 +9582,7 @@
         <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G99">
         <v>2</v>
@@ -9763,7 +9763,7 @@
         <v>45203.57291666666</v>
       </c>
       <c r="E101" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F101" t="s">
         <v>41</v>
@@ -9947,7 +9947,7 @@
         <v>45206.58333333334</v>
       </c>
       <c r="E103" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F103" t="s">
         <v>31</v>
@@ -10039,7 +10039,7 @@
         <v>45206.58333333334</v>
       </c>
       <c r="E104" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F104" t="s">
         <v>45</v>
@@ -10131,7 +10131,7 @@
         <v>45206.58333333334</v>
       </c>
       <c r="E105" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F105" t="s">
         <v>44</v>
@@ -10315,7 +10315,7 @@
         <v>45206.58333333334</v>
       </c>
       <c r="E107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F107" t="s">
         <v>49</v>
@@ -10410,7 +10410,7 @@
         <v>42</v>
       </c>
       <c r="F108" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -10502,7 +10502,7 @@
         <v>30</v>
       </c>
       <c r="F109" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -10686,7 +10686,7 @@
         <v>52</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G111">
         <v>2</v>
@@ -10867,7 +10867,7 @@
         <v>45220.58333333334</v>
       </c>
       <c r="E113" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F113" t="s">
         <v>37</v>
@@ -10962,7 +10962,7 @@
         <v>52</v>
       </c>
       <c r="F114" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -11143,7 +11143,7 @@
         <v>45220.58333333334</v>
       </c>
       <c r="E116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F116" t="s">
         <v>42</v>
@@ -11235,7 +11235,7 @@
         <v>45220.58333333334</v>
       </c>
       <c r="E117" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F117" t="s">
         <v>40</v>
@@ -11330,7 +11330,7 @@
         <v>41</v>
       </c>
       <c r="F118" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -11514,7 +11514,7 @@
         <v>46</v>
       </c>
       <c r="F120" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -11606,7 +11606,7 @@
         <v>43</v>
       </c>
       <c r="F121" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -11882,7 +11882,7 @@
         <v>31</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G124">
         <v>3</v>
@@ -12063,10 +12063,10 @@
         <v>45227.58333333334</v>
       </c>
       <c r="E126" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F126" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G126">
         <v>2</v>
@@ -12155,7 +12155,7 @@
         <v>45227.58333333334</v>
       </c>
       <c r="E127" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F127" t="s">
         <v>44</v>
@@ -12431,7 +12431,7 @@
         <v>45227.58333333334</v>
       </c>
       <c r="E130" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F130" t="s">
         <v>52</v>
@@ -12523,10 +12523,10 @@
         <v>45229.69791666666</v>
       </c>
       <c r="E131" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F131" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -12615,10 +12615,10 @@
         <v>45234.45833333334</v>
       </c>
       <c r="E132" t="s">
+        <v>36</v>
+      </c>
+      <c r="F132" t="s">
         <v>34</v>
-      </c>
-      <c r="F132" t="s">
-        <v>35</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -12707,7 +12707,7 @@
         <v>45234.625</v>
       </c>
       <c r="E133" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F133" t="s">
         <v>46</v>
@@ -12799,7 +12799,7 @@
         <v>45234.625</v>
       </c>
       <c r="E134" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F134" t="s">
         <v>45</v>
@@ -13075,7 +13075,7 @@
         <v>45234.625</v>
       </c>
       <c r="E137" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F137" t="s">
         <v>37</v>
@@ -13167,7 +13167,7 @@
         <v>45234.625</v>
       </c>
       <c r="E138" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F138" t="s">
         <v>42</v>
@@ -13259,7 +13259,7 @@
         <v>45234.625</v>
       </c>
       <c r="E139" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F139" t="s">
         <v>53</v>
@@ -13538,7 +13538,7 @@
         <v>31</v>
       </c>
       <c r="F142" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G142">
         <v>4</v>
@@ -13722,7 +13722,7 @@
         <v>45</v>
       </c>
       <c r="F144" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -13903,10 +13903,10 @@
         <v>45241.625</v>
       </c>
       <c r="E146" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F146" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -14090,7 +14090,7 @@
         <v>53</v>
       </c>
       <c r="F148" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G148">
         <v>3</v>
@@ -14182,7 +14182,7 @@
         <v>49</v>
       </c>
       <c r="F149" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G149">
         <v>5</v>
@@ -14274,7 +14274,7 @@
         <v>30</v>
       </c>
       <c r="F150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -14363,7 +14363,7 @@
         <v>45255.45833333334</v>
       </c>
       <c r="E151" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F151" t="s">
         <v>31</v>
@@ -14639,7 +14639,7 @@
         <v>45255.625</v>
       </c>
       <c r="E154" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F154" t="s">
         <v>42</v>
@@ -14731,7 +14731,7 @@
         <v>45255.625</v>
       </c>
       <c r="E155" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F155" t="s">
         <v>49</v>
@@ -14823,7 +14823,7 @@
         <v>45255.625</v>
       </c>
       <c r="E156" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F156" t="s">
         <v>52</v>
@@ -14915,7 +14915,7 @@
         <v>45255.625</v>
       </c>
       <c r="E157" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F157" t="s">
         <v>46</v>
@@ -15007,7 +15007,7 @@
         <v>45255.625</v>
       </c>
       <c r="E158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F158" t="s">
         <v>37</v>
@@ -15099,7 +15099,7 @@
         <v>45257.69791666666</v>
       </c>
       <c r="E159" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F159" t="s">
         <v>53</v>
@@ -15286,7 +15286,7 @@
         <v>37</v>
       </c>
       <c r="F161" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -15470,7 +15470,7 @@
         <v>52</v>
       </c>
       <c r="F163" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -15562,7 +15562,7 @@
         <v>43</v>
       </c>
       <c r="F164" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -15654,7 +15654,7 @@
         <v>49</v>
       </c>
       <c r="F165" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G165">
         <v>3</v>
@@ -15838,7 +15838,7 @@
         <v>30</v>
       </c>
       <c r="F167" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -15930,7 +15930,7 @@
         <v>45</v>
       </c>
       <c r="F168" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G168">
         <v>1</v>
@@ -16114,7 +16114,7 @@
         <v>53</v>
       </c>
       <c r="F170" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -16203,7 +16203,7 @@
         <v>45265.69791666666</v>
       </c>
       <c r="E171" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F171" t="s">
         <v>30</v>
@@ -16295,7 +16295,7 @@
         <v>45265.69791666666</v>
       </c>
       <c r="E172" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F172" t="s">
         <v>46</v>
@@ -16390,7 +16390,7 @@
         <v>41</v>
       </c>
       <c r="F173" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -16479,10 +16479,10 @@
         <v>45265.69791666666</v>
       </c>
       <c r="E174" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F174" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -16847,7 +16847,7 @@
         <v>45265.69791666666</v>
       </c>
       <c r="E178" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F178" t="s">
         <v>52</v>
@@ -16939,7 +16939,7 @@
         <v>45265.69791666666</v>
       </c>
       <c r="E179" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F179" t="s">
         <v>37</v>
@@ -17126,7 +17126,7 @@
         <v>37</v>
       </c>
       <c r="F181" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -17307,10 +17307,10 @@
         <v>45276.625</v>
       </c>
       <c r="E183" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F183" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G183">
         <v>0</v>
@@ -17491,7 +17491,7 @@
         <v>45276.625</v>
       </c>
       <c r="E185" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F185" t="s">
         <v>44</v>
@@ -17675,10 +17675,10 @@
         <v>45276.625</v>
       </c>
       <c r="E187" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F187" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -17862,7 +17862,7 @@
         <v>42</v>
       </c>
       <c r="F189" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -18043,10 +18043,10 @@
         <v>45279.69791666666</v>
       </c>
       <c r="E191" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F191" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G191">
         <v>3</v>
@@ -18319,10 +18319,10 @@
         <v>45279.69791666666</v>
       </c>
       <c r="E194" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F194" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G194">
         <v>2</v>
@@ -18503,7 +18503,7 @@
         <v>45279.69791666666</v>
       </c>
       <c r="E196" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F196" t="s">
         <v>52</v>
@@ -18598,7 +18598,7 @@
         <v>31</v>
       </c>
       <c r="F197" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G197">
         <v>1</v>
@@ -18874,7 +18874,7 @@
         <v>40</v>
       </c>
       <c r="F200" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -18963,7 +18963,7 @@
         <v>45304.45833333334</v>
       </c>
       <c r="E201" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F201" t="s">
         <v>43</v>
@@ -19147,7 +19147,7 @@
         <v>45304.625</v>
       </c>
       <c r="E203" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F203" t="s">
         <v>41</v>
@@ -19239,7 +19239,7 @@
         <v>45304.625</v>
       </c>
       <c r="E204" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F204" t="s">
         <v>52</v>
@@ -19331,10 +19331,10 @@
         <v>45304.625</v>
       </c>
       <c r="E205" t="s">
+        <v>48</v>
+      </c>
+      <c r="F205" t="s">
         <v>50</v>
-      </c>
-      <c r="F205" t="s">
-        <v>48</v>
       </c>
       <c r="G205">
         <v>2</v>
@@ -19423,7 +19423,7 @@
         <v>45304.625</v>
       </c>
       <c r="E206" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F206" t="s">
         <v>44</v>
@@ -19607,7 +19607,7 @@
         <v>45304.625</v>
       </c>
       <c r="E208" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F208" t="s">
         <v>45</v>
@@ -19883,10 +19883,10 @@
         <v>45314.69791666666</v>
       </c>
       <c r="E211" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F211" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G211">
         <v>3</v>
@@ -19978,7 +19978,7 @@
         <v>40</v>
       </c>
       <c r="F212" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G212">
         <v>1</v>
@@ -20070,7 +20070,7 @@
         <v>31</v>
       </c>
       <c r="F213" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -20346,7 +20346,7 @@
         <v>43</v>
       </c>
       <c r="F216" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G216">
         <v>1</v>
@@ -20435,7 +20435,7 @@
         <v>45314.69791666666</v>
       </c>
       <c r="E217" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F217" t="s">
         <v>53</v>
@@ -20619,7 +20619,7 @@
         <v>45314.69791666666</v>
       </c>
       <c r="E219" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F219" t="s">
         <v>49</v>
@@ -20803,7 +20803,7 @@
         <v>45318.45833333334</v>
       </c>
       <c r="E221" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F221" t="s">
         <v>30</v>
@@ -20895,7 +20895,7 @@
         <v>45318.625</v>
       </c>
       <c r="E222" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F222" t="s">
         <v>41</v>
@@ -21082,7 +21082,7 @@
         <v>53</v>
       </c>
       <c r="F224" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G224">
         <v>0</v>
@@ -21447,10 +21447,10 @@
         <v>45318.625</v>
       </c>
       <c r="E228" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F228" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G228">
         <v>1</v>
@@ -21542,7 +21542,7 @@
         <v>42</v>
       </c>
       <c r="F229" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G229">
         <v>3</v>
@@ -21634,7 +21634,7 @@
         <v>37</v>
       </c>
       <c r="F230" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G230">
         <v>1</v>
@@ -21726,7 +21726,7 @@
         <v>41</v>
       </c>
       <c r="F231" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G231">
         <v>1</v>
@@ -21815,7 +21815,7 @@
         <v>45325.625</v>
       </c>
       <c r="E232" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F232" t="s">
         <v>46</v>
@@ -21907,7 +21907,7 @@
         <v>45325.625</v>
       </c>
       <c r="E233" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F233" t="s">
         <v>37</v>
@@ -22094,7 +22094,7 @@
         <v>30</v>
       </c>
       <c r="F235" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G235">
         <v>1</v>
@@ -22183,7 +22183,7 @@
         <v>45325.625</v>
       </c>
       <c r="E236" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F236" t="s">
         <v>53</v>
@@ -22370,7 +22370,7 @@
         <v>43</v>
       </c>
       <c r="F238" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G238">
         <v>2</v>
@@ -22551,7 +22551,7 @@
         <v>45327.69791666666</v>
       </c>
       <c r="E240" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F240" t="s">
         <v>45</v>
@@ -22646,7 +22646,7 @@
         <v>49</v>
       </c>
       <c r="F241" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G241">
         <v>1</v>
@@ -22919,10 +22919,10 @@
         <v>45332.625</v>
       </c>
       <c r="E244" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F244" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -23106,7 +23106,7 @@
         <v>37</v>
       </c>
       <c r="F246" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G246">
         <v>1</v>
@@ -23379,7 +23379,7 @@
         <v>45332.625</v>
       </c>
       <c r="E249" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F249" t="s">
         <v>31</v>
@@ -23471,10 +23471,10 @@
         <v>45334.69791666666</v>
       </c>
       <c r="E250" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F250" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G250">
         <v>5</v>
@@ -23563,10 +23563,10 @@
         <v>45339.45833333334</v>
       </c>
       <c r="E251" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F251" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>31</v>
       </c>
       <c r="F253" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -23839,7 +23839,7 @@
         <v>45339.625</v>
       </c>
       <c r="E254" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F254" t="s">
         <v>46</v>
@@ -23934,7 +23934,7 @@
         <v>40</v>
       </c>
       <c r="F255" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G255">
         <v>2</v>
@@ -24207,10 +24207,10 @@
         <v>45339.625</v>
       </c>
       <c r="E258" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F258" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G258">
         <v>3</v>
@@ -24483,7 +24483,7 @@
         <v>45346.45833333334</v>
       </c>
       <c r="E261" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F261" t="s">
         <v>44</v>
@@ -24943,7 +24943,7 @@
         <v>45346.625</v>
       </c>
       <c r="E266" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F266" t="s">
         <v>41</v>
@@ -25035,10 +25035,10 @@
         <v>45346.625</v>
       </c>
       <c r="E267" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F267" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G267">
         <v>0</v>
@@ -25127,7 +25127,7 @@
         <v>45346.625</v>
       </c>
       <c r="E268" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F268" t="s">
         <v>31</v>
@@ -25222,7 +25222,7 @@
         <v>49</v>
       </c>
       <c r="F269" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G269">
         <v>1</v>
@@ -25314,7 +25314,7 @@
         <v>53</v>
       </c>
       <c r="F270" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G270">
         <v>2</v>
@@ -25403,10 +25403,10 @@
         <v>45353.45833333334</v>
       </c>
       <c r="E271" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F271" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G271">
         <v>0</v>
@@ -25498,7 +25498,7 @@
         <v>52</v>
       </c>
       <c r="F272" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G272">
         <v>0</v>
@@ -25590,7 +25590,7 @@
         <v>44</v>
       </c>
       <c r="F273" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G273">
         <v>0</v>
@@ -25955,10 +25955,10 @@
         <v>45353.625</v>
       </c>
       <c r="E277" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F277" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G277">
         <v>1</v>
@@ -26231,7 +26231,7 @@
         <v>45355.69791666666</v>
       </c>
       <c r="E280" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F280" t="s">
         <v>45</v>
@@ -26323,7 +26323,7 @@
         <v>45360.45833333334</v>
       </c>
       <c r="E281" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F281" t="s">
         <v>49</v>
@@ -26418,7 +26418,7 @@
         <v>42</v>
       </c>
       <c r="F282" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G282">
         <v>0</v>
@@ -26510,7 +26510,7 @@
         <v>53</v>
       </c>
       <c r="F283" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G283">
         <v>0</v>
@@ -26875,10 +26875,10 @@
         <v>45360.625</v>
       </c>
       <c r="E287" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F287" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G287">
         <v>2</v>
@@ -27062,7 +27062,7 @@
         <v>37</v>
       </c>
       <c r="F289" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G289">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>45362.69791666666</v>
       </c>
       <c r="E290" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F290" t="s">
         <v>43</v>
@@ -27335,7 +27335,7 @@
         <v>45367.625</v>
       </c>
       <c r="E292" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F292" t="s">
         <v>45</v>
@@ -27427,10 +27427,10 @@
         <v>45367.625</v>
       </c>
       <c r="E293" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F293" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G293">
         <v>0</v>
@@ -27519,7 +27519,7 @@
         <v>45367.625</v>
       </c>
       <c r="E294" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F294" t="s">
         <v>30</v>
@@ -27887,10 +27887,10 @@
         <v>45367.625</v>
       </c>
       <c r="E298" t="s">
+        <v>47</v>
+      </c>
+      <c r="F298" t="s">
         <v>51</v>
-      </c>
-      <c r="F298" t="s">
-        <v>47</v>
       </c>
       <c r="G298">
         <v>1</v>
@@ -28074,7 +28074,7 @@
         <v>46</v>
       </c>
       <c r="F300" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G300">
         <v>3</v>
@@ -28166,7 +28166,7 @@
         <v>42</v>
       </c>
       <c r="F301" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G301">
         <v>0</v>
@@ -28255,7 +28255,7 @@
         <v>45381.625</v>
       </c>
       <c r="E302" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F302" t="s">
         <v>46</v>
@@ -28442,7 +28442,7 @@
         <v>43</v>
       </c>
       <c r="F304" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G304">
         <v>1</v>
@@ -28531,7 +28531,7 @@
         <v>45381.625</v>
       </c>
       <c r="E305" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F305" t="s">
         <v>52</v>
@@ -28623,7 +28623,7 @@
         <v>45381.625</v>
       </c>
       <c r="E306" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F306" t="s">
         <v>53</v>
@@ -28810,7 +28810,7 @@
         <v>40</v>
       </c>
       <c r="F308" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G308">
         <v>2</v>
@@ -28902,7 +28902,7 @@
         <v>37</v>
       </c>
       <c r="F309" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G309">
         <v>3</v>
@@ -29083,7 +29083,7 @@
         <v>45388.41666666666</v>
       </c>
       <c r="E311" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F311" t="s">
         <v>40</v>
@@ -29270,7 +29270,7 @@
         <v>46</v>
       </c>
       <c r="F313" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G313">
         <v>3</v>
@@ -29451,7 +29451,7 @@
         <v>45388.58333333334</v>
       </c>
       <c r="E315" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F315" t="s">
         <v>41</v>
@@ -29543,7 +29543,7 @@
         <v>45388.58333333334</v>
       </c>
       <c r="E316" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F316" t="s">
         <v>43</v>
@@ -29635,10 +29635,10 @@
         <v>45388.58333333334</v>
       </c>
       <c r="E317" t="s">
+        <v>34</v>
+      </c>
+      <c r="F317" t="s">
         <v>35</v>
-      </c>
-      <c r="F317" t="s">
-        <v>36</v>
       </c>
       <c r="G317">
         <v>2</v>
@@ -29914,7 +29914,7 @@
         <v>49</v>
       </c>
       <c r="F320" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G320">
         <v>2</v>
@@ -30006,7 +30006,7 @@
         <v>45</v>
       </c>
       <c r="F321" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G321">
         <v>2</v>
@@ -30098,7 +30098,7 @@
         <v>37</v>
       </c>
       <c r="F322" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G322">
         <v>2</v>
@@ -30371,7 +30371,7 @@
         <v>45395.58333333334</v>
       </c>
       <c r="E325" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F325" t="s">
         <v>49</v>
@@ -30463,10 +30463,10 @@
         <v>45395.58333333334</v>
       </c>
       <c r="E326" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F326" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G326">
         <v>1</v>
@@ -30831,10 +30831,10 @@
         <v>45397.65625</v>
       </c>
       <c r="E330" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F330" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G330">
         <v>0</v>
@@ -31015,7 +31015,7 @@
         <v>45402.58333333334</v>
       </c>
       <c r="E332" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F332" t="s">
         <v>42</v>
@@ -31110,7 +31110,7 @@
         <v>44</v>
       </c>
       <c r="F333" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G333">
         <v>0</v>
@@ -31202,7 +31202,7 @@
         <v>40</v>
       </c>
       <c r="F334" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G334">
         <v>0</v>
@@ -31291,10 +31291,10 @@
         <v>45402.58333333334</v>
       </c>
       <c r="E335" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F335" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G335">
         <v>2</v>
@@ -31386,7 +31386,7 @@
         <v>52</v>
       </c>
       <c r="F336" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G336">
         <v>0</v>
@@ -31659,7 +31659,7 @@
         <v>45402.58333333334</v>
       </c>
       <c r="E339" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F339" t="s">
         <v>37</v>
@@ -31846,7 +31846,7 @@
         <v>52</v>
       </c>
       <c r="F341" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G341">
         <v>1</v>
@@ -32027,7 +32027,7 @@
         <v>45405.65625</v>
       </c>
       <c r="E343" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F343" t="s">
         <v>30</v>
@@ -32211,7 +32211,7 @@
         <v>45405.65625</v>
       </c>
       <c r="E345" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F345" t="s">
         <v>31</v>
@@ -32490,7 +32490,7 @@
         <v>46</v>
       </c>
       <c r="F348" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G348">
         <v>1</v>
@@ -32579,7 +32579,7 @@
         <v>45405.65625</v>
       </c>
       <c r="E349" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F349" t="s">
         <v>40</v>
@@ -32671,10 +32671,10 @@
         <v>45405.65625</v>
       </c>
       <c r="E350" t="s">
+        <v>35</v>
+      </c>
+      <c r="F350" t="s">
         <v>36</v>
-      </c>
-      <c r="F350" t="s">
-        <v>34</v>
       </c>
       <c r="G350">
         <v>0</v>
@@ -32763,7 +32763,7 @@
         <v>45409.41666666666</v>
       </c>
       <c r="E351" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F351" t="s">
         <v>53</v>
@@ -32855,10 +32855,10 @@
         <v>45409.58333333334</v>
       </c>
       <c r="E352" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F352" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G352">
         <v>3</v>
@@ -33226,7 +33226,7 @@
         <v>45</v>
       </c>
       <c r="F356" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G356">
         <v>1</v>
@@ -33318,7 +33318,7 @@
         <v>42</v>
       </c>
       <c r="F357" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G357">
         <v>2</v>
@@ -33410,7 +33410,7 @@
         <v>44</v>
       </c>
       <c r="F358" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G358">
         <v>3</v>
@@ -33502,7 +33502,7 @@
         <v>30</v>
       </c>
       <c r="F359" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G359">
         <v>0</v>
@@ -33683,7 +33683,7 @@
         <v>45415.625</v>
       </c>
       <c r="E361" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F361" t="s">
         <v>31</v>
@@ -33775,7 +33775,7 @@
         <v>45415.625</v>
       </c>
       <c r="E362" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F362" t="s">
         <v>42</v>
@@ -34051,7 +34051,7 @@
         <v>45415.625</v>
       </c>
       <c r="E365" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F365" t="s">
         <v>40</v>
@@ -34143,7 +34143,7 @@
         <v>45415.625</v>
       </c>
       <c r="E366" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F366" t="s">
         <v>41</v>
@@ -34327,7 +34327,7 @@
         <v>45415.625</v>
       </c>
       <c r="E368" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F368" t="s">
         <v>30</v>
@@ -34422,7 +34422,7 @@
         <v>49</v>
       </c>
       <c r="F369" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G369">
         <v>2</v>
@@ -34514,7 +34514,7 @@
         <v>52</v>
       </c>
       <c r="F370" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G370">
         <v>2</v>
@@ -34603,7 +34603,7 @@
         <v>45422.65625</v>
       </c>
       <c r="E371" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F371" t="s">
         <v>46</v>
@@ -34698,7 +34698,7 @@
         <v>44</v>
       </c>
       <c r="F372" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G372">
         <v>1</v>
@@ -34882,7 +34882,7 @@
         <v>42</v>
       </c>
       <c r="F374" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G374">
         <v>2</v>
@@ -34971,7 +34971,7 @@
         <v>45422.65625</v>
       </c>
       <c r="E375" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F375" t="s">
         <v>52</v>
@@ -35158,7 +35158,7 @@
         <v>43</v>
       </c>
       <c r="F377" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G377">
         <v>1</v>
@@ -35250,7 +35250,7 @@
         <v>45</v>
       </c>
       <c r="F378" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G378">
         <v>1</v>
@@ -35342,7 +35342,7 @@
         <v>31</v>
       </c>
       <c r="F379" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G379">
         <v>1</v>
@@ -35523,7 +35523,7 @@
         <v>45429.65625</v>
       </c>
       <c r="E381" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F381" t="s">
         <v>30</v>
@@ -35891,7 +35891,7 @@
         <v>45429.65625</v>
       </c>
       <c r="E385" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F385" t="s">
         <v>44</v>
@@ -36167,10 +36167,10 @@
         <v>45429.65625</v>
       </c>
       <c r="E388" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F388" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G388">
         <v>2</v>
@@ -36259,10 +36259,10 @@
         <v>45429.65625</v>
       </c>
       <c r="E389" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F389" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G389">
         <v>1</v>
@@ -36351,7 +36351,7 @@
         <v>45429.65625</v>
       </c>
       <c r="E390" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F390" t="s">
         <v>41</v>
@@ -36443,7 +36443,7 @@
         <v>45436.64583333334</v>
       </c>
       <c r="E391" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F391" t="s">
         <v>46</v>
